--- a/Excel/casMedian1.xlsx
+++ b/Excel/casMedian1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portable\Documents\GitHub\PEPSI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA004428-6C02-4B8F-84EF-F02BD3B427B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557DF79F-1C2E-4805-AC3A-56D9EA27F483}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7440" xr2:uid="{5172E695-FFD0-4A81-8853-8CB156196831}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="273">
   <si>
     <t>1215.38</t>
   </si>
@@ -857,7 +857,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,6 +962,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -983,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1009,6 +1016,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1323,17 +1331,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8926E1A2-95A1-4361-8542-D3980DDE6A70}">
-  <dimension ref="A1:AK88"/>
+  <dimension ref="A1:AK96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U23" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView tabSelected="1" topLeftCell="U16" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19:AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.6328125" customWidth="1"/>
     <col min="27" max="27" width="13.453125" customWidth="1"/>
-    <col min="29" max="29" width="14.08984375" customWidth="1"/>
+    <col min="29" max="29" width="19.36328125" customWidth="1"/>
     <col min="30" max="30" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2931,2874 +2939,3715 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3">
+        <v>5</v>
+      </c>
+      <c r="B23" s="17">
+        <f t="shared" ref="B23:Z23" si="2">(B8)/B$3</f>
+        <v>0.99</v>
+      </c>
+      <c r="C23" s="17">
+        <f t="shared" si="2"/>
+        <v>0.89</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="2"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+      <c r="K23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="17">
+        <f t="shared" si="2"/>
+        <v>0.81</v>
+      </c>
+      <c r="M23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="17">
+        <f t="shared" si="2"/>
+        <v>0.76999999999999991</v>
+      </c>
+      <c r="P23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="17">
+        <f t="shared" si="2"/>
+        <v>0.91</v>
+      </c>
+      <c r="R23" s="17">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+      <c r="S23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="17">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB23" s="17">
+        <f t="shared" ref="AB23:AB30" si="3">AVERAGE(B23:Z23)</f>
+        <v>0.96079999999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
+      <c r="A24" s="3">
+        <v>6</v>
+      </c>
+      <c r="B24" s="17">
+        <f t="shared" ref="B24:Z24" si="4">(B9)/B$3</f>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="C24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.99</v>
+      </c>
+      <c r="D24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="4"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.95</v>
+      </c>
+      <c r="K24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="L24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.89</v>
+      </c>
+      <c r="M24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.92</v>
+      </c>
+      <c r="N24" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="P24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.78</v>
+      </c>
+      <c r="Q24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.85</v>
+      </c>
+      <c r="R24" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.99</v>
+      </c>
+      <c r="T24" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U24" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V24" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W24" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X24" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z24" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB24" s="17">
+        <f t="shared" si="3"/>
+        <v>0.93</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>272</v>
+        <v>7</v>
+      </c>
+      <c r="B25" s="17">
+        <f t="shared" ref="B25:Z25" si="5">(B10)/B$3</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="C25" s="17">
+        <f t="shared" si="5"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="D25" s="17">
+        <f t="shared" si="5"/>
+        <v>0.99000000000000021</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="5"/>
+        <v>0.89</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="5"/>
+        <v>1.05</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="5"/>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="5"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="5"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="K25" s="17">
+        <f t="shared" si="5"/>
+        <v>0.65</v>
+      </c>
+      <c r="L25" s="17">
+        <f t="shared" si="5"/>
+        <v>1.05</v>
+      </c>
+      <c r="M25" s="17">
+        <f t="shared" si="5"/>
+        <v>0.89</v>
+      </c>
+      <c r="N25" s="17">
+        <f t="shared" si="5"/>
+        <v>1.07</v>
+      </c>
+      <c r="O25" s="17">
+        <f t="shared" si="5"/>
+        <v>0.95</v>
+      </c>
+      <c r="P25" s="17">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q25" s="17">
+        <f t="shared" si="5"/>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="R25" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S25" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T25" s="17">
+        <f t="shared" si="5"/>
+        <v>0.98999999588407761</v>
+      </c>
+      <c r="U25" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V25" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W25" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X25" s="17">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y25" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB25" s="17">
+        <f t="shared" si="3"/>
+        <v>0.92639999983536314</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
+        <v>8</v>
+      </c>
+      <c r="B26" s="17">
+        <f t="shared" ref="B26:Z26" si="6">(B11)/B$3</f>
+        <v>0.85</v>
+      </c>
+      <c r="C26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="6"/>
+        <v>1.05</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="B26">
-        <f t="shared" ref="B26:Z26" si="2">(B4-B$3*$AD$19)/B$3</f>
+      <c r="I26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+      <c r="K26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="L26" s="17">
+        <f t="shared" si="6"/>
+        <v>1.05</v>
+      </c>
+      <c r="M26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="N26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.89</v>
+      </c>
+      <c r="O26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="P26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.96999999999999986</v>
+      </c>
+      <c r="Q26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="R26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="S26" s="17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T26" s="17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="V26" s="17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="W26" s="17">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+      <c r="X26" s="17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="17">
+        <f t="shared" si="6"/>
+        <v>1.03</v>
+      </c>
+      <c r="Z26" s="17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB26" s="17">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>9</v>
+      </c>
+      <c r="B27" s="17">
+        <f t="shared" ref="B27:Z27" si="7">(B12)/B$3</f>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="C27" s="17">
+        <f t="shared" si="7"/>
+        <v>1.05</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="7"/>
+        <v>0.78000000000000014</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="7"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="7"/>
+        <v>0.99</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="7"/>
+        <v>1.05</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="7"/>
+        <v>1.05</v>
+      </c>
+      <c r="I27" s="17">
+        <f t="shared" si="7"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="J27" s="17">
+        <f t="shared" si="7"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="K27" s="17">
+        <f t="shared" si="7"/>
+        <v>0.81</v>
+      </c>
+      <c r="L27" s="17">
+        <f t="shared" si="7"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="M27" s="17">
+        <f t="shared" si="7"/>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="N27" s="17">
+        <f t="shared" si="7"/>
+        <v>1.07</v>
+      </c>
+      <c r="O27" s="17">
+        <f t="shared" si="7"/>
+        <v>1.03</v>
+      </c>
+      <c r="P27" s="17">
+        <f t="shared" si="7"/>
+        <v>1.04</v>
+      </c>
+      <c r="Q27" s="17">
+        <f t="shared" si="7"/>
+        <v>0.71</v>
+      </c>
+      <c r="R27" s="17">
+        <f t="shared" si="7"/>
+        <v>1.0699999999999998</v>
+      </c>
+      <c r="S27" s="17">
+        <f t="shared" si="7"/>
+        <v>1.03</v>
+      </c>
+      <c r="T27" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U27" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V27" s="17">
+        <f t="shared" si="7"/>
+        <v>1.04</v>
+      </c>
+      <c r="W27" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="X27" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y27" s="17">
+        <f t="shared" si="7"/>
+        <v>1.06</v>
+      </c>
+      <c r="Z27" s="17">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB27" s="17">
+        <f t="shared" si="3"/>
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>10</v>
+      </c>
+      <c r="B28" s="17">
+        <f t="shared" ref="B28:Z28" si="8">(B13)/B$3</f>
+        <v>1.0799999999999998</v>
+      </c>
+      <c r="C28" s="17">
+        <f t="shared" si="8"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D28" s="17">
+        <f t="shared" si="8"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="8"/>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="8"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="8"/>
+        <v>1.08</v>
+      </c>
+      <c r="I28" s="17">
+        <f t="shared" si="8"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="J28" s="17">
+        <f t="shared" si="8"/>
+        <v>0.92</v>
+      </c>
+      <c r="K28" s="17">
+        <f t="shared" si="8"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="L28" s="17">
+        <f t="shared" si="8"/>
+        <v>0.89</v>
+      </c>
+      <c r="M28" s="17">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="N28" s="17">
+        <f t="shared" si="8"/>
+        <v>0.74</v>
+      </c>
+      <c r="O28" s="17">
+        <f t="shared" si="8"/>
+        <v>0.99</v>
+      </c>
+      <c r="P28" s="17">
+        <f t="shared" si="8"/>
+        <v>0.89</v>
+      </c>
+      <c r="Q28" s="17">
+        <f t="shared" si="8"/>
+        <v>0.86</v>
+      </c>
+      <c r="R28" s="17">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
+      </c>
+      <c r="S28" s="17">
+        <f t="shared" si="8"/>
+        <v>1.06</v>
+      </c>
+      <c r="T28" s="17">
+        <f t="shared" si="8"/>
+        <v>0.82000000823184505</v>
+      </c>
+      <c r="U28" s="17">
+        <f t="shared" si="8"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="V28" s="17">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="W28" s="17">
+        <f t="shared" si="8"/>
+        <v>0.98999999999999988</v>
+      </c>
+      <c r="X28" s="17">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="17">
+        <f t="shared" si="8"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Z28" s="17">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AB28" s="17">
+        <f t="shared" si="3"/>
+        <v>0.98400000032927371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>11</v>
+      </c>
+      <c r="B29" s="17">
+        <f t="shared" ref="B29:Z29" si="9">(B14)/B$3</f>
+        <v>0.74</v>
+      </c>
+      <c r="C29" s="17">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" si="9"/>
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.06</v>
+      </c>
+      <c r="F29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.08</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="J29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.08</v>
+      </c>
+      <c r="L29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.05</v>
+      </c>
+      <c r="M29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.05</v>
+      </c>
+      <c r="N29" s="17">
+        <f t="shared" si="9"/>
+        <v>0.95</v>
+      </c>
+      <c r="O29" s="17">
+        <f t="shared" si="9"/>
+        <v>0.69</v>
+      </c>
+      <c r="P29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.07</v>
+      </c>
+      <c r="Q29" s="17">
+        <f t="shared" si="9"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="R29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.0799999999999998</v>
+      </c>
+      <c r="S29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.07</v>
+      </c>
+      <c r="T29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.1100000041159224</v>
+      </c>
+      <c r="U29" s="17">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V29" s="17">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W29" s="17">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="X29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y29" s="17">
+        <f t="shared" si="9"/>
+        <v>1.08</v>
+      </c>
+      <c r="Z29" s="17">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB29" s="17">
+        <f t="shared" si="3"/>
+        <v>1.0088000001646369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>12</v>
+      </c>
+      <c r="B30" s="17">
+        <f t="shared" ref="B30:Z30" si="10">(B15)/B$3</f>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="C30" s="17">
+        <f t="shared" si="10"/>
+        <v>0.99</v>
+      </c>
+      <c r="D30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="10"/>
+        <v>0.84999999999999987</v>
+      </c>
+      <c r="F30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.36</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="10"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="H30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="I30" s="17">
+        <f t="shared" si="10"/>
+        <v>0.98999999999999988</v>
+      </c>
+      <c r="J30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="K30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.05</v>
+      </c>
+      <c r="L30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.02</v>
+      </c>
+      <c r="M30" s="17">
+        <f t="shared" si="10"/>
+        <v>0.79</v>
+      </c>
+      <c r="N30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.25</v>
+      </c>
+      <c r="O30" s="17">
+        <f t="shared" si="10"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="P30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.21</v>
+      </c>
+      <c r="R30" s="17">
+        <f t="shared" si="10"/>
+        <v>0.89</v>
+      </c>
+      <c r="S30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="T30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.0799999917681551</v>
+      </c>
+      <c r="U30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.19</v>
+      </c>
+      <c r="W30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.2499999999999998</v>
+      </c>
+      <c r="X30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.26</v>
+      </c>
+      <c r="Y30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Z30" s="17">
+        <f t="shared" si="10"/>
+        <v>1.2899999999999998</v>
+      </c>
+      <c r="AB30" s="17">
+        <f t="shared" si="3"/>
+        <v>1.1183999996707263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="AC31" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD31">
+        <f>AVERAGE(AB19:AB30)</f>
+        <v>1.0234666667215457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:Y34" si="11">(B4-B$3*$AD$19)/B$3</f>
         <v>9.9999999999999811E-2</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="2"/>
+      <c r="C34">
+        <f t="shared" si="11"/>
         <v>0.10000000000000005</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
+      <c r="D34">
+        <f t="shared" si="11"/>
         <v>0.10000000000000007</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
+      <c r="E34">
+        <f t="shared" si="11"/>
         <v>0.10000000000000002</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
+      <c r="F34">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="11"/>
         <v>0.1000000000000001</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
+      <c r="H34">
+        <f t="shared" si="11"/>
         <v>0.1000000000000001</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="2"/>
+      <c r="I34">
+        <f t="shared" si="11"/>
         <v>0.14999999999999997</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="2"/>
+      <c r="J34">
+        <f t="shared" si="11"/>
         <v>0.10000000000000012</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
+      <c r="K34">
+        <f t="shared" si="11"/>
         <v>0.10000000000000013</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="2"/>
+      <c r="L34">
+        <f t="shared" si="11"/>
         <v>0.10000000000000006</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="2"/>
+      <c r="M34">
+        <f t="shared" si="11"/>
         <v>6.0000000000000081E-2</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="2"/>
+      <c r="N34">
+        <f t="shared" si="11"/>
         <v>0.10000000000000003</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="2"/>
+      <c r="O34">
+        <f t="shared" si="11"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="2"/>
+      <c r="P34">
+        <f t="shared" si="11"/>
         <v>0.10000000000000006</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="2"/>
+      <c r="Q34">
+        <f t="shared" si="11"/>
         <v>7.9999999999999891E-2</v>
       </c>
-      <c r="R26">
-        <f t="shared" si="2"/>
+      <c r="R34">
+        <f t="shared" si="11"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="S26">
-        <f t="shared" si="2"/>
+      <c r="S34">
+        <f t="shared" si="11"/>
         <v>0.10000000000000005</v>
       </c>
-      <c r="T26">
-        <f t="shared" si="2"/>
+      <c r="T34">
+        <f t="shared" si="11"/>
         <v>0.25000002057961251</v>
       </c>
-      <c r="U26">
-        <f t="shared" si="2"/>
+      <c r="U34">
+        <f t="shared" si="11"/>
         <v>0.10000000000000005</v>
       </c>
-      <c r="V26">
-        <f t="shared" si="2"/>
+      <c r="V34">
+        <f t="shared" si="11"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="W26">
-        <f t="shared" si="2"/>
+      <c r="W34">
+        <f t="shared" si="11"/>
         <v>4.999999999999994E-2</v>
       </c>
-      <c r="X26">
-        <f t="shared" si="2"/>
+      <c r="X34">
+        <f t="shared" si="11"/>
         <v>0.10000000000000014</v>
       </c>
-      <c r="Y26">
-        <f t="shared" si="2"/>
+      <c r="Y34">
+        <f t="shared" si="11"/>
         <v>9.999999999999995E-2</v>
       </c>
-      <c r="Z26">
+      <c r="Z34">
         <f>(Z4-Z$3*$AD$19)/Z$3</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="AB26" s="7">
-        <f t="shared" ref="AB26:AB37" si="3">AVERAGE(B26:Z26)</f>
+      <c r="AB34" s="7">
+        <f t="shared" ref="AB34:AB45" si="12">AVERAGE(B34:Z34)</f>
         <v>0.10360000082318453</v>
       </c>
-      <c r="AC26">
-        <f>1+AB26</f>
+      <c r="AC34">
+        <f>1+AB34</f>
         <v>1.1036000008231845</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ref="B27:Z27" si="4">(B5-B$3*$AD$19)/B$3</f>
-        <v>0.11999999999999988</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000005</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="4"/>
-        <v>0.16000000000000011</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="4"/>
-        <v>0.11999999999999993</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="4"/>
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="4"/>
-        <v>6.0000000000000026E-2</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="4"/>
-        <v>-2.0000000000000153E-2</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000012</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
-        <v>-4.9999999999999906E-2</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000006</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="4"/>
-        <v>-6.9999999999999937E-2</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000003</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="4"/>
-        <v>-8.0000000000000029E-2</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000006</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999853E-2</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="4"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000005</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="4"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="4"/>
-        <v>7.9999999999999988E-2</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="4"/>
-        <v>6.9999999999999951E-2</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="4"/>
-        <v>0.45000000000000012</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="4"/>
-        <v>9.999999999999995E-2</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="AB27" s="7">
-        <f t="shared" si="3"/>
-        <v>0.11160000000000002</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" ref="AC27:AC36" si="5">1+AB27</f>
-        <v>1.1115999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ref="B28:Z28" si="6">(B6-B$3*$AD$19)/B$3</f>
-        <v>0.11999999999999988</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000005</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="6"/>
-        <v>0.11999999999999993</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="6"/>
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="6"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999908E-2</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000012</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="6"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000006</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="6"/>
-        <v>5.0000000000000017E-2</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000006</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="6"/>
-        <v>2.9999999999999957E-2</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="6"/>
-        <v>1.0000000000000031E-2</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="6"/>
-        <v>2.0000000000000049E-2</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000014</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="6"/>
-        <v>0.20999999999999996</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="AB28" s="7">
-        <f t="shared" si="3"/>
-        <v>0.10640000000000001</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="5"/>
-        <v>1.1064000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ref="B29:Z29" si="7">(B7-B$3*$AD$19)/B$3</f>
-        <v>8.9999999999999969E-2</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000005</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="7"/>
-        <v>4.9999999999999926E-2</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000082E-2</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="7"/>
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="7"/>
-        <v>0.14999999999999997</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000012</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="7"/>
-        <v>0.21000000000000013</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000006</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="7"/>
-        <v>5.0000000000000037E-2</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000003</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="7"/>
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000006</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="7"/>
-        <v>7.9999999999999891E-2</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="7"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000005</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="7"/>
-        <v>8.999999588407756E-2</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000005</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="7"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="7"/>
-        <v>0.14999999999999997</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000014</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="7"/>
-        <v>9.999999999999995E-2</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="7"/>
-        <v>0.12000000000000001</v>
-      </c>
-      <c r="AB29" s="7">
-        <f t="shared" si="3"/>
-        <v>9.9599999835363148E-2</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="5"/>
-        <v>1.0995999998353632</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ref="B30:Z30" si="8">(B8-B$3*$AD$19)/B$3</f>
-        <v>-1.0000000000000037E-2</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="8"/>
-        <v>-0.10999999999999996</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="8"/>
-        <v>5.0000000000000037E-2</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="8"/>
-        <v>-8.0000000000000113E-2</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="8"/>
-        <v>-9.9999999999999985E-3</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="8"/>
-        <v>-0.18999999999999995</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="8"/>
-        <v>-0.23000000000000007</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="8"/>
-        <v>-0.09</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="8"/>
-        <v>-1.0000000000000038E-2</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="8"/>
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="AB30" s="7">
-        <f t="shared" si="3"/>
-        <v>-3.9200000000000006E-2</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="5"/>
-        <v>0.96079999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ref="B31:Z31" si="9">(B9-B$3*$AD$19)/B$3</f>
-        <v>-0.22000000000000008</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="9"/>
-        <v>-1.0000000000000028E-2</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="9"/>
-        <v>-0.10999999999999989</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="9"/>
-        <v>4.9999999999999926E-2</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="9"/>
-        <v>-8.0000000000000029E-2</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="9"/>
-        <v>-0.25000000000000006</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="9"/>
-        <v>-4.9999999999999996E-2</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="9"/>
-        <v>-9.9999999999998875E-3</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="9"/>
-        <v>-0.10999999999999999</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="9"/>
-        <v>-7.9999999999999988E-2</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="9"/>
-        <v>-0.25</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="9"/>
-        <v>-0.21999999999999997</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="9"/>
-        <v>-0.15000000000000002</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="9"/>
-        <v>-1.0000000000000031E-2</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="9"/>
-        <v>-0.24999999999999997</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="7">
-        <f t="shared" si="3"/>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="5"/>
-        <v>0.92999999999999994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>7</v>
-      </c>
-      <c r="B32">
-        <f t="shared" ref="B32:Z32" si="10">(B10-B$3*$AD$19)/B$3</f>
-        <v>-0.35000000000000009</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="10"/>
-        <v>-0.35000000000000003</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="10"/>
-        <v>-9.9999999999998215E-3</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="10"/>
-        <v>-0.10999999999999997</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="10"/>
-        <v>0.05</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="10"/>
-        <v>-7.9999999999999877E-2</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="10"/>
-        <v>4.9999999999999871E-2</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="10"/>
-        <v>-0.3</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="10"/>
-        <v>-0.35</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="10"/>
-        <v>5.00000000000001E-2</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="10"/>
-        <v>-0.10999999999999993</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="10"/>
-        <v>7.0000000000000132E-2</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="10"/>
-        <v>-5.0000000000000058E-2</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="10"/>
-        <v>-0.24999999999999994</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="10"/>
-        <v>0.10999999999999996</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="10"/>
-        <v>-1.0000004115922443E-2</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="10"/>
-        <v>-0.19999999999999998</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="7">
-        <f t="shared" si="3"/>
-        <v>-7.3600000164636886E-2</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="5"/>
-        <v>0.92639999983536314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>8</v>
-      </c>
-      <c r="B33">
-        <f t="shared" ref="B33:Z33" si="11">(B11-B$3*$AD$19)/B$3</f>
-        <v>-0.15</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="11"/>
-        <v>-2.0000000000000056E-2</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="11"/>
-        <v>-4.999999999999985E-2</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="11"/>
-        <v>-9.9999999999999516E-3</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="11"/>
-        <v>-0.11000000000000006</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="11"/>
-        <v>5.0000000000000135E-2</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="11"/>
-        <v>-2.0000000000000153E-2</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="11"/>
-        <v>-4.9999999999999996E-2</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="11"/>
-        <v>-0.25</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="11"/>
-        <v>5.00000000000001E-2</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="11"/>
-        <v>-1.0000000000000044E-2</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="11"/>
-        <v>-0.11</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="11"/>
-        <v>-2.0000000000000077E-2</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="11"/>
-        <v>-3.0000000000000082E-2</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="11"/>
-        <v>-0.25</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="11"/>
-        <v>-2.0000000000000077E-2</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="11"/>
-        <v>-1.0000000000000024E-2</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="11"/>
-        <v>-2.0000000000000004E-2</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="11"/>
-        <v>2.9999999999999971E-2</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="7">
-        <f t="shared" si="3"/>
-        <v>-0.04</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="5"/>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>9</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ref="B34:Z34" si="12">(B12-B$3*$AD$19)/B$3</f>
-        <v>4.9999999999999815E-2</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="12"/>
-        <v>5.0000000000000024E-2</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="12"/>
-        <v>-0.21999999999999989</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="12"/>
-        <v>4.9999999999999926E-2</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="12"/>
-        <v>-1.0000000000000054E-2</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="12"/>
-        <v>5.0000000000000135E-2</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="12"/>
-        <v>5.0000000000000051E-2</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="12"/>
-        <v>-8.0000000000000099E-2</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="12"/>
-        <v>-0.17999999999999997</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="12"/>
-        <v>-0.18999999999999989</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="12"/>
-        <v>-0.29999999999999993</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="12"/>
-        <v>-1.9999999999999903E-2</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="12"/>
-        <v>7.0000000000000132E-2</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="12"/>
-        <v>2.9999999999999978E-2</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="12"/>
-        <v>4.0000000000000112E-2</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="12"/>
-        <v>-0.29000000000000004</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="12"/>
-        <v>6.9999999999999868E-2</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="12"/>
-        <v>2.9999999999999961E-2</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="12"/>
-        <v>3.9999999999999994E-2</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="12"/>
-        <v>5.9999999999999942E-2</v>
-      </c>
-      <c r="Z34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="7">
-        <f t="shared" si="3"/>
-        <v>-2.799999999999999E-2</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" si="5"/>
-        <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:Z35" si="13">(B13-B$3*$AD$19)/B$3</f>
-        <v>7.9999999999999918E-2</v>
+        <f t="shared" ref="B35:Z35" si="13">(B5-B$3*$AD$19)/B$3</f>
+        <v>0.11999999999999988</v>
       </c>
       <c r="C35">
         <f t="shared" si="13"/>
-        <v>9.0000000000000024E-2</v>
+        <v>0.10000000000000005</v>
       </c>
       <c r="D35">
         <f t="shared" si="13"/>
-        <v>0.15000000000000011</v>
+        <v>0.16000000000000011</v>
       </c>
       <c r="E35">
         <f t="shared" si="13"/>
-        <v>8.99999999999999E-2</v>
+        <v>0.11999999999999993</v>
       </c>
       <c r="F35">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G35">
         <f t="shared" si="13"/>
-        <v>0.15000000000000008</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="H35">
         <f t="shared" si="13"/>
-        <v>7.9999999999999974E-2</v>
+        <v>6.0000000000000026E-2</v>
       </c>
       <c r="I35">
         <f t="shared" si="13"/>
-        <v>4.9999999999999871E-2</v>
+        <v>-2.0000000000000153E-2</v>
       </c>
       <c r="J35">
         <f t="shared" si="13"/>
-        <v>-7.9999999999999988E-2</v>
+        <v>0.10000000000000012</v>
       </c>
       <c r="K35">
         <f t="shared" si="13"/>
-        <v>-0.14999999999999988</v>
+        <v>-4.9999999999999906E-2</v>
       </c>
       <c r="L35">
         <f t="shared" si="13"/>
-        <v>-0.10999999999999999</v>
+        <v>0.10000000000000006</v>
       </c>
       <c r="M35">
         <f t="shared" si="13"/>
-        <v>-0.25</v>
+        <v>-6.9999999999999937E-2</v>
       </c>
       <c r="N35">
         <f t="shared" si="13"/>
-        <v>-0.25999999999999995</v>
+        <v>0.10000000000000003</v>
       </c>
       <c r="O35">
         <f t="shared" si="13"/>
-        <v>-1.0000000000000038E-2</v>
+        <v>-8.0000000000000029E-2</v>
       </c>
       <c r="P35">
         <f t="shared" si="13"/>
-        <v>-0.10999999999999999</v>
+        <v>0.10000000000000006</v>
       </c>
       <c r="Q35">
         <f t="shared" si="13"/>
-        <v>-0.14000000000000004</v>
+        <v>9.9999999999999853E-2</v>
       </c>
       <c r="R35">
         <f t="shared" si="13"/>
-        <v>4.9999999999999989E-2</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="S35">
         <f t="shared" si="13"/>
-        <v>6.000000000000006E-2</v>
+        <v>0.10000000000000005</v>
       </c>
       <c r="T35">
         <f t="shared" si="13"/>
-        <v>-0.17999999176815495</v>
+        <v>0.3</v>
       </c>
       <c r="U35">
         <f t="shared" si="13"/>
-        <v>-4.999999999999992E-2</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="V35">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7.9999999999999988E-2</v>
       </c>
       <c r="W35">
         <f t="shared" si="13"/>
-        <v>-1.0000000000000064E-2</v>
+        <v>6.9999999999999951E-2</v>
       </c>
       <c r="X35">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.45000000000000012</v>
       </c>
       <c r="Y35">
         <f t="shared" si="13"/>
-        <v>0.15</v>
+        <v>9.999999999999995E-2</v>
       </c>
       <c r="Z35">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB35" s="7">
-        <f t="shared" si="3"/>
-        <v>-1.5999999670726194E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.11160000000000002</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="5"/>
-        <v>0.98400000032927382</v>
+        <f t="shared" ref="AC35:AC44" si="14">1+AB35</f>
+        <v>1.1115999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:Z36" si="14">(B14-B$3*$AD$19)/B$3</f>
-        <v>-0.26000000000000006</v>
+        <f t="shared" ref="B36:Z36" si="15">(B6-B$3*$AD$19)/B$3</f>
+        <v>0.11999999999999988</v>
       </c>
       <c r="C36">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000005</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000007</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="15"/>
+        <v>0.11999999999999993</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="15"/>
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="15"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999908E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000012</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="15"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000006</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000007</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="15"/>
+        <v>5.0000000000000017E-2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000006</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="15"/>
+        <v>2.9999999999999957E-2</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="15"/>
+        <v>1.0000000000000031E-2</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="15"/>
+        <v>2.0000000000000049E-2</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000014</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="15"/>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="AB36" s="7">
+        <f t="shared" si="12"/>
+        <v>0.10640000000000001</v>
+      </c>
+      <c r="AC36">
         <f t="shared" si="14"/>
-        <v>-7.9999999999999988E-2</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="14"/>
-        <v>-0.2599999999999999</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="14"/>
-        <v>6.0000000000000046E-2</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="14"/>
-        <v>0.10999999999999992</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="14"/>
-        <v>8.0000000000000043E-2</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="14"/>
-        <v>8.9999999999999844E-2</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="14"/>
-        <v>0.12000000000000011</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="14"/>
-        <v>8.0000000000000043E-2</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="14"/>
-        <v>5.00000000000001E-2</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="14"/>
-        <v>5.0000000000000037E-2</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="14"/>
-        <v>-5.0000000000000017E-2</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="14"/>
-        <v>-0.31000000000000011</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="14"/>
-        <v>6.9999999999999979E-2</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="14"/>
-        <v>-0.11000000000000008</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="14"/>
-        <v>7.9999999999999905E-2</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="14"/>
-        <v>6.9999999999999951E-2</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="14"/>
-        <v>0.11000000411592244</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="14"/>
-        <v>8.9999999999999983E-2</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="14"/>
-        <v>8.0000000000000029E-2</v>
-      </c>
-      <c r="Z36">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="7">
-        <f t="shared" si="3"/>
-        <v>8.8000001646368897E-3</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" si="5"/>
-        <v>1.0088000001646369</v>
+        <v>1.1064000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B37">
-        <f t="shared" ref="B37:H37" si="15">(B15-B$3*$AD$19)/B$3</f>
-        <v>0.19999999999999982</v>
+        <f t="shared" ref="B37:Z37" si="16">(B7-B$3*$AD$19)/B$3</f>
+        <v>8.9999999999999969E-2</v>
       </c>
       <c r="C37">
-        <f t="shared" si="15"/>
-        <v>-1.0000000000000028E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.10000000000000005</v>
       </c>
       <c r="D37">
-        <f t="shared" si="15"/>
-        <v>0.15000000000000011</v>
+        <f t="shared" si="16"/>
+        <v>0.10000000000000007</v>
       </c>
       <c r="E37">
-        <f t="shared" si="15"/>
-        <v>-0.15000000000000011</v>
+        <f t="shared" si="16"/>
+        <v>4.9999999999999926E-2</v>
       </c>
       <c r="F37">
-        <f t="shared" si="15"/>
-        <v>0.36000000000000004</v>
+        <f t="shared" si="16"/>
+        <v>0.1</v>
       </c>
       <c r="G37">
-        <f t="shared" si="15"/>
-        <v>-0.16999999999999996</v>
+        <f t="shared" si="16"/>
+        <v>3.0000000000000082E-2</v>
       </c>
       <c r="H37">
-        <f t="shared" si="15"/>
-        <v>0.45000000000000012</v>
+        <f t="shared" si="16"/>
+        <v>0.1000000000000001</v>
       </c>
       <c r="I37">
-        <f t="shared" ref="I37:Z37" si="16">(I15-I$3*$AD$19)/I$3</f>
-        <v>-1.0000000000000077E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.14999999999999997</v>
       </c>
       <c r="J37">
         <f t="shared" si="16"/>
-        <v>0.35</v>
+        <v>0.10000000000000012</v>
       </c>
       <c r="K37">
         <f t="shared" si="16"/>
-        <v>5.0000000000000065E-2</v>
+        <v>0.21000000000000013</v>
       </c>
       <c r="L37">
         <f t="shared" si="16"/>
-        <v>2.0000000000000091E-2</v>
+        <v>0.10000000000000006</v>
       </c>
       <c r="M37">
         <f t="shared" si="16"/>
-        <v>-0.21000000000000002</v>
+        <v>5.0000000000000037E-2</v>
       </c>
       <c r="N37">
         <f t="shared" si="16"/>
-        <v>0.25000000000000011</v>
+        <v>0.10000000000000003</v>
       </c>
       <c r="O37">
         <f t="shared" si="16"/>
-        <v>-0.20000000000000009</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="P37">
         <f t="shared" si="16"/>
-        <v>0.3</v>
+        <v>0.10000000000000006</v>
       </c>
       <c r="Q37">
         <f t="shared" si="16"/>
-        <v>0.21000000000000005</v>
+        <v>7.9999999999999891E-2</v>
       </c>
       <c r="R37">
         <f t="shared" si="16"/>
-        <v>-0.11000000000000001</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="S37">
         <f t="shared" si="16"/>
-        <v>0.14999999999999994</v>
+        <v>0.10000000000000005</v>
       </c>
       <c r="T37">
         <f t="shared" si="16"/>
-        <v>7.9999991768155115E-2</v>
+        <v>8.999999588407756E-2</v>
       </c>
       <c r="U37">
         <f t="shared" si="16"/>
-        <v>0.11000000000000007</v>
+        <v>0.10000000000000005</v>
       </c>
       <c r="V37">
         <f t="shared" si="16"/>
-        <v>0.18999999999999995</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="W37">
         <f t="shared" si="16"/>
-        <v>0.24999999999999983</v>
+        <v>0.14999999999999997</v>
       </c>
       <c r="X37">
         <f t="shared" si="16"/>
-        <v>0.26</v>
+        <v>0.10000000000000014</v>
       </c>
       <c r="Y37">
         <f t="shared" si="16"/>
-        <v>0.15</v>
+        <v>9.999999999999995E-2</v>
       </c>
       <c r="Z37">
         <f t="shared" si="16"/>
-        <v>0.28999999999999981</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="AB37" s="7">
-        <f t="shared" si="3"/>
-        <v>0.11839999967072617</v>
+        <f t="shared" si="12"/>
+        <v>9.9599999835363148E-2</v>
       </c>
       <c r="AC37">
-        <f>1+AB37</f>
-        <v>1.1183999996707261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="T38" s="1"/>
-      <c r="Y38" s="2"/>
-      <c r="AC38" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD38">
-        <f>AVERAGE(AC26:AC37)</f>
-        <v>1.0234666667215457</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T39" s="1"/>
-      <c r="Y39" s="2"/>
-    </row>
-    <row r="40" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>1.0995999998353632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:Z38" si="17">(B8-B$3*$AD$19)/B$3</f>
+        <v>-1.0000000000000037E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="17"/>
+        <v>-0.10999999999999996</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="17"/>
+        <v>5.0000000000000037E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="17"/>
+        <v>-8.0000000000000113E-2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="17"/>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="17"/>
+        <v>-0.18999999999999995</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="17"/>
+        <v>-0.23000000000000007</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="17"/>
+        <v>-0.09</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="17"/>
+        <v>-1.0000000000000038E-2</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="17"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="AB38" s="7">
+        <f t="shared" si="12"/>
+        <v>-3.9200000000000006E-2</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="14"/>
+        <v>0.96079999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39:Z39" si="18">(B9-B$3*$AD$19)/B$3</f>
+        <v>-0.22000000000000008</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="18"/>
+        <v>-1.0000000000000028E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="18"/>
+        <v>-0.10999999999999989</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="18"/>
+        <v>4.9999999999999926E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="18"/>
+        <v>-8.0000000000000029E-2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="18"/>
+        <v>-0.25000000000000006</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="18"/>
+        <v>-4.9999999999999996E-2</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="18"/>
+        <v>-9.9999999999998875E-3</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="18"/>
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="18"/>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="18"/>
+        <v>-0.25</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="18"/>
+        <v>-0.21999999999999997</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="18"/>
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="18"/>
+        <v>-1.0000000000000031E-2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="18"/>
+        <v>-0.24999999999999997</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="7">
+        <f t="shared" si="12"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="14"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>0</v>
-      </c>
-      <c r="T40" s="1"/>
-      <c r="Y40" s="2"/>
-      <c r="AB40" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI40" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40:Z40" si="19">(B10-B$3*$AD$19)/B$3</f>
+        <v>-0.35000000000000009</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="19"/>
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="19"/>
+        <v>-9.9999999999998215E-3</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="19"/>
+        <v>-0.10999999999999997</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="19"/>
+        <v>-7.9999999999999877E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="19"/>
+        <v>4.9999999999999871E-2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="19"/>
+        <v>-0.3</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="19"/>
+        <v>-0.35</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="19"/>
+        <v>5.00000000000001E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="19"/>
+        <v>-0.10999999999999993</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="19"/>
+        <v>7.0000000000000132E-2</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="19"/>
+        <v>-5.0000000000000058E-2</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="19"/>
+        <v>-0.24999999999999994</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="19"/>
+        <v>0.10999999999999996</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="19"/>
+        <v>-1.0000004115922443E-2</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="19"/>
+        <v>-0.19999999999999998</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="7">
+        <f t="shared" si="12"/>
+        <v>-7.3600000164636886E-2</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="14"/>
+        <v>0.92639999983536314</v>
+      </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41:Z41" si="20">(B11-B$3*$AD$19)/B$3</f>
+        <v>-0.15</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="20"/>
+        <v>-2.0000000000000056E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="20"/>
+        <v>-4.999999999999985E-2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="20"/>
+        <v>-9.9999999999999516E-3</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="20"/>
+        <v>-0.11000000000000006</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="20"/>
+        <v>5.0000000000000135E-2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="20"/>
+        <v>-2.0000000000000153E-2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="20"/>
+        <v>-4.9999999999999996E-2</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="20"/>
+        <v>-0.25</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="20"/>
+        <v>5.00000000000001E-2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="20"/>
+        <v>-1.0000000000000044E-2</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="20"/>
+        <v>-0.11</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="20"/>
+        <v>-2.0000000000000077E-2</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="20"/>
+        <v>-3.0000000000000082E-2</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="20"/>
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="20"/>
+        <v>-2.0000000000000077E-2</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="20"/>
+        <v>-1.0000000000000024E-2</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="20"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="20"/>
+        <v>2.9999999999999971E-2</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="7">
+        <f t="shared" si="12"/>
+        <v>-0.04</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="14"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42:Z42" si="21">(B12-B$3*$AD$19)/B$3</f>
+        <v>4.9999999999999815E-2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="21"/>
+        <v>5.0000000000000024E-2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="21"/>
+        <v>-0.21999999999999989</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="21"/>
+        <v>4.9999999999999926E-2</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="21"/>
+        <v>-1.0000000000000054E-2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="21"/>
+        <v>5.0000000000000135E-2</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="21"/>
+        <v>5.0000000000000051E-2</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="21"/>
+        <v>-8.0000000000000099E-2</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="21"/>
+        <v>-0.17999999999999997</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="21"/>
+        <v>-0.18999999999999989</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="21"/>
+        <v>-0.29999999999999993</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="21"/>
+        <v>-1.9999999999999903E-2</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="21"/>
+        <v>7.0000000000000132E-2</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="21"/>
+        <v>2.9999999999999978E-2</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="21"/>
+        <v>4.0000000000000112E-2</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="21"/>
+        <v>-0.29000000000000004</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="21"/>
+        <v>6.9999999999999868E-2</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="21"/>
+        <v>2.9999999999999961E-2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="21"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="21"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="7">
+        <f t="shared" si="12"/>
+        <v>-2.799999999999999E-2</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="14"/>
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43:Z43" si="22">(B13-B$3*$AD$19)/B$3</f>
+        <v>7.9999999999999918E-2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="22"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="22"/>
+        <v>0.15000000000000011</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="22"/>
+        <v>8.99999999999999E-2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="22"/>
+        <v>0.15000000000000008</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="22"/>
+        <v>7.9999999999999974E-2</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="22"/>
+        <v>4.9999999999999871E-2</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="22"/>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="22"/>
+        <v>-0.14999999999999988</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="22"/>
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="22"/>
+        <v>-0.25</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="22"/>
+        <v>-0.25999999999999995</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="22"/>
+        <v>-1.0000000000000038E-2</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="22"/>
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="22"/>
+        <v>-0.14000000000000004</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="22"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="22"/>
+        <v>6.000000000000006E-2</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="22"/>
+        <v>-0.17999999176815495</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="22"/>
+        <v>-4.999999999999992E-2</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="22"/>
+        <v>-1.0000000000000064E-2</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="22"/>
+        <v>0.15</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="7">
+        <f t="shared" si="12"/>
+        <v>-1.5999999670726194E-2</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="14"/>
+        <v>0.98400000032927382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44:Z44" si="23">(B14-B$3*$AD$19)/B$3</f>
+        <v>-0.26000000000000006</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="23"/>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="23"/>
+        <v>-0.2599999999999999</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="23"/>
+        <v>6.0000000000000046E-2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="23"/>
+        <v>0.10999999999999992</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="23"/>
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="23"/>
+        <v>0.15</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="23"/>
+        <v>8.9999999999999844E-2</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="23"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="23"/>
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="23"/>
+        <v>5.00000000000001E-2</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="23"/>
+        <v>5.0000000000000037E-2</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="23"/>
+        <v>-5.0000000000000017E-2</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="23"/>
+        <v>-0.31000000000000011</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="23"/>
+        <v>6.9999999999999979E-2</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="23"/>
+        <v>-0.11000000000000008</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="23"/>
+        <v>7.9999999999999905E-2</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="23"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="23"/>
+        <v>0.11000000411592244</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="23"/>
+        <v>8.9999999999999983E-2</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="23"/>
+        <v>8.0000000000000029E-2</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="7">
+        <f t="shared" si="12"/>
+        <v>8.8000001646368897E-3</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="14"/>
+        <v>1.0088000001646369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45:H45" si="24">(B15-B$3*$AD$19)/B$3</f>
+        <v>0.19999999999999982</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="24"/>
+        <v>-1.0000000000000028E-2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="24"/>
+        <v>0.15000000000000011</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="24"/>
+        <v>-0.15000000000000011</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="24"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="24"/>
+        <v>-0.16999999999999996</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="24"/>
+        <v>0.45000000000000012</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45:Z45" si="25">(I15-I$3*$AD$19)/I$3</f>
+        <v>-1.0000000000000077E-2</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="25"/>
+        <v>0.35</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="25"/>
+        <v>5.0000000000000065E-2</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="25"/>
+        <v>2.0000000000000091E-2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="25"/>
+        <v>-0.21000000000000002</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="25"/>
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="25"/>
+        <v>-0.20000000000000009</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="25"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="25"/>
+        <v>0.21000000000000005</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="25"/>
+        <v>-0.11000000000000001</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="25"/>
+        <v>0.14999999999999994</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="25"/>
+        <v>7.9999991768155115E-2</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="25"/>
+        <v>0.11000000000000007</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="25"/>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="25"/>
+        <v>0.24999999999999983</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="25"/>
+        <v>0.26</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="25"/>
+        <v>0.15</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="25"/>
+        <v>0.28999999999999981</v>
+      </c>
+      <c r="AB45" s="7">
+        <f t="shared" si="12"/>
+        <v>0.11839999967072617</v>
+      </c>
+      <c r="AC45">
+        <f>1+AB45</f>
+        <v>1.1183999996707261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T46" s="1"/>
+      <c r="Y46" s="2"/>
+      <c r="AC46" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD46">
+        <f>AVERAGE(AC34:AC45)</f>
+        <v>1.0234666667215457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="Y47" s="2"/>
+    </row>
+    <row r="48" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="Y48" s="2"/>
+      <c r="AB48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI48" s="8"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
         <v>1</v>
       </c>
-      <c r="B41">
-        <f>MIN(0.1,B26)</f>
+      <c r="B49">
+        <f>MIN(0.1,B34)</f>
         <v>9.9999999999999811E-2</v>
       </c>
-      <c r="C41">
-        <f t="shared" ref="C41:Z52" si="17">MIN(0.1,C26)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="17"/>
+      <c r="C49">
+        <f t="shared" ref="C49:Z60" si="26">MIN(0.1,C34)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="26"/>
         <v>6.0000000000000081E-2</v>
       </c>
-      <c r="N41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="17"/>
+      <c r="N49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="26"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="P41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="17"/>
+      <c r="P49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="26"/>
         <v>7.9999999999999891E-2</v>
       </c>
-      <c r="R41">
-        <f t="shared" si="17"/>
+      <c r="R49">
+        <f t="shared" si="26"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="S41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="V41">
-        <f t="shared" si="17"/>
+      <c r="S49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="26"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="W41">
-        <f t="shared" si="17"/>
+      <c r="W49">
+        <f t="shared" si="26"/>
         <v>4.999999999999994E-2</v>
       </c>
-      <c r="X41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="Y41">
-        <f t="shared" si="17"/>
+      <c r="X49">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="26"/>
         <v>9.999999999999995E-2</v>
       </c>
-      <c r="Z41">
-        <f t="shared" si="17"/>
+      <c r="Z49">
+        <f t="shared" si="26"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="AB41">
-        <f t="shared" ref="AB41:AB50" si="18">AVERAGE(B41:Z41)</f>
+      <c r="AB49">
+        <f t="shared" ref="AB49:AB58" si="27">AVERAGE(B49:Z49)</f>
         <v>9.5600000000000004E-2</v>
       </c>
-      <c r="AE41">
+      <c r="AE49">
         <f>5.6%</f>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="AG41" s="7">
-        <f t="shared" ref="AG41:AG52" si="19">$AD$3 * AE41</f>
+      <c r="AG49" s="7">
+        <f t="shared" ref="AG49:AG60" si="28">$AD$3 * AE49</f>
         <v>5.6</v>
-      </c>
-      <c r="AI41" s="9"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
-        <v>2</v>
-      </c>
-      <c r="B42">
-        <f t="shared" ref="B42:Q50" si="20">MIN(0.1,B27)</f>
-        <v>0.1</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="20"/>
-        <v>6.0000000000000026E-2</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="20"/>
-        <v>-2.0000000000000153E-2</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="20"/>
-        <v>-4.9999999999999906E-2</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="20"/>
-        <v>-6.9999999999999937E-2</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="20"/>
-        <v>-8.0000000000000029E-2</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="20"/>
-        <v>9.9999999999999853E-2</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="T42">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="U42">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="V42">
-        <f t="shared" si="17"/>
-        <v>7.9999999999999988E-2</v>
-      </c>
-      <c r="W42">
-        <f t="shared" si="17"/>
-        <v>6.9999999999999951E-2</v>
-      </c>
-      <c r="X42">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="Y42">
-        <f t="shared" si="17"/>
-        <v>9.999999999999995E-2</v>
-      </c>
-      <c r="Z42">
-        <f t="shared" si="17"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="AB42">
-        <f t="shared" si="18"/>
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="AE42">
-        <f t="shared" ref="AE42:AE44" si="21">5.6%</f>
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="AG42" s="7">
-        <f t="shared" si="19"/>
-        <v>5.6</v>
-      </c>
-      <c r="AI42" s="8"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="17"/>
-        <v>9.9999999999999908E-2</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000017E-2</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="17"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="17"/>
-        <v>2.9999999999999957E-2</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="17"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="17"/>
-        <v>1.0000000000000031E-2</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="U43">
-        <f t="shared" si="17"/>
-        <v>2.0000000000000049E-2</v>
-      </c>
-      <c r="V43">
-        <f t="shared" si="17"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="W43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="X43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="Y43">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="Z43">
-        <f t="shared" si="17"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="AB43">
-        <f t="shared" si="18"/>
-        <v>8.840000000000002E-2</v>
-      </c>
-      <c r="AE43">
-        <f t="shared" si="21"/>
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="AG43" s="7">
-        <f t="shared" si="19"/>
-        <v>5.6</v>
-      </c>
-      <c r="AI43" s="9"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
-        <v>4</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="20"/>
-        <v>8.9999999999999969E-2</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="17"/>
-        <v>4.9999999999999926E-2</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="17"/>
-        <v>3.0000000000000082E-2</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000037E-2</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="17"/>
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="17"/>
-        <v>7.9999999999999891E-2</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="17"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="17"/>
-        <v>8.999999588407756E-2</v>
-      </c>
-      <c r="U44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="V44">
-        <f t="shared" si="17"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="W44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="X44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="Y44">
-        <f t="shared" si="17"/>
-        <v>9.999999999999995E-2</v>
-      </c>
-      <c r="Z44">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="AB44">
-        <f t="shared" si="18"/>
-        <v>9.0399999835363135E-2</v>
-      </c>
-      <c r="AE44">
-        <f t="shared" si="21"/>
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="AG44" s="7">
-        <f t="shared" si="19"/>
-        <v>5.6</v>
-      </c>
-      <c r="AI44" s="8"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
-        <v>5</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="20"/>
-        <v>-1.0000000000000037E-2</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="17"/>
-        <v>-0.10999999999999996</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000037E-2</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="17"/>
-        <v>-8.0000000000000113E-2</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="17"/>
-        <v>-9.9999999999999985E-3</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="17"/>
-        <v>-0.18999999999999995</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="17"/>
-        <v>-0.23000000000000007</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="17"/>
-        <v>-0.09</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="17"/>
-        <v>-1.0000000000000038E-2</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <f t="shared" si="17"/>
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="AB45">
-        <f t="shared" si="18"/>
-        <v>-3.9200000000000006E-2</v>
-      </c>
-      <c r="AE45">
-        <f>MAX(0.6*AG44/$AD$3, AB45)</f>
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="AG45" s="7">
-        <f t="shared" si="19"/>
-        <v>3.36</v>
-      </c>
-      <c r="AI45" s="9"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
-        <v>6</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="20"/>
-        <v>-0.22000000000000008</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="17"/>
-        <v>-1.0000000000000028E-2</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="17"/>
-        <v>-0.10999999999999989</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="17"/>
-        <v>4.9999999999999926E-2</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="17"/>
-        <v>-8.0000000000000029E-2</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="17"/>
-        <v>-0.25000000000000006</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="17"/>
-        <v>-4.9999999999999996E-2</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="17"/>
-        <v>-9.9999999999998875E-3</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="17"/>
-        <v>-0.10999999999999999</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="17"/>
-        <v>-7.9999999999999988E-2</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="17"/>
-        <v>-0.25</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="17"/>
-        <v>-0.21999999999999997</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="17"/>
-        <v>-0.15000000000000002</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="17"/>
-        <v>-1.0000000000000031E-2</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <f t="shared" si="17"/>
-        <v>-0.24999999999999997</v>
-      </c>
-      <c r="Z46">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <f t="shared" si="18"/>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="AE46">
-        <f t="shared" ref="AE46:AE52" si="22">MAX(0.6*AG45/$AD$3, AB46)</f>
-        <v>2.0160000000000001E-2</v>
-      </c>
-      <c r="AG46" s="7">
-        <f t="shared" si="19"/>
-        <v>2.016</v>
-      </c>
-      <c r="AI46" s="8"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
-        <v>7</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="20"/>
-        <v>-0.35000000000000009</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="17"/>
-        <v>-0.35000000000000003</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="17"/>
-        <v>-9.9999999999998215E-3</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="17"/>
-        <v>-0.10999999999999997</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="17"/>
-        <v>0.05</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="17"/>
-        <v>-7.9999999999999877E-2</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="17"/>
-        <v>4.9999999999999871E-2</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="17"/>
-        <v>-0.3</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="17"/>
-        <v>-0.35</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="17"/>
-        <v>5.00000000000001E-2</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="17"/>
-        <v>-0.10999999999999993</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="17"/>
-        <v>7.0000000000000132E-2</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="17"/>
-        <v>-5.0000000000000058E-2</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="17"/>
-        <v>-0.24999999999999994</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="17"/>
-        <v>-1.0000004115922443E-2</v>
-      </c>
-      <c r="U47">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <f t="shared" si="17"/>
-        <v>-0.19999999999999998</v>
-      </c>
-      <c r="Y47">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <f t="shared" si="18"/>
-        <v>-7.400000016463687E-2</v>
-      </c>
-      <c r="AE47">
-        <f t="shared" si="22"/>
-        <v>1.2096000000000001E-2</v>
-      </c>
-      <c r="AG47" s="7">
-        <f t="shared" si="19"/>
-        <v>1.2096</v>
-      </c>
-      <c r="AI47" s="9"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
-        <v>8</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="20"/>
-        <v>-0.15</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="17"/>
-        <v>-2.0000000000000056E-2</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="17"/>
-        <v>-4.999999999999985E-2</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="17"/>
-        <v>-9.9999999999999516E-3</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="17"/>
-        <v>-0.11000000000000006</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000135E-2</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="17"/>
-        <v>-2.0000000000000153E-2</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="17"/>
-        <v>-4.9999999999999996E-2</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="17"/>
-        <v>-0.25</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="17"/>
-        <v>5.00000000000001E-2</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="17"/>
-        <v>-1.0000000000000044E-2</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="17"/>
-        <v>-0.11</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="17"/>
-        <v>-2.0000000000000077E-2</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="17"/>
-        <v>-3.0000000000000082E-2</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="17"/>
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="17"/>
-        <v>-2.0000000000000077E-2</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <f t="shared" si="17"/>
-        <v>-1.0000000000000024E-2</v>
-      </c>
-      <c r="V48">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <f t="shared" si="17"/>
-        <v>-2.0000000000000004E-2</v>
-      </c>
-      <c r="X48">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <f t="shared" si="17"/>
-        <v>2.9999999999999971E-2</v>
-      </c>
-      <c r="Z48">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <f t="shared" si="18"/>
-        <v>-0.04</v>
-      </c>
-      <c r="AE48">
-        <f t="shared" si="22"/>
-        <v>7.2575999999999995E-3</v>
-      </c>
-      <c r="AG48" s="7">
-        <f t="shared" si="19"/>
-        <v>0.72575999999999996</v>
-      </c>
-      <c r="AI48" s="8"/>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
-        <v>9</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="20"/>
-        <v>4.9999999999999815E-2</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000024E-2</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="17"/>
-        <v>-0.21999999999999989</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="17"/>
-        <v>4.9999999999999926E-2</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="17"/>
-        <v>-1.0000000000000054E-2</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000135E-2</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000051E-2</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="17"/>
-        <v>-8.0000000000000099E-2</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="17"/>
-        <v>-0.17999999999999997</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="17"/>
-        <v>-0.18999999999999989</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="17"/>
-        <v>-0.29999999999999993</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="17"/>
-        <v>-1.9999999999999903E-2</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="17"/>
-        <v>7.0000000000000132E-2</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="17"/>
-        <v>2.9999999999999978E-2</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="17"/>
-        <v>4.0000000000000112E-2</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="17"/>
-        <v>-0.29000000000000004</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="17"/>
-        <v>6.9999999999999868E-2</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="17"/>
-        <v>2.9999999999999961E-2</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <f t="shared" si="17"/>
-        <v>3.9999999999999994E-2</v>
-      </c>
-      <c r="W49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <f t="shared" si="17"/>
-        <v>5.9999999999999942E-2</v>
-      </c>
-      <c r="Z49">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <f t="shared" si="18"/>
-        <v>-2.799999999999999E-2</v>
-      </c>
-      <c r="AE49">
-        <f t="shared" si="22"/>
-        <v>4.3545599999999995E-3</v>
-      </c>
-      <c r="AG49" s="7">
-        <f t="shared" si="19"/>
-        <v>0.43545599999999995</v>
       </c>
       <c r="AI49" s="9"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B50">
-        <f t="shared" si="20"/>
-        <v>7.9999999999999918E-2</v>
+        <f t="shared" ref="B50:Q58" si="29">MIN(0.1,B35)</f>
+        <v>0.1</v>
       </c>
       <c r="C50">
-        <f t="shared" si="17"/>
-        <v>9.0000000000000024E-2</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="D50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="E50">
-        <f t="shared" si="17"/>
-        <v>8.99999999999999E-2</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="F50">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="G50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="17"/>
-        <v>7.9999999999999974E-2</v>
+        <f t="shared" si="29"/>
+        <v>6.0000000000000026E-2</v>
       </c>
       <c r="I50">
-        <f t="shared" si="17"/>
-        <v>4.9999999999999871E-2</v>
+        <f t="shared" si="29"/>
+        <v>-2.0000000000000153E-2</v>
       </c>
       <c r="J50">
-        <f t="shared" si="17"/>
-        <v>-7.9999999999999988E-2</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="K50">
-        <f t="shared" si="17"/>
-        <v>-0.14999999999999988</v>
+        <f t="shared" si="29"/>
+        <v>-4.9999999999999906E-2</v>
       </c>
       <c r="L50">
-        <f t="shared" si="17"/>
-        <v>-0.10999999999999999</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="M50">
-        <f t="shared" si="17"/>
-        <v>-0.25</v>
+        <f t="shared" si="29"/>
+        <v>-6.9999999999999937E-2</v>
       </c>
       <c r="N50">
-        <f t="shared" si="17"/>
-        <v>-0.25999999999999995</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="O50">
-        <f t="shared" si="17"/>
-        <v>-1.0000000000000038E-2</v>
+        <f t="shared" si="29"/>
+        <v>-8.0000000000000029E-2</v>
       </c>
       <c r="P50">
-        <f t="shared" si="17"/>
-        <v>-0.10999999999999999</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="17"/>
-        <v>-0.14000000000000004</v>
+        <f t="shared" si="29"/>
+        <v>9.9999999999999853E-2</v>
       </c>
       <c r="R50">
-        <f t="shared" si="17"/>
-        <v>4.9999999999999989E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="S50">
-        <f t="shared" si="17"/>
-        <v>6.000000000000006E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="T50">
-        <f t="shared" si="17"/>
-        <v>-0.17999999176815495</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="U50">
-        <f t="shared" si="17"/>
-        <v>-4.999999999999992E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="V50">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>7.9999999999999988E-2</v>
       </c>
       <c r="W50">
-        <f t="shared" si="17"/>
-        <v>-1.0000000000000064E-2</v>
+        <f t="shared" si="26"/>
+        <v>6.9999999999999951E-2</v>
       </c>
       <c r="X50">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
+        <f t="shared" si="26"/>
+        <v>9.999999999999995E-2</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="18"/>
-        <v>-2.1999999670726206E-2</v>
+        <f t="shared" si="27"/>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="22"/>
-        <v>2.6127359999999992E-3</v>
+        <f t="shared" ref="AE50:AE52" si="30">5.6%</f>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="AG50" s="7">
-        <f t="shared" si="19"/>
-        <v>0.26127359999999994</v>
+        <f t="shared" si="28"/>
+        <v>5.6</v>
       </c>
       <c r="AI50" s="8"/>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B51">
-        <f>MIN(0.1,B36)</f>
-        <v>-0.26000000000000006</v>
+        <f t="shared" si="29"/>
+        <v>0.1</v>
       </c>
       <c r="C51">
-        <f t="shared" si="17"/>
-        <v>-7.9999999999999988E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="D51">
-        <f t="shared" si="17"/>
-        <v>-0.2599999999999999</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="E51">
-        <f t="shared" si="17"/>
-        <v>6.0000000000000046E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="F51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="G51">
-        <f t="shared" si="17"/>
-        <v>8.0000000000000043E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="I51">
-        <f t="shared" si="17"/>
-        <v>8.9999999999999844E-2</v>
+        <f t="shared" si="26"/>
+        <v>9.9999999999999908E-2</v>
       </c>
       <c r="J51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="K51">
-        <f t="shared" si="17"/>
-        <v>8.0000000000000043E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="L51">
-        <f t="shared" si="17"/>
-        <v>5.00000000000001E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="M51">
-        <f t="shared" si="17"/>
-        <v>5.0000000000000037E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="N51">
-        <f t="shared" si="17"/>
-        <v>-5.0000000000000017E-2</v>
+        <f t="shared" si="26"/>
+        <v>5.0000000000000017E-2</v>
       </c>
       <c r="O51">
-        <f t="shared" si="17"/>
-        <v>-0.31000000000000011</v>
+        <f t="shared" si="26"/>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="P51">
-        <f t="shared" si="17"/>
-        <v>6.9999999999999979E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="17"/>
-        <v>-0.11000000000000008</v>
+        <f t="shared" si="26"/>
+        <v>2.9999999999999957E-2</v>
       </c>
       <c r="R51">
-        <f t="shared" si="17"/>
-        <v>7.9999999999999905E-2</v>
+        <f t="shared" si="26"/>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="S51">
-        <f t="shared" si="17"/>
-        <v>6.9999999999999951E-2</v>
+        <f t="shared" si="26"/>
+        <v>1.0000000000000031E-2</v>
       </c>
       <c r="T51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="U51">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2.0000000000000049E-2</v>
       </c>
       <c r="V51">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="W51">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="X51">
-        <f t="shared" si="17"/>
-        <v>8.9999999999999983E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="17"/>
-        <v>8.0000000000000029E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.1</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB51">
-        <f t="shared" ref="AB51:AB52" si="23">AVERAGE(B51:Z51)</f>
-        <v>5.1999999999999911E-3</v>
+        <f t="shared" si="27"/>
+        <v>8.840000000000002E-2</v>
       </c>
       <c r="AE51">
-        <f t="shared" si="22"/>
-        <v>5.1999999999999911E-3</v>
+        <f t="shared" si="30"/>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="AG51" s="7">
-        <f t="shared" si="19"/>
-        <v>0.51999999999999913</v>
+        <f t="shared" si="28"/>
+        <v>5.6</v>
       </c>
       <c r="AI51" s="9"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="29"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999926E-2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="26"/>
+        <v>3.0000000000000082E-2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000037E-2</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="26"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="26"/>
+        <v>7.9999999999999891E-2</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="26"/>
+        <v>8.999999588407756E-2</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="26"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="27"/>
+        <v>9.0399999835363135E-2</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="30"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="AG52" s="7">
+        <f t="shared" si="28"/>
+        <v>5.6</v>
+      </c>
+      <c r="AI52" s="8"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="29"/>
+        <v>-1.0000000000000037E-2</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="26"/>
+        <v>-0.10999999999999996</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000037E-2</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="26"/>
+        <v>-8.0000000000000113E-2</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="26"/>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="26"/>
+        <v>-0.18999999999999995</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="26"/>
+        <v>-0.23000000000000007</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="26"/>
+        <v>-0.09</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="26"/>
+        <v>-1.0000000000000038E-2</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="26"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="27"/>
+        <v>-3.9200000000000006E-2</v>
+      </c>
+      <c r="AE53">
+        <f>MAX(0.6*AG52/$AD$3, AB53)</f>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="AG53" s="7">
+        <f t="shared" si="28"/>
+        <v>3.36</v>
+      </c>
+      <c r="AI53" s="9"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="29"/>
+        <v>-0.22000000000000008</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="26"/>
+        <v>-1.0000000000000028E-2</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="26"/>
+        <v>-0.10999999999999989</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999926E-2</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="26"/>
+        <v>-8.0000000000000029E-2</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="26"/>
+        <v>-0.25000000000000006</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="26"/>
+        <v>-4.9999999999999996E-2</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="26"/>
+        <v>-9.9999999999998875E-3</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="26"/>
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="26"/>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="26"/>
+        <v>-0.25</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="26"/>
+        <v>-0.21999999999999997</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="26"/>
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="26"/>
+        <v>-1.0000000000000031E-2</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="26"/>
+        <v>-0.24999999999999997</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="27"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" ref="AE54:AE60" si="31">MAX(0.6*AG53/$AD$3, AB54)</f>
+        <v>2.0160000000000001E-2</v>
+      </c>
+      <c r="AG54" s="7">
+        <f t="shared" si="28"/>
+        <v>2.016</v>
+      </c>
+      <c r="AI54" s="8"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="29"/>
+        <v>-0.35000000000000009</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="26"/>
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="26"/>
+        <v>-9.9999999999998215E-3</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="26"/>
+        <v>-0.10999999999999997</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="26"/>
+        <v>0.05</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="26"/>
+        <v>-7.9999999999999877E-2</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999871E-2</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="26"/>
+        <v>-0.3</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="26"/>
+        <v>-0.35</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="26"/>
+        <v>5.00000000000001E-2</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="26"/>
+        <v>-0.10999999999999993</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="26"/>
+        <v>7.0000000000000132E-2</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="26"/>
+        <v>-5.0000000000000058E-2</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="26"/>
+        <v>-0.24999999999999994</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="26"/>
+        <v>-1.0000004115922443E-2</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="26"/>
+        <v>-0.19999999999999998</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="27"/>
+        <v>-7.400000016463687E-2</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="31"/>
+        <v>1.2096000000000001E-2</v>
+      </c>
+      <c r="AG55" s="7">
+        <f t="shared" si="28"/>
+        <v>1.2096</v>
+      </c>
+      <c r="AI55" s="9"/>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="29"/>
+        <v>-0.15</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="26"/>
+        <v>-2.0000000000000056E-2</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="26"/>
+        <v>-4.999999999999985E-2</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="26"/>
+        <v>-9.9999999999999516E-3</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="26"/>
+        <v>-0.11000000000000006</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000135E-2</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="26"/>
+        <v>-2.0000000000000153E-2</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="26"/>
+        <v>-4.9999999999999996E-2</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="26"/>
+        <v>-0.25</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="26"/>
+        <v>5.00000000000001E-2</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="26"/>
+        <v>-1.0000000000000044E-2</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="26"/>
+        <v>-0.11</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="26"/>
+        <v>-2.0000000000000077E-2</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="26"/>
+        <v>-3.0000000000000082E-2</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="26"/>
+        <v>-0.25</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="26"/>
+        <v>-2.0000000000000077E-2</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="26"/>
+        <v>-1.0000000000000024E-2</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="26"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="26"/>
+        <v>2.9999999999999971E-2</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="27"/>
+        <v>-0.04</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="31"/>
+        <v>7.2575999999999995E-3</v>
+      </c>
+      <c r="AG56" s="7">
+        <f t="shared" si="28"/>
+        <v>0.72575999999999996</v>
+      </c>
+      <c r="AI56" s="8"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="29"/>
+        <v>4.9999999999999815E-2</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000024E-2</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="26"/>
+        <v>-0.21999999999999989</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999926E-2</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="26"/>
+        <v>-1.0000000000000054E-2</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000135E-2</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000051E-2</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="26"/>
+        <v>-8.0000000000000099E-2</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="26"/>
+        <v>-0.17999999999999997</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="26"/>
+        <v>-0.18999999999999989</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="26"/>
+        <v>-0.29999999999999993</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="26"/>
+        <v>-1.9999999999999903E-2</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="26"/>
+        <v>7.0000000000000132E-2</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="26"/>
+        <v>2.9999999999999978E-2</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="26"/>
+        <v>4.0000000000000112E-2</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="26"/>
+        <v>-0.29000000000000004</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="26"/>
+        <v>6.9999999999999868E-2</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="26"/>
+        <v>2.9999999999999961E-2</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="26"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="26"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="27"/>
+        <v>-2.799999999999999E-2</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="31"/>
+        <v>4.3545599999999995E-3</v>
+      </c>
+      <c r="AG57" s="7">
+        <f t="shared" si="28"/>
+        <v>0.43545599999999995</v>
+      </c>
+      <c r="AI57" s="9"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="29"/>
+        <v>7.9999999999999918E-2</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="26"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="26"/>
+        <v>8.99999999999999E-2</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="26"/>
+        <v>7.9999999999999974E-2</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999871E-2</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="26"/>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="26"/>
+        <v>-0.14999999999999988</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="26"/>
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="26"/>
+        <v>-0.25</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="26"/>
+        <v>-0.25999999999999995</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="26"/>
+        <v>-1.0000000000000038E-2</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="26"/>
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="26"/>
+        <v>-0.14000000000000004</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="26"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="26"/>
+        <v>6.000000000000006E-2</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="26"/>
+        <v>-0.17999999176815495</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="26"/>
+        <v>-4.999999999999992E-2</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="26"/>
+        <v>-1.0000000000000064E-2</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="27"/>
+        <v>-2.1999999670726206E-2</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="31"/>
+        <v>2.6127359999999992E-3</v>
+      </c>
+      <c r="AG58" s="7">
+        <f t="shared" si="28"/>
+        <v>0.26127359999999994</v>
+      </c>
+      <c r="AI58" s="8"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <f>MIN(0.1,B44)</f>
+        <v>-0.26000000000000006</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="26"/>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="26"/>
+        <v>-0.2599999999999999</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="26"/>
+        <v>6.0000000000000046E-2</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="26"/>
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="26"/>
+        <v>8.9999999999999844E-2</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="26"/>
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="26"/>
+        <v>5.00000000000001E-2</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="26"/>
+        <v>5.0000000000000037E-2</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="26"/>
+        <v>-5.0000000000000017E-2</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="26"/>
+        <v>-0.31000000000000011</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="26"/>
+        <v>6.9999999999999979E-2</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="26"/>
+        <v>-0.11000000000000008</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="26"/>
+        <v>7.9999999999999905E-2</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="26"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="26"/>
+        <v>8.9999999999999983E-2</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="26"/>
+        <v>8.0000000000000029E-2</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" ref="AB59:AB60" si="32">AVERAGE(B59:Z59)</f>
+        <v>5.1999999999999911E-3</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="31"/>
+        <v>5.1999999999999911E-3</v>
+      </c>
+      <c r="AG59" s="7">
+        <f t="shared" si="28"/>
+        <v>0.51999999999999913</v>
+      </c>
+      <c r="AI59" s="9"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
         <v>12</v>
       </c>
-      <c r="B52">
-        <f>MIN(0.1,B37)</f>
-        <v>0.1</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="17"/>
+      <c r="B60">
+        <f>MIN(0.1,B45)</f>
+        <v>0.1</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="26"/>
         <v>-1.0000000000000028E-2</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="17"/>
+      <c r="D60">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="26"/>
         <v>-0.15000000000000011</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="17"/>
+      <c r="F60">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="26"/>
         <v>-0.16999999999999996</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="I52">
-        <f t="shared" ref="I52:Z52" si="24">MIN(0.1,I37)</f>
+      <c r="H60">
+        <f t="shared" si="26"/>
+        <v>0.1</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60:Z60" si="33">MIN(0.1,I45)</f>
         <v>-1.0000000000000077E-2</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="24"/>
+      <c r="J60">
+        <f t="shared" si="33"/>
+        <v>0.1</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="33"/>
         <v>5.0000000000000065E-2</v>
       </c>
-      <c r="L52">
-        <f t="shared" si="24"/>
+      <c r="L60">
+        <f t="shared" si="33"/>
         <v>2.0000000000000091E-2</v>
       </c>
-      <c r="M52">
-        <f t="shared" si="24"/>
+      <c r="M60">
+        <f t="shared" si="33"/>
         <v>-0.21000000000000002</v>
       </c>
-      <c r="N52">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="24"/>
+      <c r="N60">
+        <f t="shared" si="33"/>
+        <v>0.1</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="33"/>
         <v>-0.20000000000000009</v>
       </c>
-      <c r="P52">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="24"/>
+      <c r="P60">
+        <f t="shared" si="33"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="33"/>
+        <v>0.1</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="33"/>
         <v>-0.11000000000000001</v>
       </c>
-      <c r="S52">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="24"/>
+      <c r="S60">
+        <f t="shared" si="33"/>
+        <v>0.1</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="33"/>
         <v>7.9999991768155115E-2</v>
       </c>
-      <c r="U52">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="W52">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="X52">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="Y52">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="Z52">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
-      </c>
-      <c r="AB52">
-        <f t="shared" si="23"/>
+      <c r="U60">
+        <f t="shared" si="33"/>
+        <v>0.1</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="33"/>
+        <v>0.1</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="33"/>
+        <v>0.1</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="33"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="33"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="33"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="32"/>
         <v>3.15999996707262E-2</v>
       </c>
-      <c r="AE52">
-        <f t="shared" si="22"/>
+      <c r="AE60">
+        <f t="shared" si="31"/>
         <v>3.15999996707262E-2</v>
       </c>
-      <c r="AG52" s="7">
-        <f t="shared" si="19"/>
+      <c r="AG60" s="7">
+        <f t="shared" si="28"/>
         <v>3.1599999670726202</v>
       </c>
-      <c r="AI52" s="8"/>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AE53" s="16" t="s">
+      <c r="AI60" s="8"/>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AE61" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="AF53">
-        <f>SUM(AE41:AE52)</f>
+      <c r="AF61">
+        <f>SUM(AE49:AE60)</f>
         <v>0.34088089567072616</v>
       </c>
-      <c r="AI53" s="9"/>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AI54" s="8"/>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AI55" s="9"/>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AB56" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD56" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI56" s="8"/>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AB57" s="11">
-        <f>(AVERAGE(AC26:AC37)-SUM(AE41:AE52))</f>
-        <v>0.68258577105081963</v>
-      </c>
-      <c r="AD57">
-        <f>$AD$3 * (1+MAX(0,AB57))</f>
-        <v>168.25857710508197</v>
-      </c>
-      <c r="AI57" s="9"/>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AI58" s="8"/>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AI59" s="9"/>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AI60" s="8"/>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
       <c r="AI61" s="9"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.35">
@@ -5808,54 +6657,68 @@
       <c r="AI63" s="9"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AB64" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD64" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="AI64" s="8"/>
     </row>
-    <row r="65" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="28:35" x14ac:dyDescent="0.35">
+      <c r="AB65" s="11">
+        <f>(AD31-AF61)</f>
+        <v>0.68258577105081963</v>
+      </c>
+      <c r="AD65">
+        <f>$AD$3 * (1+MAX(0,AB65))</f>
+        <v>168.25857710508197</v>
+      </c>
       <c r="AI65" s="9"/>
     </row>
-    <row r="66" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI66" s="8"/>
     </row>
-    <row r="67" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI67" s="9"/>
     </row>
-    <row r="68" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI68" s="8"/>
     </row>
-    <row r="69" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI69" s="9"/>
     </row>
-    <row r="70" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI70" s="8"/>
     </row>
-    <row r="71" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI71" s="9"/>
     </row>
-    <row r="72" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI72" s="8"/>
     </row>
-    <row r="73" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI73" s="9"/>
     </row>
-    <row r="74" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI74" s="8"/>
     </row>
-    <row r="75" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI75" s="9"/>
     </row>
-    <row r="76" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI76" s="8"/>
     </row>
-    <row r="77" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI77" s="9"/>
     </row>
-    <row r="78" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI78" s="8"/>
     </row>
-    <row r="79" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI79" s="9"/>
     </row>
-    <row r="80" spans="35:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="28:35" x14ac:dyDescent="0.35">
       <c r="AI80" s="8"/>
     </row>
     <row r="81" spans="35:35" x14ac:dyDescent="0.35">
@@ -5881,6 +6744,30 @@
     </row>
     <row r="88" spans="35:35" x14ac:dyDescent="0.35">
       <c r="AI88" s="8"/>
+    </row>
+    <row r="89" spans="35:35" x14ac:dyDescent="0.35">
+      <c r="AI89" s="9"/>
+    </row>
+    <row r="90" spans="35:35" x14ac:dyDescent="0.35">
+      <c r="AI90" s="8"/>
+    </row>
+    <row r="91" spans="35:35" x14ac:dyDescent="0.35">
+      <c r="AI91" s="9"/>
+    </row>
+    <row r="92" spans="35:35" x14ac:dyDescent="0.35">
+      <c r="AI92" s="8"/>
+    </row>
+    <row r="93" spans="35:35" x14ac:dyDescent="0.35">
+      <c r="AI93" s="9"/>
+    </row>
+    <row r="94" spans="35:35" x14ac:dyDescent="0.35">
+      <c r="AI94" s="8"/>
+    </row>
+    <row r="95" spans="35:35" x14ac:dyDescent="0.35">
+      <c r="AI95" s="9"/>
+    </row>
+    <row r="96" spans="35:35" x14ac:dyDescent="0.35">
+      <c r="AI96" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/casMedian1.xlsx
+++ b/Excel/casMedian1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portable\Documents\GitHub\PEPSI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557DF79F-1C2E-4805-AC3A-56D9EA27F483}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CB7E80-CE08-4091-96B2-41B85C1B059A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7440" xr2:uid="{5172E695-FFD0-4A81-8853-8CB156196831}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Calculs" sheetId="2" r:id="rId1"/>
     <sheet name="Données brutes" sheetId="1" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="282">
   <si>
     <t>1215.38</t>
   </si>
@@ -851,13 +854,43 @@
   </si>
   <si>
     <t>Moyenne des performances prenant en compte le point d'entree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somme </t>
+  </si>
+  <si>
+    <t>Calcul initial de la brochure</t>
+  </si>
+  <si>
+    <t>Somme perf - Somme div</t>
+  </si>
+  <si>
+    <t>Moyenne perf -1</t>
+  </si>
+  <si>
+    <t>Nouveau calcul plus value</t>
+  </si>
+  <si>
+    <t>Somme perf plafonnee - Somme div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total gains investisseurs : </t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>Taux de rendement :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,6 +1002,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -990,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1008,7 +1093,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1017,6 +1101,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,6 +1128,2329 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Performance du panier d'actions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calculs!$AB$19:$AB$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1036000008231848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1116000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1064000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0995999998353634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92639999983536314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98400000032927371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0088000001646369</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1183999996707263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>Performance</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-082E-4F5D-A02E-B4D653505472}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="528028408"/>
+        <c:axId val="528029064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="528028408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Années</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528029064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="528029064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Performance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528028408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Dividendes reçus</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculs!$AE$49:$AE$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.5999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0160000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2096000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2575999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3545599999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6127359999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1999999999999911E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.15999996707262E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C74C-4948-837E-F05EF3F72B1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="600420808"/>
+        <c:axId val="600421464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="600420808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Années</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600421464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="600421464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Part</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> de dividendes reçus</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600420808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0BDAB47-B59F-4564-B3F0-0A47E656E51F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53819013-5153-43C1-A6E6-0C40B0247762}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Calculs"/>
+      <sheetName val="Données brutes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="AB19">
+            <v>1.0756000008231847</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AB20">
+            <v>1.0656000008231847</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="AB21">
+            <v>1.0739999998353633</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AB22">
+            <v>1.0859999995060894</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AB23">
+            <v>1.0648</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AB24">
+            <v>1.0815999995060892</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AB25">
+            <v>1.0748000008231844</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AB26">
+            <v>1.0908000000000002</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AB27">
+            <v>1.1044</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AB28">
+            <v>1.1039999998353629</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AB29">
+            <v>1.1139999998353629</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AB30">
+            <v>1.1384000000000001</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="AE49">
+            <v>5.5999999999999994E-2</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="AE50">
+            <v>5.5999999999999994E-2</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="AE51">
+            <v>5.5999999999999994E-2</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="AE52">
+            <v>5.5999999999999994E-2</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="AE53">
+            <v>5.6400000000000027E-2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="AE54">
+            <v>6.9199999506089321E-2</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="AE55">
+            <v>6.6800000823184505E-2</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="AE56">
+            <v>8.4399999999999989E-2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="AE57">
+            <v>9.2800000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="AE58">
+            <v>9.1999999835363125E-2</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="AE59">
+            <v>9.1200000000000031E-2</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="AE60">
+            <v>9.5200000000000007E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1333,8 +3752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8926E1A2-95A1-4361-8542-D3980DDE6A70}">
   <dimension ref="A1:AK96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U16" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19:AC30"/>
+    <sheetView tabSelected="1" topLeftCell="X45" workbookViewId="0">
+      <selection activeCell="AF69" sqref="AF69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1346,7 +3765,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>271</v>
       </c>
     </row>
@@ -1354,82 +3773,82 @@
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="13"/>
+      <c r="AA2" s="12"/>
       <c r="AB2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AF2" s="9"/>
@@ -1515,7 +3934,7 @@
       <c r="Z3">
         <v>1272.4100000000001</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AC3" s="13" t="s">
         <v>31</v>
       </c>
       <c r="AD3" s="4">
@@ -2482,23 +4901,23 @@
         <v>1641.4088999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>0</v>
       </c>
       <c r="AB18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AF18" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -2507,7 +4926,7 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:Z22" si="0">(C4)/C$3</f>
+        <f t="shared" ref="C19:Z30" si="0">(C4)/C$3</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="D19">
@@ -2606,17 +5025,21 @@
         <f>AVERAGE(B19:Z19)</f>
         <v>1.1036000008231848</v>
       </c>
-      <c r="AD19" s="7">
+      <c r="AD19" s="17">
+        <f>AB19-1</f>
+        <v>0.10360000082318477</v>
+      </c>
+      <c r="AF19" s="7">
         <f>MIN(1,AB19:AB22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>2</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:Q22" si="1">(B5)/B$3</f>
+        <f t="shared" ref="B20:Q30" si="1">(B5)/B$3</f>
         <v>1.1199999999999999</v>
       </c>
       <c r="C20">
@@ -2719,8 +5142,12 @@
         <f>AVERAGE(B20:Z20)</f>
         <v>1.1116000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD20" s="17">
+        <f>AB20-1</f>
+        <v>0.11160000000000014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -2828,8 +5255,12 @@
         <f>AVERAGE(B21:Z21)</f>
         <v>1.1064000000000005</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD21" s="17">
+        <f>AB21-1</f>
+        <v>0.10640000000000049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -2937,890 +5368,933 @@
         <f>AVERAGE(B22:Z22)</f>
         <v>1.0995999998353634</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD22" s="17">
+        <f>AB22-1</f>
+        <v>9.9599999835363384E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>5</v>
       </c>
-      <c r="B23" s="17">
-        <f t="shared" ref="B23:Z23" si="2">(B8)/B$3</f>
+      <c r="B23" s="16">
+        <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
-      <c r="C23" s="17">
-        <f t="shared" si="2"/>
+      <c r="C23" s="16">
+        <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-      <c r="D23" s="17">
-        <f t="shared" si="2"/>
+      <c r="D23" s="16">
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="E23" s="17">
-        <f t="shared" si="2"/>
+      <c r="E23" s="16">
+        <f t="shared" si="1"/>
         <v>0.91999999999999993</v>
       </c>
-      <c r="F23" s="17">
-        <f t="shared" si="2"/>
+      <c r="F23" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G23" s="17">
-        <f t="shared" si="2"/>
+      <c r="G23" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H23" s="17">
-        <f t="shared" si="2"/>
+      <c r="H23" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I23" s="17">
-        <f t="shared" si="2"/>
+      <c r="I23" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J23" s="17">
-        <f t="shared" si="2"/>
+      <c r="J23" s="16">
+        <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
-      <c r="K23" s="17">
-        <f t="shared" si="2"/>
+      <c r="K23" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L23" s="17">
-        <f t="shared" si="2"/>
+      <c r="L23" s="16">
+        <f t="shared" si="1"/>
         <v>0.81</v>
       </c>
-      <c r="M23" s="17">
-        <f t="shared" si="2"/>
+      <c r="M23" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N23" s="17">
-        <f t="shared" si="2"/>
+      <c r="N23" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O23" s="17">
-        <f t="shared" si="2"/>
+      <c r="O23" s="16">
+        <f t="shared" si="1"/>
         <v>0.76999999999999991</v>
       </c>
-      <c r="P23" s="17">
-        <f t="shared" si="2"/>
+      <c r="P23" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="17">
-        <f t="shared" si="2"/>
+      <c r="Q23" s="16">
+        <f t="shared" si="1"/>
         <v>0.91</v>
       </c>
-      <c r="R23" s="17">
-        <f t="shared" si="2"/>
+      <c r="R23" s="16">
+        <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
-      <c r="S23" s="17">
-        <f t="shared" si="2"/>
+      <c r="S23" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T23" s="17">
-        <f t="shared" si="2"/>
+      <c r="T23" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U23" s="17">
-        <f t="shared" si="2"/>
+      <c r="U23" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V23" s="17">
-        <f t="shared" si="2"/>
+      <c r="V23" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W23" s="17">
-        <f t="shared" si="2"/>
+      <c r="W23" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X23" s="17">
-        <f t="shared" si="2"/>
+      <c r="X23" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y23" s="17">
-        <f t="shared" si="2"/>
+      <c r="Y23" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z23" s="17">
-        <f t="shared" si="2"/>
+      <c r="Z23" s="16">
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="AB23" s="17">
-        <f t="shared" ref="AB23:AB30" si="3">AVERAGE(B23:Z23)</f>
+      <c r="AB23" s="16">
+        <f t="shared" ref="AB23:AB30" si="2">AVERAGE(B23:Z23)</f>
         <v>0.96079999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD23" s="17">
+        <f>AB23-1</f>
+        <v>-3.9200000000000013E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>6</v>
       </c>
-      <c r="B24" s="17">
-        <f t="shared" ref="B24:Z24" si="4">(B9)/B$3</f>
+      <c r="B24" s="16">
+        <f t="shared" si="1"/>
         <v>0.77999999999999992</v>
       </c>
-      <c r="C24" s="17">
-        <f t="shared" si="4"/>
+      <c r="C24" s="16">
+        <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
-      <c r="D24" s="17">
-        <f t="shared" si="4"/>
+      <c r="D24" s="16">
+        <f t="shared" si="1"/>
         <v>0.89000000000000012</v>
       </c>
-      <c r="E24" s="17">
-        <f t="shared" si="4"/>
+      <c r="E24" s="16">
+        <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="F24" s="17">
-        <f t="shared" si="4"/>
+      <c r="F24" s="16">
+        <f t="shared" si="1"/>
         <v>0.91999999999999993</v>
       </c>
-      <c r="G24" s="17">
-        <f t="shared" si="4"/>
+      <c r="G24" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H24" s="17">
-        <f t="shared" si="4"/>
+      <c r="H24" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I24" s="17">
-        <f t="shared" si="4"/>
+      <c r="I24" s="16">
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="J24" s="17">
-        <f t="shared" si="4"/>
+      <c r="J24" s="16">
+        <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="K24" s="17">
-        <f t="shared" si="4"/>
+      <c r="K24" s="16">
+        <f t="shared" si="1"/>
         <v>0.9900000000000001</v>
       </c>
-      <c r="L24" s="17">
-        <f t="shared" si="4"/>
+      <c r="L24" s="16">
+        <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-      <c r="M24" s="17">
-        <f t="shared" si="4"/>
+      <c r="M24" s="16">
+        <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
-      <c r="N24" s="17">
-        <f t="shared" si="4"/>
+      <c r="N24" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O24" s="17">
-        <f t="shared" si="4"/>
+      <c r="O24" s="16">
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="P24" s="17">
-        <f t="shared" si="4"/>
+      <c r="P24" s="16">
+        <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
-      <c r="Q24" s="17">
-        <f t="shared" si="4"/>
+      <c r="Q24" s="16">
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
-      <c r="R24" s="17">
-        <f t="shared" si="4"/>
+      <c r="R24" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S24" s="17">
-        <f t="shared" si="4"/>
+      <c r="S24" s="16">
+        <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
-      <c r="T24" s="17">
-        <f t="shared" si="4"/>
+      <c r="T24" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U24" s="17">
-        <f t="shared" si="4"/>
+      <c r="U24" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V24" s="17">
-        <f t="shared" si="4"/>
+      <c r="V24" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W24" s="17">
-        <f t="shared" si="4"/>
+      <c r="W24" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X24" s="17">
-        <f t="shared" si="4"/>
+      <c r="X24" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y24" s="17">
-        <f t="shared" si="4"/>
+      <c r="Y24" s="16">
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="Z24" s="17">
-        <f t="shared" si="4"/>
+      <c r="Z24" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB24" s="17">
-        <f t="shared" si="3"/>
+      <c r="AB24" s="16">
+        <f t="shared" si="2"/>
         <v>0.93</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD24" s="17">
+        <f>AB24-1</f>
+        <v>-6.9999999999999951E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>7</v>
       </c>
-      <c r="B25" s="17">
-        <f t="shared" ref="B25:Z25" si="5">(B10)/B$3</f>
+      <c r="B25" s="16">
+        <f t="shared" si="1"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="C25" s="17">
-        <f t="shared" si="5"/>
+      <c r="C25" s="16">
+        <f t="shared" si="1"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="D25" s="17">
-        <f t="shared" si="5"/>
+      <c r="D25" s="16">
+        <f t="shared" si="1"/>
         <v>0.99000000000000021</v>
       </c>
-      <c r="E25" s="17">
-        <f t="shared" si="5"/>
+      <c r="E25" s="16">
+        <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-      <c r="F25" s="17">
-        <f t="shared" si="5"/>
+      <c r="F25" s="16">
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="G25" s="17">
-        <f t="shared" si="5"/>
+      <c r="G25" s="16">
+        <f t="shared" si="1"/>
         <v>0.92000000000000015</v>
       </c>
-      <c r="H25" s="17">
-        <f t="shared" si="5"/>
+      <c r="H25" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I25" s="17">
-        <f t="shared" si="5"/>
+      <c r="I25" s="16">
+        <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="J25" s="17">
-        <f t="shared" si="5"/>
+      <c r="J25" s="16">
+        <f t="shared" si="1"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="K25" s="17">
-        <f t="shared" si="5"/>
+      <c r="K25" s="16">
+        <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
-      <c r="L25" s="17">
-        <f t="shared" si="5"/>
+      <c r="L25" s="16">
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="M25" s="17">
-        <f t="shared" si="5"/>
+      <c r="M25" s="16">
+        <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-      <c r="N25" s="17">
-        <f t="shared" si="5"/>
+      <c r="N25" s="16">
+        <f t="shared" si="1"/>
         <v>1.07</v>
       </c>
-      <c r="O25" s="17">
-        <f t="shared" si="5"/>
+      <c r="O25" s="16">
+        <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="P25" s="17">
-        <f t="shared" si="5"/>
+      <c r="P25" s="16">
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="Q25" s="17">
-        <f t="shared" si="5"/>
+      <c r="Q25" s="16">
+        <f t="shared" si="1"/>
         <v>1.1099999999999999</v>
       </c>
-      <c r="R25" s="17">
-        <f t="shared" si="5"/>
+      <c r="R25" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S25" s="17">
-        <f t="shared" si="5"/>
+      <c r="S25" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T25" s="17">
-        <f t="shared" si="5"/>
+      <c r="T25" s="16">
+        <f t="shared" si="0"/>
         <v>0.98999999588407761</v>
       </c>
-      <c r="U25" s="17">
-        <f t="shared" si="5"/>
+      <c r="U25" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V25" s="17">
-        <f t="shared" si="5"/>
+      <c r="V25" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W25" s="17">
-        <f t="shared" si="5"/>
+      <c r="W25" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X25" s="17">
-        <f t="shared" si="5"/>
+      <c r="X25" s="16">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="Y25" s="17">
-        <f t="shared" si="5"/>
+      <c r="Y25" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z25" s="17">
-        <f t="shared" si="5"/>
+      <c r="Z25" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB25" s="17">
-        <f t="shared" si="3"/>
+      <c r="AB25" s="16">
+        <f t="shared" si="2"/>
         <v>0.92639999983536314</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD25" s="17">
+        <f>AB25-1</f>
+        <v>-7.3600000164636858E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>8</v>
       </c>
-      <c r="B26" s="17">
-        <f t="shared" ref="B26:Z26" si="6">(B11)/B$3</f>
+      <c r="B26" s="16">
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
-      <c r="C26" s="17">
-        <f t="shared" si="6"/>
+      <c r="C26" s="16">
+        <f t="shared" si="1"/>
         <v>0.98</v>
       </c>
-      <c r="D26" s="17">
-        <f t="shared" si="6"/>
+      <c r="D26" s="16">
+        <f t="shared" si="1"/>
         <v>0.95000000000000018</v>
       </c>
-      <c r="E26" s="17">
-        <f t="shared" si="6"/>
+      <c r="E26" s="16">
+        <f t="shared" si="1"/>
         <v>0.9900000000000001</v>
       </c>
-      <c r="F26" s="17">
-        <f t="shared" si="6"/>
+      <c r="F26" s="16">
+        <f t="shared" si="1"/>
         <v>0.8899999999999999</v>
       </c>
-      <c r="G26" s="17">
-        <f t="shared" si="6"/>
+      <c r="G26" s="16">
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="H26" s="17">
-        <f t="shared" si="6"/>
+      <c r="H26" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I26" s="17">
-        <f t="shared" si="6"/>
+      <c r="I26" s="16">
+        <f t="shared" si="1"/>
         <v>0.97999999999999987</v>
       </c>
-      <c r="J26" s="17">
-        <f t="shared" si="6"/>
+      <c r="J26" s="16">
+        <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="K26" s="17">
-        <f t="shared" si="6"/>
+      <c r="K26" s="16">
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="L26" s="17">
-        <f t="shared" si="6"/>
+      <c r="L26" s="16">
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="M26" s="17">
-        <f t="shared" si="6"/>
+      <c r="M26" s="16">
+        <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
-      <c r="N26" s="17">
-        <f t="shared" si="6"/>
+      <c r="N26" s="16">
+        <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-      <c r="O26" s="17">
-        <f t="shared" si="6"/>
+      <c r="O26" s="16">
+        <f t="shared" si="1"/>
         <v>0.97999999999999987</v>
       </c>
-      <c r="P26" s="17">
-        <f t="shared" si="6"/>
+      <c r="P26" s="16">
+        <f t="shared" si="1"/>
         <v>0.96999999999999986</v>
       </c>
-      <c r="Q26" s="17">
-        <f t="shared" si="6"/>
+      <c r="Q26" s="16">
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="R26" s="17">
-        <f t="shared" si="6"/>
+      <c r="R26" s="16">
+        <f t="shared" si="0"/>
         <v>0.97999999999999987</v>
       </c>
-      <c r="S26" s="17">
-        <f t="shared" si="6"/>
+      <c r="S26" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T26" s="17">
-        <f t="shared" si="6"/>
+      <c r="T26" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U26" s="17">
-        <f t="shared" si="6"/>
+      <c r="U26" s="16">
+        <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
-      <c r="V26" s="17">
-        <f t="shared" si="6"/>
+      <c r="V26" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W26" s="17">
-        <f t="shared" si="6"/>
+      <c r="W26" s="16">
+        <f t="shared" si="0"/>
         <v>0.98</v>
       </c>
-      <c r="X26" s="17">
-        <f t="shared" si="6"/>
+      <c r="X26" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y26" s="17">
-        <f t="shared" si="6"/>
+      <c r="Y26" s="16">
+        <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
-      <c r="Z26" s="17">
-        <f t="shared" si="6"/>
+      <c r="Z26" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB26" s="17">
-        <f t="shared" si="3"/>
+      <c r="AB26" s="16">
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD26" s="17">
+        <f>AB26-1</f>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>9</v>
       </c>
-      <c r="B27" s="17">
-        <f t="shared" ref="B27:Z27" si="7">(B12)/B$3</f>
+      <c r="B27" s="16">
+        <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="C27" s="17">
-        <f t="shared" si="7"/>
+      <c r="C27" s="16">
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="D27" s="17">
-        <f t="shared" si="7"/>
+      <c r="D27" s="16">
+        <f t="shared" si="1"/>
         <v>0.78000000000000014</v>
       </c>
-      <c r="E27" s="17">
-        <f t="shared" si="7"/>
+      <c r="E27" s="16">
+        <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="F27" s="17">
-        <f t="shared" si="7"/>
+      <c r="F27" s="16">
+        <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
-      <c r="G27" s="17">
-        <f t="shared" si="7"/>
+      <c r="G27" s="16">
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="H27" s="17">
-        <f t="shared" si="7"/>
+      <c r="H27" s="16">
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="I27" s="17">
-        <f t="shared" si="7"/>
+      <c r="I27" s="16">
+        <f t="shared" si="1"/>
         <v>0.91999999999999993</v>
       </c>
-      <c r="J27" s="17">
-        <f t="shared" si="7"/>
+      <c r="J27" s="16">
+        <f t="shared" si="1"/>
         <v>0.82000000000000006</v>
       </c>
-      <c r="K27" s="17">
-        <f t="shared" si="7"/>
+      <c r="K27" s="16">
+        <f t="shared" si="1"/>
         <v>0.81</v>
       </c>
-      <c r="L27" s="17">
-        <f t="shared" si="7"/>
+      <c r="L27" s="16">
+        <f t="shared" si="1"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="M27" s="17">
-        <f t="shared" si="7"/>
+      <c r="M27" s="16">
+        <f t="shared" si="1"/>
         <v>0.98000000000000009</v>
       </c>
-      <c r="N27" s="17">
-        <f t="shared" si="7"/>
+      <c r="N27" s="16">
+        <f t="shared" si="1"/>
         <v>1.07</v>
       </c>
-      <c r="O27" s="17">
-        <f t="shared" si="7"/>
+      <c r="O27" s="16">
+        <f t="shared" si="1"/>
         <v>1.03</v>
       </c>
-      <c r="P27" s="17">
-        <f t="shared" si="7"/>
+      <c r="P27" s="16">
+        <f t="shared" si="1"/>
         <v>1.04</v>
       </c>
-      <c r="Q27" s="17">
-        <f t="shared" si="7"/>
+      <c r="Q27" s="16">
+        <f t="shared" si="1"/>
         <v>0.71</v>
       </c>
-      <c r="R27" s="17">
-        <f t="shared" si="7"/>
+      <c r="R27" s="16">
+        <f t="shared" si="0"/>
         <v>1.0699999999999998</v>
       </c>
-      <c r="S27" s="17">
-        <f t="shared" si="7"/>
+      <c r="S27" s="16">
+        <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
-      <c r="T27" s="17">
-        <f t="shared" si="7"/>
+      <c r="T27" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U27" s="17">
-        <f t="shared" si="7"/>
+      <c r="U27" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V27" s="17">
-        <f t="shared" si="7"/>
+      <c r="V27" s="16">
+        <f t="shared" si="0"/>
         <v>1.04</v>
       </c>
-      <c r="W27" s="17">
-        <f t="shared" si="7"/>
+      <c r="W27" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X27" s="17">
-        <f t="shared" si="7"/>
+      <c r="X27" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y27" s="17">
-        <f t="shared" si="7"/>
+      <c r="Y27" s="16">
+        <f t="shared" si="0"/>
         <v>1.06</v>
       </c>
-      <c r="Z27" s="17">
-        <f t="shared" si="7"/>
+      <c r="Z27" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB27" s="17">
-        <f t="shared" si="3"/>
+      <c r="AB27" s="16">
+        <f t="shared" si="2"/>
         <v>0.97199999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD27" s="17">
+        <f>AB27-1</f>
+        <v>-2.8000000000000025E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>10</v>
       </c>
-      <c r="B28" s="17">
-        <f t="shared" ref="B28:Z28" si="8">(B13)/B$3</f>
+      <c r="B28" s="16">
+        <f t="shared" si="1"/>
         <v>1.0799999999999998</v>
       </c>
-      <c r="C28" s="17">
-        <f t="shared" si="8"/>
+      <c r="C28" s="16">
+        <f t="shared" si="1"/>
         <v>1.0900000000000001</v>
       </c>
-      <c r="D28" s="17">
-        <f t="shared" si="8"/>
+      <c r="D28" s="16">
+        <f t="shared" si="1"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="E28" s="17">
-        <f t="shared" si="8"/>
+      <c r="E28" s="16">
+        <f t="shared" si="1"/>
         <v>1.0899999999999999</v>
       </c>
-      <c r="F28" s="17">
-        <f t="shared" si="8"/>
+      <c r="F28" s="16">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G28" s="17">
-        <f t="shared" si="8"/>
+      <c r="G28" s="16">
+        <f t="shared" si="1"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="H28" s="17">
-        <f t="shared" si="8"/>
+      <c r="H28" s="16">
+        <f t="shared" si="1"/>
         <v>1.08</v>
       </c>
-      <c r="I28" s="17">
-        <f t="shared" si="8"/>
+      <c r="I28" s="16">
+        <f t="shared" si="1"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="J28" s="17">
-        <f t="shared" si="8"/>
+      <c r="J28" s="16">
+        <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
-      <c r="K28" s="17">
-        <f t="shared" si="8"/>
+      <c r="K28" s="16">
+        <f t="shared" si="1"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="L28" s="17">
-        <f t="shared" si="8"/>
+      <c r="L28" s="16">
+        <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-      <c r="M28" s="17">
-        <f t="shared" si="8"/>
+      <c r="M28" s="16">
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="N28" s="17">
-        <f t="shared" si="8"/>
+      <c r="N28" s="16">
+        <f t="shared" si="1"/>
         <v>0.74</v>
       </c>
-      <c r="O28" s="17">
-        <f t="shared" si="8"/>
+      <c r="O28" s="16">
+        <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
-      <c r="P28" s="17">
-        <f t="shared" si="8"/>
+      <c r="P28" s="16">
+        <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-      <c r="Q28" s="17">
-        <f t="shared" si="8"/>
+      <c r="Q28" s="16">
+        <f t="shared" si="1"/>
         <v>0.86</v>
       </c>
-      <c r="R28" s="17">
-        <f t="shared" si="8"/>
+      <c r="R28" s="16">
+        <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="S28" s="17">
-        <f t="shared" si="8"/>
+      <c r="S28" s="16">
+        <f t="shared" si="0"/>
         <v>1.06</v>
       </c>
-      <c r="T28" s="17">
-        <f t="shared" si="8"/>
+      <c r="T28" s="16">
+        <f t="shared" si="0"/>
         <v>0.82000000823184505</v>
       </c>
-      <c r="U28" s="17">
-        <f t="shared" si="8"/>
+      <c r="U28" s="16">
+        <f t="shared" si="0"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="V28" s="17">
-        <f t="shared" si="8"/>
+      <c r="V28" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W28" s="17">
-        <f t="shared" si="8"/>
+      <c r="W28" s="16">
+        <f t="shared" si="0"/>
         <v>0.98999999999999988</v>
       </c>
-      <c r="X28" s="17">
-        <f t="shared" si="8"/>
+      <c r="X28" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y28" s="17">
-        <f t="shared" si="8"/>
+      <c r="Y28" s="16">
+        <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="Z28" s="17">
-        <f t="shared" si="8"/>
+      <c r="Z28" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB28" s="17">
-        <f t="shared" si="3"/>
+      <c r="AB28" s="16">
+        <f t="shared" si="2"/>
         <v>0.98400000032927371</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD28" s="17">
+        <f>AB28-1</f>
+        <v>-1.5999999670726295E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>11</v>
       </c>
-      <c r="B29" s="17">
-        <f t="shared" ref="B29:Z29" si="9">(B14)/B$3</f>
+      <c r="B29" s="16">
+        <f t="shared" si="1"/>
         <v>0.74</v>
       </c>
-      <c r="C29" s="17">
-        <f t="shared" si="9"/>
+      <c r="C29" s="16">
+        <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
-      <c r="D29" s="17">
-        <f t="shared" si="9"/>
+      <c r="D29" s="16">
+        <f t="shared" si="1"/>
         <v>0.7400000000000001</v>
       </c>
-      <c r="E29" s="17">
-        <f t="shared" si="9"/>
+      <c r="E29" s="16">
+        <f t="shared" si="1"/>
         <v>1.06</v>
       </c>
-      <c r="F29" s="17">
-        <f t="shared" si="9"/>
+      <c r="F29" s="16">
+        <f t="shared" si="1"/>
         <v>1.1099999999999999</v>
       </c>
-      <c r="G29" s="17">
-        <f t="shared" si="9"/>
+      <c r="G29" s="16">
+        <f t="shared" si="1"/>
         <v>1.08</v>
       </c>
-      <c r="H29" s="17">
-        <f t="shared" si="9"/>
+      <c r="H29" s="16">
+        <f t="shared" si="1"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="I29" s="17">
-        <f t="shared" si="9"/>
+      <c r="I29" s="16">
+        <f t="shared" si="1"/>
         <v>1.0899999999999999</v>
       </c>
-      <c r="J29" s="17">
-        <f t="shared" si="9"/>
+      <c r="J29" s="16">
+        <f t="shared" si="1"/>
         <v>1.1200000000000001</v>
       </c>
-      <c r="K29" s="17">
-        <f t="shared" si="9"/>
+      <c r="K29" s="16">
+        <f t="shared" si="1"/>
         <v>1.08</v>
       </c>
-      <c r="L29" s="17">
-        <f t="shared" si="9"/>
+      <c r="L29" s="16">
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="M29" s="17">
-        <f t="shared" si="9"/>
+      <c r="M29" s="16">
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="N29" s="17">
-        <f t="shared" si="9"/>
+      <c r="N29" s="16">
+        <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="O29" s="17">
-        <f t="shared" si="9"/>
+      <c r="O29" s="16">
+        <f t="shared" si="1"/>
         <v>0.69</v>
       </c>
-      <c r="P29" s="17">
-        <f t="shared" si="9"/>
+      <c r="P29" s="16">
+        <f t="shared" si="1"/>
         <v>1.07</v>
       </c>
-      <c r="Q29" s="17">
-        <f t="shared" si="9"/>
+      <c r="Q29" s="16">
+        <f t="shared" si="1"/>
         <v>0.8899999999999999</v>
       </c>
-      <c r="R29" s="17">
-        <f t="shared" si="9"/>
+      <c r="R29" s="16">
+        <f t="shared" si="0"/>
         <v>1.0799999999999998</v>
       </c>
-      <c r="S29" s="17">
-        <f t="shared" si="9"/>
+      <c r="S29" s="16">
+        <f t="shared" si="0"/>
         <v>1.07</v>
       </c>
-      <c r="T29" s="17">
-        <f t="shared" si="9"/>
+      <c r="T29" s="16">
+        <f t="shared" si="0"/>
         <v>1.1100000041159224</v>
       </c>
-      <c r="U29" s="17">
-        <f t="shared" si="9"/>
+      <c r="U29" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V29" s="17">
-        <f t="shared" si="9"/>
+      <c r="V29" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W29" s="17">
-        <f t="shared" si="9"/>
+      <c r="W29" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X29" s="17">
-        <f t="shared" si="9"/>
+      <c r="X29" s="16">
+        <f t="shared" si="0"/>
         <v>1.0900000000000001</v>
       </c>
-      <c r="Y29" s="17">
-        <f t="shared" si="9"/>
+      <c r="Y29" s="16">
+        <f t="shared" si="0"/>
         <v>1.08</v>
       </c>
-      <c r="Z29" s="17">
-        <f t="shared" si="9"/>
+      <c r="Z29" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB29" s="17">
-        <f t="shared" si="3"/>
+      <c r="AB29" s="16">
+        <f t="shared" si="2"/>
         <v>1.0088000001646369</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD29" s="17">
+        <f>AB29-1</f>
+        <v>8.8000001646368897E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>12</v>
       </c>
-      <c r="B30" s="17">
-        <f t="shared" ref="B30:Z30" si="10">(B15)/B$3</f>
+      <c r="B30" s="16">
+        <f t="shared" si="1"/>
         <v>1.1999999999999997</v>
       </c>
-      <c r="C30" s="17">
-        <f t="shared" si="10"/>
+      <c r="C30" s="16">
+        <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
-      <c r="D30" s="17">
-        <f t="shared" si="10"/>
+      <c r="D30" s="16">
+        <f t="shared" si="1"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="E30" s="17">
-        <f t="shared" si="10"/>
+      <c r="E30" s="16">
+        <f t="shared" si="1"/>
         <v>0.84999999999999987</v>
       </c>
-      <c r="F30" s="17">
-        <f t="shared" si="10"/>
+      <c r="F30" s="16">
+        <f t="shared" si="1"/>
         <v>1.36</v>
       </c>
-      <c r="G30" s="17">
-        <f t="shared" si="10"/>
+      <c r="G30" s="16">
+        <f t="shared" si="1"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="H30" s="17">
-        <f t="shared" si="10"/>
+      <c r="H30" s="16">
+        <f t="shared" si="1"/>
         <v>1.4500000000000002</v>
       </c>
-      <c r="I30" s="17">
-        <f t="shared" si="10"/>
+      <c r="I30" s="16">
+        <f t="shared" si="1"/>
         <v>0.98999999999999988</v>
       </c>
-      <c r="J30" s="17">
-        <f t="shared" si="10"/>
+      <c r="J30" s="16">
+        <f t="shared" si="1"/>
         <v>1.3499999999999999</v>
       </c>
-      <c r="K30" s="17">
-        <f t="shared" si="10"/>
+      <c r="K30" s="16">
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="L30" s="17">
-        <f t="shared" si="10"/>
+      <c r="L30" s="16">
+        <f t="shared" si="1"/>
         <v>1.02</v>
       </c>
-      <c r="M30" s="17">
-        <f t="shared" si="10"/>
+      <c r="M30" s="16">
+        <f t="shared" si="1"/>
         <v>0.79</v>
       </c>
-      <c r="N30" s="17">
-        <f t="shared" si="10"/>
+      <c r="N30" s="16">
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="O30" s="17">
-        <f t="shared" si="10"/>
+      <c r="O30" s="16">
+        <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="P30" s="17">
-        <f t="shared" si="10"/>
+      <c r="P30" s="16">
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="Q30" s="17">
-        <f t="shared" si="10"/>
+      <c r="Q30" s="16">
+        <f t="shared" si="1"/>
         <v>1.21</v>
       </c>
-      <c r="R30" s="17">
-        <f t="shared" si="10"/>
+      <c r="R30" s="16">
+        <f t="shared" si="0"/>
         <v>0.89</v>
       </c>
-      <c r="S30" s="17">
-        <f t="shared" si="10"/>
+      <c r="S30" s="16">
+        <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="T30" s="17">
-        <f t="shared" si="10"/>
+      <c r="T30" s="16">
+        <f t="shared" si="0"/>
         <v>1.0799999917681551</v>
       </c>
-      <c r="U30" s="17">
-        <f t="shared" si="10"/>
+      <c r="U30" s="16">
+        <f t="shared" si="0"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="V30" s="17">
-        <f t="shared" si="10"/>
+      <c r="V30" s="16">
+        <f t="shared" si="0"/>
         <v>1.19</v>
       </c>
-      <c r="W30" s="17">
-        <f t="shared" si="10"/>
+      <c r="W30" s="16">
+        <f t="shared" si="0"/>
         <v>1.2499999999999998</v>
       </c>
-      <c r="X30" s="17">
-        <f t="shared" si="10"/>
+      <c r="X30" s="16">
+        <f t="shared" si="0"/>
         <v>1.26</v>
       </c>
-      <c r="Y30" s="17">
-        <f t="shared" si="10"/>
+      <c r="Y30" s="16">
+        <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="Z30" s="17">
-        <f t="shared" si="10"/>
+      <c r="Z30" s="16">
+        <f t="shared" si="0"/>
         <v>1.2899999999999998</v>
       </c>
-      <c r="AB30" s="17">
-        <f t="shared" si="3"/>
+      <c r="AB30" s="16">
+        <f t="shared" si="2"/>
         <v>1.1183999996707263</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD30" s="17">
+        <f>AB30-1</f>
+        <v>0.11839999967072634</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
-      <c r="AC31" s="16" t="s">
+      <c r="AB31" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AD31">
+      <c r="AC31">
         <f>AVERAGE(AB19:AB30)</f>
         <v>1.0234666667215457</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD31" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE31" s="17">
+        <f>SUM(AD19:AD30)</f>
+        <v>0.28160000065854884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3838,107 +6312,107 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:Y34" si="11">(B4-B$3*$AD$19)/B$3</f>
+        <f>(B4-B$3*$AF$19)/B$3</f>
         <v>9.9999999999999811E-2</v>
       </c>
       <c r="C34">
-        <f t="shared" si="11"/>
+        <f>(C4-C$3*$AF$19)/C$3</f>
         <v>0.10000000000000005</v>
       </c>
       <c r="D34">
-        <f t="shared" si="11"/>
+        <f>(D4-D$3*$AF$19)/D$3</f>
         <v>0.10000000000000007</v>
       </c>
       <c r="E34">
-        <f t="shared" si="11"/>
+        <f>(E4-E$3*$AF$19)/E$3</f>
         <v>0.10000000000000002</v>
       </c>
       <c r="F34">
-        <f t="shared" si="11"/>
+        <f>(F4-F$3*$AF$19)/F$3</f>
         <v>0.1</v>
       </c>
       <c r="G34">
-        <f t="shared" si="11"/>
+        <f>(G4-G$3*$AF$19)/G$3</f>
         <v>0.1000000000000001</v>
       </c>
       <c r="H34">
-        <f t="shared" si="11"/>
+        <f>(H4-H$3*$AF$19)/H$3</f>
         <v>0.1000000000000001</v>
       </c>
       <c r="I34">
-        <f t="shared" si="11"/>
+        <f>(I4-I$3*$AF$19)/I$3</f>
         <v>0.14999999999999997</v>
       </c>
       <c r="J34">
-        <f t="shared" si="11"/>
+        <f>(J4-J$3*$AF$19)/J$3</f>
         <v>0.10000000000000012</v>
       </c>
       <c r="K34">
-        <f t="shared" si="11"/>
+        <f>(K4-K$3*$AF$19)/K$3</f>
         <v>0.10000000000000013</v>
       </c>
       <c r="L34">
-        <f t="shared" si="11"/>
+        <f>(L4-L$3*$AF$19)/L$3</f>
         <v>0.10000000000000006</v>
       </c>
       <c r="M34">
-        <f t="shared" si="11"/>
+        <f>(M4-M$3*$AF$19)/M$3</f>
         <v>6.0000000000000081E-2</v>
       </c>
       <c r="N34">
-        <f t="shared" si="11"/>
+        <f>(N4-N$3*$AF$19)/N$3</f>
         <v>0.10000000000000003</v>
       </c>
       <c r="O34">
-        <f t="shared" si="11"/>
+        <f>(O4-O$3*$AF$19)/O$3</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="P34">
-        <f t="shared" si="11"/>
+        <f>(P4-P$3*$AF$19)/P$3</f>
         <v>0.10000000000000006</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="11"/>
+        <f>(Q4-Q$3*$AF$19)/Q$3</f>
         <v>7.9999999999999891E-2</v>
       </c>
       <c r="R34">
-        <f t="shared" si="11"/>
+        <f>(R4-R$3*$AF$19)/R$3</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S34">
-        <f t="shared" si="11"/>
+        <f>(S4-S$3*$AF$19)/S$3</f>
         <v>0.10000000000000005</v>
       </c>
       <c r="T34">
-        <f t="shared" si="11"/>
+        <f>(T4-T$3*$AF$19)/T$3</f>
         <v>0.25000002057961251</v>
       </c>
       <c r="U34">
-        <f t="shared" si="11"/>
+        <f>(U4-U$3*$AF$19)/U$3</f>
         <v>0.10000000000000005</v>
       </c>
       <c r="V34">
-        <f t="shared" si="11"/>
+        <f>(V4-V$3*$AF$19)/V$3</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="W34">
-        <f t="shared" si="11"/>
+        <f>(W4-W$3*$AF$19)/W$3</f>
         <v>4.999999999999994E-2</v>
       </c>
       <c r="X34">
-        <f t="shared" si="11"/>
+        <f>(X4-X$3*$AF$19)/X$3</f>
         <v>0.10000000000000014</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="11"/>
+        <f>(Y4-Y$3*$AF$19)/Y$3</f>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z34">
-        <f>(Z4-Z$3*$AD$19)/Z$3</f>
+        <f>(Z4-Z$3*$AF$19)/Z$3</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB34" s="7">
-        <f t="shared" ref="AB34:AB45" si="12">AVERAGE(B34:Z34)</f>
+        <f t="shared" ref="AB34:AB45" si="3">AVERAGE(B34:Z34)</f>
         <v>0.10360000082318453</v>
       </c>
       <c r="AC34">
@@ -3951,111 +6425,111 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:Z35" si="13">(B5-B$3*$AD$19)/B$3</f>
+        <f>(B5-B$3*$AF$19)/B$3</f>
         <v>0.11999999999999988</v>
       </c>
       <c r="C35">
-        <f t="shared" si="13"/>
+        <f>(C5-C$3*$AF$19)/C$3</f>
         <v>0.10000000000000005</v>
       </c>
       <c r="D35">
-        <f t="shared" si="13"/>
+        <f>(D5-D$3*$AF$19)/D$3</f>
         <v>0.16000000000000011</v>
       </c>
       <c r="E35">
-        <f t="shared" si="13"/>
+        <f>(E5-E$3*$AF$19)/E$3</f>
         <v>0.11999999999999993</v>
       </c>
       <c r="F35">
-        <f t="shared" si="13"/>
+        <f>(F5-F$3*$AF$19)/F$3</f>
         <v>0.1</v>
       </c>
       <c r="G35">
-        <f t="shared" si="13"/>
+        <f>(G5-G$3*$AF$19)/G$3</f>
         <v>0.1000000000000001</v>
       </c>
       <c r="H35">
-        <f t="shared" si="13"/>
+        <f>(H5-H$3*$AF$19)/H$3</f>
         <v>6.0000000000000026E-2</v>
       </c>
       <c r="I35">
-        <f t="shared" si="13"/>
+        <f>(I5-I$3*$AF$19)/I$3</f>
         <v>-2.0000000000000153E-2</v>
       </c>
       <c r="J35">
-        <f t="shared" si="13"/>
+        <f>(J5-J$3*$AF$19)/J$3</f>
         <v>0.10000000000000012</v>
       </c>
       <c r="K35">
-        <f t="shared" si="13"/>
+        <f>(K5-K$3*$AF$19)/K$3</f>
         <v>-4.9999999999999906E-2</v>
       </c>
       <c r="L35">
-        <f t="shared" si="13"/>
+        <f>(L5-L$3*$AF$19)/L$3</f>
         <v>0.10000000000000006</v>
       </c>
       <c r="M35">
-        <f t="shared" si="13"/>
+        <f>(M5-M$3*$AF$19)/M$3</f>
         <v>-6.9999999999999937E-2</v>
       </c>
       <c r="N35">
-        <f t="shared" si="13"/>
+        <f>(N5-N$3*$AF$19)/N$3</f>
         <v>0.10000000000000003</v>
       </c>
       <c r="O35">
-        <f t="shared" si="13"/>
+        <f>(O5-O$3*$AF$19)/O$3</f>
         <v>-8.0000000000000029E-2</v>
       </c>
       <c r="P35">
-        <f t="shared" si="13"/>
+        <f>(P5-P$3*$AF$19)/P$3</f>
         <v>0.10000000000000006</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="13"/>
+        <f>(Q5-Q$3*$AF$19)/Q$3</f>
         <v>9.9999999999999853E-2</v>
       </c>
       <c r="R35">
-        <f t="shared" si="13"/>
+        <f>(R5-R$3*$AF$19)/R$3</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="S35">
-        <f t="shared" si="13"/>
+        <f>(S5-S$3*$AF$19)/S$3</f>
         <v>0.10000000000000005</v>
       </c>
       <c r="T35">
-        <f t="shared" si="13"/>
+        <f>(T5-T$3*$AF$19)/T$3</f>
         <v>0.3</v>
       </c>
       <c r="U35">
-        <f t="shared" si="13"/>
+        <f>(U5-U$3*$AF$19)/U$3</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="V35">
-        <f t="shared" si="13"/>
+        <f>(V5-V$3*$AF$19)/V$3</f>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="W35">
-        <f t="shared" si="13"/>
+        <f>(W5-W$3*$AF$19)/W$3</f>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="X35">
-        <f t="shared" si="13"/>
+        <f>(X5-X$3*$AF$19)/X$3</f>
         <v>0.45000000000000012</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="13"/>
+        <f>(Y5-Y$3*$AF$19)/Y$3</f>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="13"/>
+        <f>(Z5-Z$3*$AF$19)/Z$3</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB35" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0.11160000000000002</v>
       </c>
       <c r="AC35">
-        <f t="shared" ref="AC35:AC44" si="14">1+AB35</f>
+        <f t="shared" ref="AC35:AC44" si="4">1+AB35</f>
         <v>1.1115999999999999</v>
       </c>
     </row>
@@ -4064,111 +6538,111 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:Z36" si="15">(B6-B$3*$AD$19)/B$3</f>
+        <f>(B6-B$3*$AF$19)/B$3</f>
         <v>0.11999999999999988</v>
       </c>
       <c r="C36">
-        <f t="shared" si="15"/>
+        <f>(C6-C$3*$AF$19)/C$3</f>
         <v>0.10000000000000005</v>
       </c>
       <c r="D36">
-        <f t="shared" si="15"/>
+        <f>(D6-D$3*$AF$19)/D$3</f>
         <v>0.10000000000000007</v>
       </c>
       <c r="E36">
-        <f t="shared" si="15"/>
+        <f>(E6-E$3*$AF$19)/E$3</f>
         <v>0.11999999999999993</v>
       </c>
       <c r="F36">
-        <f t="shared" si="15"/>
+        <f>(F6-F$3*$AF$19)/F$3</f>
         <v>0.1</v>
       </c>
       <c r="G36">
-        <f t="shared" si="15"/>
+        <f>(G6-G$3*$AF$19)/G$3</f>
         <v>0.1000000000000001</v>
       </c>
       <c r="H36">
-        <f t="shared" si="15"/>
+        <f>(H6-H$3*$AF$19)/H$3</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="I36">
-        <f t="shared" si="15"/>
+        <f>(I6-I$3*$AF$19)/I$3</f>
         <v>9.9999999999999908E-2</v>
       </c>
       <c r="J36">
-        <f t="shared" si="15"/>
+        <f>(J6-J$3*$AF$19)/J$3</f>
         <v>0.10000000000000012</v>
       </c>
       <c r="K36">
-        <f t="shared" si="15"/>
+        <f>(K6-K$3*$AF$19)/K$3</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="L36">
-        <f t="shared" si="15"/>
+        <f>(L6-L$3*$AF$19)/L$3</f>
         <v>0.10000000000000006</v>
       </c>
       <c r="M36">
-        <f t="shared" si="15"/>
+        <f>(M6-M$3*$AF$19)/M$3</f>
         <v>0.10000000000000007</v>
       </c>
       <c r="N36">
-        <f t="shared" si="15"/>
+        <f>(N6-N$3*$AF$19)/N$3</f>
         <v>5.0000000000000017E-2</v>
       </c>
       <c r="O36">
-        <f t="shared" si="15"/>
+        <f>(O6-O$3*$AF$19)/O$3</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="15"/>
+        <f>(P6-P$3*$AF$19)/P$3</f>
         <v>0.10000000000000006</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="15"/>
+        <f>(Q6-Q$3*$AF$19)/Q$3</f>
         <v>2.9999999999999957E-2</v>
       </c>
       <c r="R36">
-        <f t="shared" si="15"/>
+        <f>(R6-R$3*$AF$19)/R$3</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S36">
-        <f t="shared" si="15"/>
+        <f>(S6-S$3*$AF$19)/S$3</f>
         <v>1.0000000000000031E-2</v>
       </c>
       <c r="T36">
-        <f t="shared" si="15"/>
+        <f>(T6-T$3*$AF$19)/T$3</f>
         <v>0.1</v>
       </c>
       <c r="U36">
-        <f t="shared" si="15"/>
+        <f>(U6-U$3*$AF$19)/U$3</f>
         <v>2.0000000000000049E-2</v>
       </c>
       <c r="V36">
-        <f t="shared" si="15"/>
+        <f>(V6-V$3*$AF$19)/V$3</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="W36">
-        <f t="shared" si="15"/>
+        <f>(W6-W$3*$AF$19)/W$3</f>
         <v>0.10000000000000002</v>
       </c>
       <c r="X36">
-        <f t="shared" si="15"/>
+        <f>(X6-X$3*$AF$19)/X$3</f>
         <v>0.10000000000000014</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="15"/>
+        <f>(Y6-Y$3*$AF$19)/Y$3</f>
         <v>0.20999999999999996</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="15"/>
+        <f>(Z6-Z$3*$AF$19)/Z$3</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB36" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0.10640000000000001</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1.1064000000000001</v>
       </c>
     </row>
@@ -4177,111 +6651,111 @@
         <v>4</v>
       </c>
       <c r="B37">
-        <f t="shared" ref="B37:Z37" si="16">(B7-B$3*$AD$19)/B$3</f>
+        <f>(B7-B$3*$AF$19)/B$3</f>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="C37">
-        <f t="shared" si="16"/>
+        <f>(C7-C$3*$AF$19)/C$3</f>
         <v>0.10000000000000005</v>
       </c>
       <c r="D37">
-        <f t="shared" si="16"/>
+        <f>(D7-D$3*$AF$19)/D$3</f>
         <v>0.10000000000000007</v>
       </c>
       <c r="E37">
-        <f t="shared" si="16"/>
+        <f>(E7-E$3*$AF$19)/E$3</f>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F37">
-        <f t="shared" si="16"/>
+        <f>(F7-F$3*$AF$19)/F$3</f>
         <v>0.1</v>
       </c>
       <c r="G37">
-        <f t="shared" si="16"/>
+        <f>(G7-G$3*$AF$19)/G$3</f>
         <v>3.0000000000000082E-2</v>
       </c>
       <c r="H37">
-        <f t="shared" si="16"/>
+        <f>(H7-H$3*$AF$19)/H$3</f>
         <v>0.1000000000000001</v>
       </c>
       <c r="I37">
-        <f t="shared" si="16"/>
+        <f>(I7-I$3*$AF$19)/I$3</f>
         <v>0.14999999999999997</v>
       </c>
       <c r="J37">
-        <f t="shared" si="16"/>
+        <f>(J7-J$3*$AF$19)/J$3</f>
         <v>0.10000000000000012</v>
       </c>
       <c r="K37">
-        <f t="shared" si="16"/>
+        <f>(K7-K$3*$AF$19)/K$3</f>
         <v>0.21000000000000013</v>
       </c>
       <c r="L37">
-        <f t="shared" si="16"/>
+        <f>(L7-L$3*$AF$19)/L$3</f>
         <v>0.10000000000000006</v>
       </c>
       <c r="M37">
-        <f t="shared" si="16"/>
+        <f>(M7-M$3*$AF$19)/M$3</f>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="N37">
-        <f t="shared" si="16"/>
+        <f>(N7-N$3*$AF$19)/N$3</f>
         <v>0.10000000000000003</v>
       </c>
       <c r="O37">
-        <f t="shared" si="16"/>
+        <f>(O7-O$3*$AF$19)/O$3</f>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="P37">
-        <f t="shared" si="16"/>
+        <f>(P7-P$3*$AF$19)/P$3</f>
         <v>0.10000000000000006</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="16"/>
+        <f>(Q7-Q$3*$AF$19)/Q$3</f>
         <v>7.9999999999999891E-2</v>
       </c>
       <c r="R37">
-        <f t="shared" si="16"/>
+        <f>(R7-R$3*$AF$19)/R$3</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S37">
-        <f t="shared" si="16"/>
+        <f>(S7-S$3*$AF$19)/S$3</f>
         <v>0.10000000000000005</v>
       </c>
       <c r="T37">
-        <f t="shared" si="16"/>
+        <f>(T7-T$3*$AF$19)/T$3</f>
         <v>8.999999588407756E-2</v>
       </c>
       <c r="U37">
-        <f t="shared" si="16"/>
+        <f>(U7-U$3*$AF$19)/U$3</f>
         <v>0.10000000000000005</v>
       </c>
       <c r="V37">
-        <f t="shared" si="16"/>
+        <f>(V7-V$3*$AF$19)/V$3</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="W37">
-        <f t="shared" si="16"/>
+        <f>(W7-W$3*$AF$19)/W$3</f>
         <v>0.14999999999999997</v>
       </c>
       <c r="X37">
-        <f t="shared" si="16"/>
+        <f>(X7-X$3*$AF$19)/X$3</f>
         <v>0.10000000000000014</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="16"/>
+        <f>(Y7-Y$3*$AF$19)/Y$3</f>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="16"/>
+        <f>(Z7-Z$3*$AF$19)/Z$3</f>
         <v>0.12000000000000001</v>
       </c>
       <c r="AB37" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>9.9599999835363148E-2</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1.0995999998353632</v>
       </c>
     </row>
@@ -4290,111 +6764,111 @@
         <v>5</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:Z38" si="17">(B8-B$3*$AD$19)/B$3</f>
+        <f>(B8-B$3*$AF$19)/B$3</f>
         <v>-1.0000000000000037E-2</v>
       </c>
       <c r="C38">
-        <f t="shared" si="17"/>
+        <f>(C8-C$3*$AF$19)/C$3</f>
         <v>-0.10999999999999996</v>
       </c>
       <c r="D38">
-        <f t="shared" si="17"/>
+        <f>(D8-D$3*$AF$19)/D$3</f>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="E38">
-        <f t="shared" si="17"/>
+        <f>(E8-E$3*$AF$19)/E$3</f>
         <v>-8.0000000000000113E-2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="17"/>
+        <f>(F8-F$3*$AF$19)/F$3</f>
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="17"/>
+        <f>(G8-G$3*$AF$19)/G$3</f>
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="17"/>
+        <f>(H8-H$3*$AF$19)/H$3</f>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="17"/>
+        <f>(I8-I$3*$AF$19)/I$3</f>
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="17"/>
+        <f>(J8-J$3*$AF$19)/J$3</f>
         <v>-9.9999999999999985E-3</v>
       </c>
       <c r="K38">
-        <f t="shared" si="17"/>
+        <f>(K8-K$3*$AF$19)/K$3</f>
         <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" si="17"/>
+        <f>(L8-L$3*$AF$19)/L$3</f>
         <v>-0.18999999999999995</v>
       </c>
       <c r="M38">
-        <f t="shared" si="17"/>
+        <f>(M8-M$3*$AF$19)/M$3</f>
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="17"/>
+        <f>(N8-N$3*$AF$19)/N$3</f>
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="17"/>
+        <f>(O8-O$3*$AF$19)/O$3</f>
         <v>-0.23000000000000007</v>
       </c>
       <c r="P38">
-        <f t="shared" si="17"/>
+        <f>(P8-P$3*$AF$19)/P$3</f>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="17"/>
+        <f>(Q8-Q$3*$AF$19)/Q$3</f>
         <v>-0.09</v>
       </c>
       <c r="R38">
-        <f t="shared" si="17"/>
+        <f>(R8-R$3*$AF$19)/R$3</f>
         <v>-1.0000000000000038E-2</v>
       </c>
       <c r="S38">
-        <f t="shared" si="17"/>
+        <f>(S8-S$3*$AF$19)/S$3</f>
         <v>0</v>
       </c>
       <c r="T38">
-        <f t="shared" si="17"/>
+        <f>(T8-T$3*$AF$19)/T$3</f>
         <v>0</v>
       </c>
       <c r="U38">
-        <f t="shared" si="17"/>
+        <f>(U8-U$3*$AF$19)/U$3</f>
         <v>0</v>
       </c>
       <c r="V38">
-        <f t="shared" si="17"/>
+        <f>(V8-V$3*$AF$19)/V$3</f>
         <v>0</v>
       </c>
       <c r="W38">
-        <f t="shared" si="17"/>
+        <f>(W8-W$3*$AF$19)/W$3</f>
         <v>0</v>
       </c>
       <c r="X38">
-        <f t="shared" si="17"/>
+        <f>(X8-X$3*$AF$19)/X$3</f>
         <v>0</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="17"/>
+        <f>(Y8-Y$3*$AF$19)/Y$3</f>
         <v>0</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="17"/>
+        <f>(Z8-Z$3*$AF$19)/Z$3</f>
         <v>-0.30000000000000004</v>
       </c>
       <c r="AB38" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>-3.9200000000000006E-2</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0.96079999999999999</v>
       </c>
     </row>
@@ -4403,111 +6877,111 @@
         <v>6</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39:Z39" si="18">(B9-B$3*$AD$19)/B$3</f>
+        <f>(B9-B$3*$AF$19)/B$3</f>
         <v>-0.22000000000000008</v>
       </c>
       <c r="C39">
-        <f t="shared" si="18"/>
+        <f>(C9-C$3*$AF$19)/C$3</f>
         <v>-1.0000000000000028E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="18"/>
+        <f>(D9-D$3*$AF$19)/D$3</f>
         <v>-0.10999999999999989</v>
       </c>
       <c r="E39">
-        <f t="shared" si="18"/>
+        <f>(E9-E$3*$AF$19)/E$3</f>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="18"/>
+        <f>(F9-F$3*$AF$19)/F$3</f>
         <v>-8.0000000000000029E-2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="18"/>
+        <f>(G9-G$3*$AF$19)/G$3</f>
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="18"/>
+        <f>(H9-H$3*$AF$19)/H$3</f>
         <v>0</v>
       </c>
       <c r="I39">
-        <f t="shared" si="18"/>
+        <f>(I9-I$3*$AF$19)/I$3</f>
         <v>-0.25000000000000006</v>
       </c>
       <c r="J39">
-        <f t="shared" si="18"/>
+        <f>(J9-J$3*$AF$19)/J$3</f>
         <v>-4.9999999999999996E-2</v>
       </c>
       <c r="K39">
-        <f t="shared" si="18"/>
+        <f>(K9-K$3*$AF$19)/K$3</f>
         <v>-9.9999999999998875E-3</v>
       </c>
       <c r="L39">
-        <f t="shared" si="18"/>
+        <f>(L9-L$3*$AF$19)/L$3</f>
         <v>-0.10999999999999999</v>
       </c>
       <c r="M39">
-        <f t="shared" si="18"/>
+        <f>(M9-M$3*$AF$19)/M$3</f>
         <v>-7.9999999999999988E-2</v>
       </c>
       <c r="N39">
-        <f t="shared" si="18"/>
+        <f>(N9-N$3*$AF$19)/N$3</f>
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="18"/>
+        <f>(O9-O$3*$AF$19)/O$3</f>
         <v>-0.25</v>
       </c>
       <c r="P39">
-        <f t="shared" si="18"/>
+        <f>(P9-P$3*$AF$19)/P$3</f>
         <v>-0.21999999999999997</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="18"/>
+        <f>(Q9-Q$3*$AF$19)/Q$3</f>
         <v>-0.15000000000000002</v>
       </c>
       <c r="R39">
-        <f t="shared" si="18"/>
+        <f>(R9-R$3*$AF$19)/R$3</f>
         <v>0</v>
       </c>
       <c r="S39">
-        <f t="shared" si="18"/>
+        <f>(S9-S$3*$AF$19)/S$3</f>
         <v>-1.0000000000000031E-2</v>
       </c>
       <c r="T39">
-        <f t="shared" si="18"/>
+        <f>(T9-T$3*$AF$19)/T$3</f>
         <v>0</v>
       </c>
       <c r="U39">
-        <f t="shared" si="18"/>
+        <f>(U9-U$3*$AF$19)/U$3</f>
         <v>0</v>
       </c>
       <c r="V39">
-        <f t="shared" si="18"/>
+        <f>(V9-V$3*$AF$19)/V$3</f>
         <v>0</v>
       </c>
       <c r="W39">
-        <f t="shared" si="18"/>
+        <f>(W9-W$3*$AF$19)/W$3</f>
         <v>0</v>
       </c>
       <c r="X39">
-        <f t="shared" si="18"/>
+        <f>(X9-X$3*$AF$19)/X$3</f>
         <v>0</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="18"/>
+        <f>(Y9-Y$3*$AF$19)/Y$3</f>
         <v>-0.24999999999999997</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="18"/>
+        <f>(Z9-Z$3*$AF$19)/Z$3</f>
         <v>0</v>
       </c>
       <c r="AB39" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0.92999999999999994</v>
       </c>
     </row>
@@ -4516,111 +6990,111 @@
         <v>7</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:Z40" si="19">(B10-B$3*$AD$19)/B$3</f>
+        <f>(B10-B$3*$AF$19)/B$3</f>
         <v>-0.35000000000000009</v>
       </c>
       <c r="C40">
-        <f t="shared" si="19"/>
+        <f>(C10-C$3*$AF$19)/C$3</f>
         <v>-0.35000000000000003</v>
       </c>
       <c r="D40">
-        <f t="shared" si="19"/>
+        <f>(D10-D$3*$AF$19)/D$3</f>
         <v>-9.9999999999998215E-3</v>
       </c>
       <c r="E40">
-        <f t="shared" si="19"/>
+        <f>(E10-E$3*$AF$19)/E$3</f>
         <v>-0.10999999999999997</v>
       </c>
       <c r="F40">
-        <f t="shared" si="19"/>
+        <f>(F10-F$3*$AF$19)/F$3</f>
         <v>0.05</v>
       </c>
       <c r="G40">
-        <f t="shared" si="19"/>
+        <f>(G10-G$3*$AF$19)/G$3</f>
         <v>-7.9999999999999877E-2</v>
       </c>
       <c r="H40">
-        <f t="shared" si="19"/>
+        <f>(H10-H$3*$AF$19)/H$3</f>
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" si="19"/>
+        <f>(I10-I$3*$AF$19)/I$3</f>
         <v>4.9999999999999871E-2</v>
       </c>
       <c r="J40">
-        <f t="shared" si="19"/>
+        <f>(J10-J$3*$AF$19)/J$3</f>
         <v>-0.3</v>
       </c>
       <c r="K40">
-        <f t="shared" si="19"/>
+        <f>(K10-K$3*$AF$19)/K$3</f>
         <v>-0.35</v>
       </c>
       <c r="L40">
-        <f t="shared" si="19"/>
+        <f>(L10-L$3*$AF$19)/L$3</f>
         <v>5.00000000000001E-2</v>
       </c>
       <c r="M40">
-        <f t="shared" si="19"/>
+        <f>(M10-M$3*$AF$19)/M$3</f>
         <v>-0.10999999999999993</v>
       </c>
       <c r="N40">
-        <f t="shared" si="19"/>
+        <f>(N10-N$3*$AF$19)/N$3</f>
         <v>7.0000000000000132E-2</v>
       </c>
       <c r="O40">
-        <f t="shared" si="19"/>
+        <f>(O10-O$3*$AF$19)/O$3</f>
         <v>-5.0000000000000058E-2</v>
       </c>
       <c r="P40">
-        <f t="shared" si="19"/>
+        <f>(P10-P$3*$AF$19)/P$3</f>
         <v>-0.24999999999999994</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="19"/>
+        <f>(Q10-Q$3*$AF$19)/Q$3</f>
         <v>0.10999999999999996</v>
       </c>
       <c r="R40">
-        <f t="shared" si="19"/>
+        <f>(R10-R$3*$AF$19)/R$3</f>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="shared" si="19"/>
+        <f>(S10-S$3*$AF$19)/S$3</f>
         <v>0</v>
       </c>
       <c r="T40">
-        <f t="shared" si="19"/>
+        <f>(T10-T$3*$AF$19)/T$3</f>
         <v>-1.0000004115922443E-2</v>
       </c>
       <c r="U40">
-        <f t="shared" si="19"/>
+        <f>(U10-U$3*$AF$19)/U$3</f>
         <v>0</v>
       </c>
       <c r="V40">
-        <f t="shared" si="19"/>
+        <f>(V10-V$3*$AF$19)/V$3</f>
         <v>0</v>
       </c>
       <c r="W40">
-        <f t="shared" si="19"/>
+        <f>(W10-W$3*$AF$19)/W$3</f>
         <v>0</v>
       </c>
       <c r="X40">
-        <f t="shared" si="19"/>
+        <f>(X10-X$3*$AF$19)/X$3</f>
         <v>-0.19999999999999998</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="19"/>
+        <f>(Y10-Y$3*$AF$19)/Y$3</f>
         <v>0</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="19"/>
+        <f>(Z10-Z$3*$AF$19)/Z$3</f>
         <v>0</v>
       </c>
       <c r="AB40" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>-7.3600000164636886E-2</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0.92639999983536314</v>
       </c>
     </row>
@@ -4629,111 +7103,111 @@
         <v>8</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:Z41" si="20">(B11-B$3*$AD$19)/B$3</f>
+        <f>(B11-B$3*$AF$19)/B$3</f>
         <v>-0.15</v>
       </c>
       <c r="C41">
-        <f t="shared" si="20"/>
+        <f>(C11-C$3*$AF$19)/C$3</f>
         <v>-2.0000000000000056E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="20"/>
+        <f>(D11-D$3*$AF$19)/D$3</f>
         <v>-4.999999999999985E-2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="20"/>
+        <f>(E11-E$3*$AF$19)/E$3</f>
         <v>-9.9999999999999516E-3</v>
       </c>
       <c r="F41">
-        <f t="shared" si="20"/>
+        <f>(F11-F$3*$AF$19)/F$3</f>
         <v>-0.11000000000000006</v>
       </c>
       <c r="G41">
-        <f t="shared" si="20"/>
+        <f>(G11-G$3*$AF$19)/G$3</f>
         <v>5.0000000000000135E-2</v>
       </c>
       <c r="H41">
-        <f t="shared" si="20"/>
+        <f>(H11-H$3*$AF$19)/H$3</f>
         <v>0</v>
       </c>
       <c r="I41">
-        <f t="shared" si="20"/>
+        <f>(I11-I$3*$AF$19)/I$3</f>
         <v>-2.0000000000000153E-2</v>
       </c>
       <c r="J41">
-        <f t="shared" si="20"/>
+        <f>(J11-J$3*$AF$19)/J$3</f>
         <v>-4.9999999999999996E-2</v>
       </c>
       <c r="K41">
-        <f t="shared" si="20"/>
+        <f>(K11-K$3*$AF$19)/K$3</f>
         <v>-0.25</v>
       </c>
       <c r="L41">
-        <f t="shared" si="20"/>
+        <f>(L11-L$3*$AF$19)/L$3</f>
         <v>5.00000000000001E-2</v>
       </c>
       <c r="M41">
-        <f t="shared" si="20"/>
+        <f>(M11-M$3*$AF$19)/M$3</f>
         <v>-1.0000000000000044E-2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="20"/>
+        <f>(N11-N$3*$AF$19)/N$3</f>
         <v>-0.11</v>
       </c>
       <c r="O41">
-        <f t="shared" si="20"/>
+        <f>(O11-O$3*$AF$19)/O$3</f>
         <v>-2.0000000000000077E-2</v>
       </c>
       <c r="P41">
-        <f t="shared" si="20"/>
+        <f>(P11-P$3*$AF$19)/P$3</f>
         <v>-3.0000000000000082E-2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="20"/>
+        <f>(Q11-Q$3*$AF$19)/Q$3</f>
         <v>-0.25</v>
       </c>
       <c r="R41">
-        <f t="shared" si="20"/>
+        <f>(R11-R$3*$AF$19)/R$3</f>
         <v>-2.0000000000000077E-2</v>
       </c>
       <c r="S41">
-        <f t="shared" si="20"/>
+        <f>(S11-S$3*$AF$19)/S$3</f>
         <v>0</v>
       </c>
       <c r="T41">
-        <f t="shared" si="20"/>
+        <f>(T11-T$3*$AF$19)/T$3</f>
         <v>0</v>
       </c>
       <c r="U41">
-        <f t="shared" si="20"/>
+        <f>(U11-U$3*$AF$19)/U$3</f>
         <v>-1.0000000000000024E-2</v>
       </c>
       <c r="V41">
-        <f t="shared" si="20"/>
+        <f>(V11-V$3*$AF$19)/V$3</f>
         <v>0</v>
       </c>
       <c r="W41">
-        <f t="shared" si="20"/>
+        <f>(W11-W$3*$AF$19)/W$3</f>
         <v>-2.0000000000000004E-2</v>
       </c>
       <c r="X41">
-        <f t="shared" si="20"/>
+        <f>(X11-X$3*$AF$19)/X$3</f>
         <v>0</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="20"/>
+        <f>(Y11-Y$3*$AF$19)/Y$3</f>
         <v>2.9999999999999971E-2</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="20"/>
+        <f>(Z11-Z$3*$AF$19)/Z$3</f>
         <v>0</v>
       </c>
       <c r="AB41" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>-0.04</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0.96</v>
       </c>
     </row>
@@ -4742,111 +7216,111 @@
         <v>9</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42:Z42" si="21">(B12-B$3*$AD$19)/B$3</f>
+        <f>(B12-B$3*$AF$19)/B$3</f>
         <v>4.9999999999999815E-2</v>
       </c>
       <c r="C42">
-        <f t="shared" si="21"/>
+        <f>(C12-C$3*$AF$19)/C$3</f>
         <v>5.0000000000000024E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="21"/>
+        <f>(D12-D$3*$AF$19)/D$3</f>
         <v>-0.21999999999999989</v>
       </c>
       <c r="E42">
-        <f t="shared" si="21"/>
+        <f>(E12-E$3*$AF$19)/E$3</f>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F42">
-        <f t="shared" si="21"/>
+        <f>(F12-F$3*$AF$19)/F$3</f>
         <v>-1.0000000000000054E-2</v>
       </c>
       <c r="G42">
-        <f t="shared" si="21"/>
+        <f>(G12-G$3*$AF$19)/G$3</f>
         <v>5.0000000000000135E-2</v>
       </c>
       <c r="H42">
-        <f t="shared" si="21"/>
+        <f>(H12-H$3*$AF$19)/H$3</f>
         <v>5.0000000000000051E-2</v>
       </c>
       <c r="I42">
-        <f t="shared" si="21"/>
+        <f>(I12-I$3*$AF$19)/I$3</f>
         <v>-8.0000000000000099E-2</v>
       </c>
       <c r="J42">
-        <f t="shared" si="21"/>
+        <f>(J12-J$3*$AF$19)/J$3</f>
         <v>-0.17999999999999997</v>
       </c>
       <c r="K42">
-        <f t="shared" si="21"/>
+        <f>(K12-K$3*$AF$19)/K$3</f>
         <v>-0.18999999999999989</v>
       </c>
       <c r="L42">
-        <f t="shared" si="21"/>
+        <f>(L12-L$3*$AF$19)/L$3</f>
         <v>-0.29999999999999993</v>
       </c>
       <c r="M42">
-        <f t="shared" si="21"/>
+        <f>(M12-M$3*$AF$19)/M$3</f>
         <v>-1.9999999999999903E-2</v>
       </c>
       <c r="N42">
-        <f t="shared" si="21"/>
+        <f>(N12-N$3*$AF$19)/N$3</f>
         <v>7.0000000000000132E-2</v>
       </c>
       <c r="O42">
-        <f t="shared" si="21"/>
+        <f>(O12-O$3*$AF$19)/O$3</f>
         <v>2.9999999999999978E-2</v>
       </c>
       <c r="P42">
-        <f t="shared" si="21"/>
+        <f>(P12-P$3*$AF$19)/P$3</f>
         <v>4.0000000000000112E-2</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="21"/>
+        <f>(Q12-Q$3*$AF$19)/Q$3</f>
         <v>-0.29000000000000004</v>
       </c>
       <c r="R42">
-        <f t="shared" si="21"/>
+        <f>(R12-R$3*$AF$19)/R$3</f>
         <v>6.9999999999999868E-2</v>
       </c>
       <c r="S42">
-        <f t="shared" si="21"/>
+        <f>(S12-S$3*$AF$19)/S$3</f>
         <v>2.9999999999999961E-2</v>
       </c>
       <c r="T42">
-        <f t="shared" si="21"/>
+        <f>(T12-T$3*$AF$19)/T$3</f>
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="shared" si="21"/>
+        <f>(U12-U$3*$AF$19)/U$3</f>
         <v>0</v>
       </c>
       <c r="V42">
-        <f t="shared" si="21"/>
+        <f>(V12-V$3*$AF$19)/V$3</f>
         <v>3.9999999999999994E-2</v>
       </c>
       <c r="W42">
-        <f t="shared" si="21"/>
+        <f>(W12-W$3*$AF$19)/W$3</f>
         <v>0</v>
       </c>
       <c r="X42">
-        <f t="shared" si="21"/>
+        <f>(X12-X$3*$AF$19)/X$3</f>
         <v>0</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="21"/>
+        <f>(Y12-Y$3*$AF$19)/Y$3</f>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="21"/>
+        <f>(Z12-Z$3*$AF$19)/Z$3</f>
         <v>0</v>
       </c>
       <c r="AB42" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>-2.799999999999999E-2</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0.97199999999999998</v>
       </c>
     </row>
@@ -4855,111 +7329,111 @@
         <v>10</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43:Z43" si="22">(B13-B$3*$AD$19)/B$3</f>
+        <f>(B13-B$3*$AF$19)/B$3</f>
         <v>7.9999999999999918E-2</v>
       </c>
       <c r="C43">
-        <f t="shared" si="22"/>
+        <f>(C13-C$3*$AF$19)/C$3</f>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="22"/>
+        <f>(D13-D$3*$AF$19)/D$3</f>
         <v>0.15000000000000011</v>
       </c>
       <c r="E43">
-        <f t="shared" si="22"/>
+        <f>(E13-E$3*$AF$19)/E$3</f>
         <v>8.99999999999999E-2</v>
       </c>
       <c r="F43">
-        <f t="shared" si="22"/>
+        <f>(F13-F$3*$AF$19)/F$3</f>
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="22"/>
+        <f>(G13-G$3*$AF$19)/G$3</f>
         <v>0.15000000000000008</v>
       </c>
       <c r="H43">
-        <f t="shared" si="22"/>
+        <f>(H13-H$3*$AF$19)/H$3</f>
         <v>7.9999999999999974E-2</v>
       </c>
       <c r="I43">
-        <f t="shared" si="22"/>
+        <f>(I13-I$3*$AF$19)/I$3</f>
         <v>4.9999999999999871E-2</v>
       </c>
       <c r="J43">
-        <f t="shared" si="22"/>
+        <f>(J13-J$3*$AF$19)/J$3</f>
         <v>-7.9999999999999988E-2</v>
       </c>
       <c r="K43">
-        <f t="shared" si="22"/>
+        <f>(K13-K$3*$AF$19)/K$3</f>
         <v>-0.14999999999999988</v>
       </c>
       <c r="L43">
-        <f t="shared" si="22"/>
+        <f>(L13-L$3*$AF$19)/L$3</f>
         <v>-0.10999999999999999</v>
       </c>
       <c r="M43">
-        <f t="shared" si="22"/>
+        <f>(M13-M$3*$AF$19)/M$3</f>
         <v>-0.25</v>
       </c>
       <c r="N43">
-        <f t="shared" si="22"/>
+        <f>(N13-N$3*$AF$19)/N$3</f>
         <v>-0.25999999999999995</v>
       </c>
       <c r="O43">
-        <f t="shared" si="22"/>
+        <f>(O13-O$3*$AF$19)/O$3</f>
         <v>-1.0000000000000038E-2</v>
       </c>
       <c r="P43">
-        <f t="shared" si="22"/>
+        <f>(P13-P$3*$AF$19)/P$3</f>
         <v>-0.10999999999999999</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="22"/>
+        <f>(Q13-Q$3*$AF$19)/Q$3</f>
         <v>-0.14000000000000004</v>
       </c>
       <c r="R43">
-        <f t="shared" si="22"/>
+        <f>(R13-R$3*$AF$19)/R$3</f>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="S43">
-        <f t="shared" si="22"/>
+        <f>(S13-S$3*$AF$19)/S$3</f>
         <v>6.000000000000006E-2</v>
       </c>
       <c r="T43">
-        <f t="shared" si="22"/>
+        <f>(T13-T$3*$AF$19)/T$3</f>
         <v>-0.17999999176815495</v>
       </c>
       <c r="U43">
-        <f t="shared" si="22"/>
+        <f>(U13-U$3*$AF$19)/U$3</f>
         <v>-4.999999999999992E-2</v>
       </c>
       <c r="V43">
-        <f t="shared" si="22"/>
+        <f>(V13-V$3*$AF$19)/V$3</f>
         <v>0</v>
       </c>
       <c r="W43">
-        <f t="shared" si="22"/>
+        <f>(W13-W$3*$AF$19)/W$3</f>
         <v>-1.0000000000000064E-2</v>
       </c>
       <c r="X43">
-        <f t="shared" si="22"/>
+        <f>(X13-X$3*$AF$19)/X$3</f>
         <v>0</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="22"/>
+        <f>(Y13-Y$3*$AF$19)/Y$3</f>
         <v>0.15</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="22"/>
+        <f>(Z13-Z$3*$AF$19)/Z$3</f>
         <v>0</v>
       </c>
       <c r="AB43" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>-1.5999999670726194E-2</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>0.98400000032927382</v>
       </c>
     </row>
@@ -4968,111 +7442,111 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <f t="shared" ref="B44:Z44" si="23">(B14-B$3*$AD$19)/B$3</f>
+        <f>(B14-B$3*$AF$19)/B$3</f>
         <v>-0.26000000000000006</v>
       </c>
       <c r="C44">
-        <f t="shared" si="23"/>
+        <f>(C14-C$3*$AF$19)/C$3</f>
         <v>-7.9999999999999988E-2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="23"/>
+        <f>(D14-D$3*$AF$19)/D$3</f>
         <v>-0.2599999999999999</v>
       </c>
       <c r="E44">
-        <f t="shared" si="23"/>
+        <f>(E14-E$3*$AF$19)/E$3</f>
         <v>6.0000000000000046E-2</v>
       </c>
       <c r="F44">
-        <f t="shared" si="23"/>
+        <f>(F14-F$3*$AF$19)/F$3</f>
         <v>0.10999999999999992</v>
       </c>
       <c r="G44">
-        <f t="shared" si="23"/>
+        <f>(G14-G$3*$AF$19)/G$3</f>
         <v>8.0000000000000043E-2</v>
       </c>
       <c r="H44">
-        <f t="shared" si="23"/>
+        <f>(H14-H$3*$AF$19)/H$3</f>
         <v>0.15</v>
       </c>
       <c r="I44">
-        <f t="shared" si="23"/>
+        <f>(I14-I$3*$AF$19)/I$3</f>
         <v>8.9999999999999844E-2</v>
       </c>
       <c r="J44">
-        <f t="shared" si="23"/>
+        <f>(J14-J$3*$AF$19)/J$3</f>
         <v>0.12000000000000011</v>
       </c>
       <c r="K44">
-        <f t="shared" si="23"/>
+        <f>(K14-K$3*$AF$19)/K$3</f>
         <v>8.0000000000000043E-2</v>
       </c>
       <c r="L44">
-        <f t="shared" si="23"/>
+        <f>(L14-L$3*$AF$19)/L$3</f>
         <v>5.00000000000001E-2</v>
       </c>
       <c r="M44">
-        <f t="shared" si="23"/>
+        <f>(M14-M$3*$AF$19)/M$3</f>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="N44">
-        <f t="shared" si="23"/>
+        <f>(N14-N$3*$AF$19)/N$3</f>
         <v>-5.0000000000000017E-2</v>
       </c>
       <c r="O44">
-        <f t="shared" si="23"/>
+        <f>(O14-O$3*$AF$19)/O$3</f>
         <v>-0.31000000000000011</v>
       </c>
       <c r="P44">
-        <f t="shared" si="23"/>
+        <f>(P14-P$3*$AF$19)/P$3</f>
         <v>6.9999999999999979E-2</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="23"/>
+        <f>(Q14-Q$3*$AF$19)/Q$3</f>
         <v>-0.11000000000000008</v>
       </c>
       <c r="R44">
-        <f t="shared" si="23"/>
+        <f>(R14-R$3*$AF$19)/R$3</f>
         <v>7.9999999999999905E-2</v>
       </c>
       <c r="S44">
-        <f t="shared" si="23"/>
+        <f>(S14-S$3*$AF$19)/S$3</f>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="T44">
-        <f t="shared" si="23"/>
+        <f>(T14-T$3*$AF$19)/T$3</f>
         <v>0.11000000411592244</v>
       </c>
       <c r="U44">
-        <f t="shared" si="23"/>
+        <f>(U14-U$3*$AF$19)/U$3</f>
         <v>0</v>
       </c>
       <c r="V44">
-        <f t="shared" si="23"/>
+        <f>(V14-V$3*$AF$19)/V$3</f>
         <v>0</v>
       </c>
       <c r="W44">
-        <f t="shared" si="23"/>
+        <f>(W14-W$3*$AF$19)/W$3</f>
         <v>0</v>
       </c>
       <c r="X44">
-        <f t="shared" si="23"/>
+        <f>(X14-X$3*$AF$19)/X$3</f>
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="23"/>
+        <f>(Y14-Y$3*$AF$19)/Y$3</f>
         <v>8.0000000000000029E-2</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="23"/>
+        <f>(Z14-Z$3*$AF$19)/Z$3</f>
         <v>0</v>
       </c>
       <c r="AB44" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>8.8000001646368897E-3</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>1.0088000001646369</v>
       </c>
     </row>
@@ -5081,107 +7555,107 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45:H45" si="24">(B15-B$3*$AD$19)/B$3</f>
+        <f>(B15-B$3*$AF$19)/B$3</f>
         <v>0.19999999999999982</v>
       </c>
       <c r="C45">
-        <f t="shared" si="24"/>
+        <f>(C15-C$3*$AF$19)/C$3</f>
         <v>-1.0000000000000028E-2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="24"/>
+        <f>(D15-D$3*$AF$19)/D$3</f>
         <v>0.15000000000000011</v>
       </c>
       <c r="E45">
-        <f t="shared" si="24"/>
+        <f>(E15-E$3*$AF$19)/E$3</f>
         <v>-0.15000000000000011</v>
       </c>
       <c r="F45">
-        <f t="shared" si="24"/>
+        <f>(F15-F$3*$AF$19)/F$3</f>
         <v>0.36000000000000004</v>
       </c>
       <c r="G45">
-        <f t="shared" si="24"/>
+        <f>(G15-G$3*$AF$19)/G$3</f>
         <v>-0.16999999999999996</v>
       </c>
       <c r="H45">
-        <f t="shared" si="24"/>
+        <f>(H15-H$3*$AF$19)/H$3</f>
         <v>0.45000000000000012</v>
       </c>
       <c r="I45">
-        <f t="shared" ref="I45:Z45" si="25">(I15-I$3*$AD$19)/I$3</f>
+        <f>(I15-I$3*$AF$19)/I$3</f>
         <v>-1.0000000000000077E-2</v>
       </c>
       <c r="J45">
-        <f t="shared" si="25"/>
+        <f>(J15-J$3*$AF$19)/J$3</f>
         <v>0.35</v>
       </c>
       <c r="K45">
-        <f t="shared" si="25"/>
+        <f>(K15-K$3*$AF$19)/K$3</f>
         <v>5.0000000000000065E-2</v>
       </c>
       <c r="L45">
-        <f t="shared" si="25"/>
+        <f>(L15-L$3*$AF$19)/L$3</f>
         <v>2.0000000000000091E-2</v>
       </c>
       <c r="M45">
-        <f t="shared" si="25"/>
+        <f>(M15-M$3*$AF$19)/M$3</f>
         <v>-0.21000000000000002</v>
       </c>
       <c r="N45">
-        <f t="shared" si="25"/>
+        <f>(N15-N$3*$AF$19)/N$3</f>
         <v>0.25000000000000011</v>
       </c>
       <c r="O45">
-        <f t="shared" si="25"/>
+        <f>(O15-O$3*$AF$19)/O$3</f>
         <v>-0.20000000000000009</v>
       </c>
       <c r="P45">
-        <f t="shared" si="25"/>
+        <f>(P15-P$3*$AF$19)/P$3</f>
         <v>0.3</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="25"/>
+        <f>(Q15-Q$3*$AF$19)/Q$3</f>
         <v>0.21000000000000005</v>
       </c>
       <c r="R45">
-        <f t="shared" si="25"/>
+        <f>(R15-R$3*$AF$19)/R$3</f>
         <v>-0.11000000000000001</v>
       </c>
       <c r="S45">
-        <f t="shared" si="25"/>
+        <f>(S15-S$3*$AF$19)/S$3</f>
         <v>0.14999999999999994</v>
       </c>
       <c r="T45">
-        <f t="shared" si="25"/>
+        <f>(T15-T$3*$AF$19)/T$3</f>
         <v>7.9999991768155115E-2</v>
       </c>
       <c r="U45">
-        <f t="shared" si="25"/>
+        <f>(U15-U$3*$AF$19)/U$3</f>
         <v>0.11000000000000007</v>
       </c>
       <c r="V45">
-        <f t="shared" si="25"/>
+        <f>(V15-V$3*$AF$19)/V$3</f>
         <v>0.18999999999999995</v>
       </c>
       <c r="W45">
-        <f t="shared" si="25"/>
+        <f>(W15-W$3*$AF$19)/W$3</f>
         <v>0.24999999999999983</v>
       </c>
       <c r="X45">
-        <f t="shared" si="25"/>
+        <f>(X15-X$3*$AF$19)/X$3</f>
         <v>0.26</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="25"/>
+        <f>(Y15-Y$3*$AF$19)/Y$3</f>
         <v>0.15</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="25"/>
+        <f>(Z15-Z$3*$AF$19)/Z$3</f>
         <v>0.28999999999999981</v>
       </c>
       <c r="AB45" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0.11839999967072617</v>
       </c>
       <c r="AC45">
@@ -5192,10 +7666,10 @@
     <row r="46" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
       <c r="T46" s="1"/>
       <c r="Y46" s="2"/>
-      <c r="AC46" s="16" t="s">
+      <c r="AC46" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD46">
+      <c r="AD46" s="16">
         <f>AVERAGE(AC34:AC45)</f>
         <v>1.0234666667215457</v>
       </c>
@@ -5206,6 +7680,9 @@
       </c>
       <c r="T47" s="1"/>
       <c r="Y47" s="2"/>
+      <c r="AI47" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="48" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -5222,7 +7699,10 @@
       <c r="AG48" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI48" s="8"/>
+      <c r="AI48" s="24">
+        <f>-AD3</f>
+        <v>-100</v>
+      </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
@@ -5233,103 +7713,103 @@
         <v>9.9999999999999811E-2</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:Z60" si="26">MIN(0.1,C34)</f>
+        <f t="shared" ref="C49:Z60" si="5">MIN(0.1,C34)</f>
         <v>0.1</v>
       </c>
       <c r="D49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="E49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="F49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="G49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="H49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="I49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="J49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="K49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="M49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>6.0000000000000081E-2</v>
       </c>
       <c r="N49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="O49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="P49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>7.9999999999999891E-2</v>
       </c>
       <c r="R49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="T49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="U49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="V49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="W49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>4.999999999999994E-2</v>
       </c>
       <c r="X49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="AB49">
-        <f t="shared" ref="AB49:AB58" si="27">AVERAGE(B49:Z49)</f>
+      <c r="AB49" s="7">
+        <f t="shared" ref="AB49:AB60" si="6">AVERAGE(B49:Z49)</f>
         <v>9.5600000000000004E-2</v>
       </c>
       <c r="AE49">
@@ -5337,471 +7817,483 @@
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="AG49" s="7">
-        <f t="shared" ref="AG49:AG60" si="28">$AD$3 * AE49</f>
+        <f t="shared" ref="AG49:AG60" si="7">$AD$3 * AE49</f>
         <v>5.6</v>
       </c>
-      <c r="AI49" s="9"/>
+      <c r="AI49" s="25">
+        <f>AE49*AD$3</f>
+        <v>5.6</v>
+      </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>2</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50:Q58" si="29">MIN(0.1,B35)</f>
+        <f t="shared" ref="B50:Q58" si="8">MIN(0.1,B35)</f>
         <v>0.1</v>
       </c>
       <c r="C50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="D50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="E50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="F50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="G50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>6.0000000000000026E-2</v>
       </c>
       <c r="I50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>-2.0000000000000153E-2</v>
       </c>
       <c r="J50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="K50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>-4.9999999999999906E-2</v>
       </c>
       <c r="L50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="M50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>-6.9999999999999937E-2</v>
       </c>
       <c r="N50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="O50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>-8.0000000000000029E-2</v>
       </c>
       <c r="P50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>9.9999999999999853E-2</v>
       </c>
       <c r="R50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="S50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="T50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="U50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="V50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="W50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="X50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="AB50">
-        <f t="shared" si="27"/>
+      <c r="AB50" s="7">
+        <f t="shared" si="6"/>
         <v>7.1599999999999997E-2</v>
       </c>
       <c r="AE50">
-        <f t="shared" ref="AE50:AE52" si="30">5.6%</f>
+        <f t="shared" ref="AE50:AE52" si="9">5.6%</f>
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="AG50" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="7"/>
         <v>5.6</v>
       </c>
-      <c r="AI50" s="8"/>
+      <c r="AI50" s="25">
+        <f t="shared" ref="AI50:AI60" si="10">AE50*AD$3</f>
+        <v>5.6</v>
+      </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>3</v>
       </c>
       <c r="B51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="C51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="D51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="E51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="F51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="G51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="I51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999908E-2</v>
       </c>
       <c r="J51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="K51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="M51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="N51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000017E-2</v>
       </c>
       <c r="O51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="P51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>2.9999999999999957E-2</v>
       </c>
       <c r="R51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000031E-2</v>
       </c>
       <c r="T51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="U51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000049E-2</v>
       </c>
       <c r="V51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="W51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="X51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="AB51">
-        <f t="shared" si="27"/>
+      <c r="AB51" s="7">
+        <f t="shared" si="6"/>
         <v>8.840000000000002E-2</v>
       </c>
       <c r="AE51">
-        <f t="shared" si="30"/>
+        <f t="shared" si="9"/>
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="AG51" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="7"/>
         <v>5.6</v>
       </c>
-      <c r="AI51" s="9"/>
+      <c r="AI51" s="25">
+        <f t="shared" si="10"/>
+        <v>5.6</v>
+      </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>4</v>
       </c>
       <c r="B52">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="C52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="E52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="G52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>3.0000000000000082E-2</v>
       </c>
       <c r="H52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="I52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="J52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="K52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="L52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="M52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="N52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="O52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="P52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>7.9999999999999891E-2</v>
       </c>
       <c r="R52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="T52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>8.999999588407756E-2</v>
       </c>
       <c r="U52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="V52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="W52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="X52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="AB52">
-        <f t="shared" si="27"/>
+      <c r="AB52" s="7">
+        <f t="shared" si="6"/>
         <v>9.0399999835363135E-2</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="30"/>
+        <f t="shared" si="9"/>
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="AG52" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="7"/>
         <v>5.6</v>
       </c>
-      <c r="AI52" s="8"/>
+      <c r="AI52" s="25">
+        <f t="shared" si="10"/>
+        <v>5.6</v>
+      </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>5</v>
       </c>
       <c r="B53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>-1.0000000000000037E-2</v>
       </c>
       <c r="C53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.10999999999999996</v>
       </c>
       <c r="D53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="E53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-8.0000000000000113E-2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-9.9999999999999985E-3</v>
       </c>
       <c r="K53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.18999999999999995</v>
       </c>
       <c r="M53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.23000000000000007</v>
       </c>
       <c r="P53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.09</v>
       </c>
       <c r="R53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-1.0000000000000038E-2</v>
       </c>
       <c r="S53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="AB53">
-        <f t="shared" si="27"/>
+      <c r="AB53" s="7">
+        <f t="shared" si="6"/>
         <v>-3.9200000000000006E-2</v>
       </c>
       <c r="AE53">
@@ -5809,600 +8301,618 @@
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="AG53" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="7"/>
         <v>3.36</v>
       </c>
-      <c r="AI53" s="9"/>
+      <c r="AI53" s="25">
+        <f t="shared" si="10"/>
+        <v>3.36</v>
+      </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>6</v>
       </c>
       <c r="B54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>-0.22000000000000008</v>
       </c>
       <c r="C54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-1.0000000000000028E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.10999999999999989</v>
       </c>
       <c r="E54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-8.0000000000000029E-2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.25000000000000006</v>
       </c>
       <c r="J54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-4.9999999999999996E-2</v>
       </c>
       <c r="K54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-9.9999999999998875E-3</v>
       </c>
       <c r="L54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.10999999999999999</v>
       </c>
       <c r="M54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-7.9999999999999988E-2</v>
       </c>
       <c r="N54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.25</v>
       </c>
       <c r="P54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.21999999999999997</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.15000000000000002</v>
       </c>
       <c r="R54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-1.0000000000000031E-2</v>
       </c>
       <c r="T54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.24999999999999997</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="7">
+        <f t="shared" si="6"/>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE54">
-        <f t="shared" ref="AE54:AE60" si="31">MAX(0.6*AG53/$AD$3, AB54)</f>
+        <f>MAX(0.6*AG53/$AD$3, AB54)</f>
         <v>2.0160000000000001E-2</v>
       </c>
       <c r="AG54" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="7"/>
         <v>2.016</v>
       </c>
-      <c r="AI54" s="8"/>
+      <c r="AI54" s="25">
+        <f t="shared" si="10"/>
+        <v>2.016</v>
+      </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>7</v>
       </c>
       <c r="B55">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>-0.35000000000000009</v>
       </c>
       <c r="C55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.35000000000000003</v>
       </c>
       <c r="D55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-9.9999999999998215E-3</v>
       </c>
       <c r="E55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.10999999999999997</v>
       </c>
       <c r="F55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="G55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-7.9999999999999877E-2</v>
       </c>
       <c r="H55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>4.9999999999999871E-2</v>
       </c>
       <c r="J55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.3</v>
       </c>
       <c r="K55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.35</v>
       </c>
       <c r="L55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>5.00000000000001E-2</v>
       </c>
       <c r="M55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.10999999999999993</v>
       </c>
       <c r="N55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>7.0000000000000132E-2</v>
       </c>
       <c r="O55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-5.0000000000000058E-2</v>
       </c>
       <c r="P55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.24999999999999994</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="R55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-1.0000004115922443E-2</v>
       </c>
       <c r="U55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.19999999999999998</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <f t="shared" si="27"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB55" s="7">
+        <f t="shared" si="6"/>
         <v>-7.400000016463687E-2</v>
       </c>
       <c r="AE55">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="AE55:AE61" si="11">MAX(0.6*AG54/$AD$3, AB55)</f>
         <v>1.2096000000000001E-2</v>
       </c>
       <c r="AG55" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="7"/>
         <v>1.2096</v>
       </c>
-      <c r="AI55" s="9"/>
+      <c r="AI55" s="25">
+        <f t="shared" si="10"/>
+        <v>1.2096</v>
+      </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>8</v>
       </c>
       <c r="B56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>-0.15</v>
       </c>
       <c r="C56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000056E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-4.999999999999985E-2</v>
       </c>
       <c r="E56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-9.9999999999999516E-3</v>
       </c>
       <c r="F56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.11000000000000006</v>
       </c>
       <c r="G56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000135E-2</v>
       </c>
       <c r="H56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000153E-2</v>
       </c>
       <c r="J56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-4.9999999999999996E-2</v>
       </c>
       <c r="K56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.25</v>
       </c>
       <c r="L56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>5.00000000000001E-2</v>
       </c>
       <c r="M56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-1.0000000000000044E-2</v>
       </c>
       <c r="N56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.11</v>
       </c>
       <c r="O56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000077E-2</v>
       </c>
       <c r="P56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-3.0000000000000082E-2</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.25</v>
       </c>
       <c r="R56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000077E-2</v>
       </c>
       <c r="S56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-1.0000000000000024E-2</v>
       </c>
       <c r="V56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000004E-2</v>
       </c>
       <c r="X56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>2.9999999999999971E-2</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <f t="shared" si="27"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="7">
+        <f t="shared" si="6"/>
         <v>-0.04</v>
       </c>
       <c r="AE56">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>7.2575999999999995E-3</v>
       </c>
       <c r="AG56" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="7"/>
         <v>0.72575999999999996</v>
       </c>
-      <c r="AI56" s="8"/>
+      <c r="AI56" s="25">
+        <f t="shared" si="10"/>
+        <v>0.72575999999999996</v>
+      </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>9</v>
       </c>
       <c r="B57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>4.9999999999999815E-2</v>
       </c>
       <c r="C57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000024E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.21999999999999989</v>
       </c>
       <c r="E57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-1.0000000000000054E-2</v>
       </c>
       <c r="G57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000135E-2</v>
       </c>
       <c r="H57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000051E-2</v>
       </c>
       <c r="I57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-8.0000000000000099E-2</v>
       </c>
       <c r="J57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.17999999999999997</v>
       </c>
       <c r="K57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.18999999999999989</v>
       </c>
       <c r="L57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.29999999999999993</v>
       </c>
       <c r="M57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-1.9999999999999903E-2</v>
       </c>
       <c r="N57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>7.0000000000000132E-2</v>
       </c>
       <c r="O57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>2.9999999999999978E-2</v>
       </c>
       <c r="P57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000000112E-2</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.29000000000000004</v>
       </c>
       <c r="R57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>6.9999999999999868E-2</v>
       </c>
       <c r="S57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>2.9999999999999961E-2</v>
       </c>
       <c r="T57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999999994E-2</v>
       </c>
       <c r="W57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <f t="shared" si="27"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB57" s="7">
+        <f t="shared" si="6"/>
         <v>-2.799999999999999E-2</v>
       </c>
       <c r="AE57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>4.3545599999999995E-3</v>
       </c>
       <c r="AG57" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="7"/>
         <v>0.43545599999999995</v>
       </c>
-      <c r="AI57" s="9"/>
+      <c r="AI57" s="25">
+        <f t="shared" si="10"/>
+        <v>0.43545599999999995</v>
+      </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>10</v>
       </c>
       <c r="B58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>7.9999999999999918E-2</v>
       </c>
       <c r="C58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>8.99999999999999E-2</v>
       </c>
       <c r="F58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="H58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>7.9999999999999974E-2</v>
       </c>
       <c r="I58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>4.9999999999999871E-2</v>
       </c>
       <c r="J58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-7.9999999999999988E-2</v>
       </c>
       <c r="K58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.14999999999999988</v>
       </c>
       <c r="L58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.10999999999999999</v>
       </c>
       <c r="M58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.25</v>
       </c>
       <c r="N58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.25999999999999995</v>
       </c>
       <c r="O58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-1.0000000000000038E-2</v>
       </c>
       <c r="P58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.10999999999999999</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.14000000000000004</v>
       </c>
       <c r="R58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="S58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>6.000000000000006E-2</v>
       </c>
       <c r="T58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.17999999176815495</v>
       </c>
       <c r="U58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-4.999999999999992E-2</v>
       </c>
       <c r="V58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-1.0000000000000064E-2</v>
       </c>
       <c r="X58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <f t="shared" si="27"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="7">
+        <f t="shared" si="6"/>
         <v>-2.1999999670726206E-2</v>
       </c>
       <c r="AE58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>2.6127359999999992E-3</v>
       </c>
       <c r="AG58" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="7"/>
         <v>0.26127359999999994</v>
       </c>
-      <c r="AI58" s="8"/>
+      <c r="AI58" s="25">
+        <f t="shared" si="10"/>
+        <v>0.26127359999999994</v>
+      </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
@@ -6413,114 +8923,117 @@
         <v>-0.26000000000000006</v>
       </c>
       <c r="C59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-7.9999999999999988E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.2599999999999999</v>
       </c>
       <c r="E59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>6.0000000000000046E-2</v>
       </c>
       <c r="F59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="G59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>8.0000000000000043E-2</v>
       </c>
       <c r="H59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="I59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>8.9999999999999844E-2</v>
       </c>
       <c r="J59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="K59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>8.0000000000000043E-2</v>
       </c>
       <c r="L59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>5.00000000000001E-2</v>
       </c>
       <c r="M59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="N59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-5.0000000000000017E-2</v>
       </c>
       <c r="O59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.31000000000000011</v>
       </c>
       <c r="P59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>6.9999999999999979E-2</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.11000000000000008</v>
       </c>
       <c r="R59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>7.9999999999999905E-2</v>
       </c>
       <c r="S59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="T59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="U59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>8.0000000000000029E-2</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <f t="shared" ref="AB59:AB60" si="32">AVERAGE(B59:Z59)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB59" s="7">
+        <f t="shared" si="6"/>
         <v>5.1999999999999911E-3</v>
       </c>
       <c r="AE59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>5.1999999999999911E-3</v>
       </c>
       <c r="AG59" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="7"/>
         <v>0.51999999999999913</v>
       </c>
-      <c r="AI59" s="9"/>
+      <c r="AI59" s="25">
+        <f t="shared" si="10"/>
+        <v>0.51999999999999913</v>
+      </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
@@ -6531,123 +9044,137 @@
         <v>0.1</v>
       </c>
       <c r="C60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-1.0000000000000028E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="E60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.15000000000000011</v>
       </c>
       <c r="F60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="G60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>-0.16999999999999996</v>
       </c>
       <c r="H60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="I60">
-        <f t="shared" ref="I60:Z60" si="33">MIN(0.1,I45)</f>
+        <f t="shared" ref="I60:Z60" si="12">MIN(0.1,I45)</f>
         <v>-1.0000000000000077E-2</v>
       </c>
       <c r="J60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="K60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>5.0000000000000065E-2</v>
       </c>
       <c r="L60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>2.0000000000000091E-2</v>
       </c>
       <c r="M60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>-0.21000000000000002</v>
       </c>
       <c r="N60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="O60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>-0.20000000000000009</v>
       </c>
       <c r="P60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="R60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>-0.11000000000000001</v>
       </c>
       <c r="S60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="T60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>7.9999991768155115E-2</v>
       </c>
       <c r="U60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="V60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="W60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="X60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="33"/>
+        <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="AB60">
-        <f t="shared" si="32"/>
+      <c r="AB60" s="7">
+        <f t="shared" si="6"/>
         <v>3.15999996707262E-2</v>
       </c>
       <c r="AE60">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>3.15999996707262E-2</v>
       </c>
       <c r="AG60" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="7"/>
         <v>3.1599999670726202</v>
       </c>
-      <c r="AI60" s="8"/>
+      <c r="AI60" s="25">
+        <f>AE60*AD$3+AD68</f>
+        <v>103.15999996707262</v>
+      </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AE61" s="16" t="s">
+      <c r="AB61" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC61">
+        <f>SUM(AB49:AB60)</f>
+        <v>0.10959999967072627</v>
+      </c>
+      <c r="AE61" s="15" t="s">
         <v>76</v>
       </c>
       <c r="AF61">
         <f>SUM(AE49:AE60)</f>
         <v>0.34088089567072616</v>
       </c>
+      <c r="AG61" s="7">
+        <f>SUM(AG49:AG60)</f>
+        <v>34.088089567072615</v>
+      </c>
       <c r="AI61" s="9"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.35">
@@ -6665,60 +9192,116 @@
       </c>
       <c r="AI64" s="8"/>
     </row>
-    <row r="65" spans="28:35" x14ac:dyDescent="0.35">
-      <c r="AB65" s="11">
-        <f>(AD31-AF61)</f>
-        <v>0.68258577105081963</v>
-      </c>
-      <c r="AD65">
+    <row r="65" spans="27:35" x14ac:dyDescent="0.35">
+      <c r="AA65" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB65" s="20">
+        <f>(AC31-1-AF61)</f>
+        <v>-0.31741422894918042</v>
+      </c>
+      <c r="AC65" s="16"/>
+      <c r="AD65" s="16">
         <f>$AD$3 * (1+MAX(0,AB65))</f>
-        <v>168.25857710508197</v>
+        <v>100</v>
       </c>
       <c r="AI65" s="9"/>
     </row>
-    <row r="66" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="27:35" x14ac:dyDescent="0.35">
+      <c r="AA66" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB66" s="16">
+        <f>(AE31-AF61)</f>
+        <v>-5.9280895012177315E-2</v>
+      </c>
+      <c r="AC66" s="16"/>
+      <c r="AD66" s="16">
+        <f t="shared" ref="AD66:AD68" si="13">$AD$3 * (1+MAX(0,AB66))</f>
+        <v>100</v>
+      </c>
+      <c r="AF66" s="23" t="s">
+        <v>279</v>
+      </c>
       <c r="AI66" s="8"/>
     </row>
-    <row r="67" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="27:35" x14ac:dyDescent="0.35">
+      <c r="AA67" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB67" s="16">
+        <f>AC31-1</f>
+        <v>2.3466666721545737E-2</v>
+      </c>
+      <c r="AC67" s="16"/>
+      <c r="AD67" s="16">
+        <f t="shared" si="13"/>
+        <v>102.34666667215457</v>
+      </c>
+      <c r="AF67">
+        <f>AD68+AF61*AD3</f>
+        <v>134.08808956707261</v>
+      </c>
       <c r="AI67" s="9"/>
     </row>
-    <row r="68" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="27:35" x14ac:dyDescent="0.35">
+      <c r="AA68" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB68" s="1">
+        <f>AC61-AF61</f>
+        <v>-0.2312808959999999</v>
+      </c>
+      <c r="AD68" s="1">
+        <f>$AD$3 * (1+MAX(0,AB68))</f>
+        <v>100</v>
+      </c>
+      <c r="AF68" s="23" t="s">
+        <v>281</v>
+      </c>
       <c r="AI68" s="8"/>
     </row>
-    <row r="69" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="27:35" x14ac:dyDescent="0.35">
+      <c r="AA69" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF69" s="26">
+        <f>IRR(AI48:AI60)</f>
+        <v>3.0232099034068316E-2</v>
+      </c>
       <c r="AI69" s="9"/>
     </row>
-    <row r="70" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AI70" s="8"/>
     </row>
-    <row r="71" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AI71" s="9"/>
     </row>
-    <row r="72" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AI72" s="8"/>
     </row>
-    <row r="73" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AI73" s="9"/>
     </row>
-    <row r="74" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AI74" s="8"/>
     </row>
-    <row r="75" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AI75" s="9"/>
     </row>
-    <row r="76" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AI76" s="8"/>
     </row>
-    <row r="77" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AI77" s="9"/>
     </row>
-    <row r="78" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AI78" s="8"/>
     </row>
-    <row r="79" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AI79" s="9"/>
     </row>
-    <row r="80" spans="28:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AI80" s="8"/>
     </row>
     <row r="81" spans="35:35" x14ac:dyDescent="0.35">
@@ -6772,6 +9355,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Excel/casMedian1.xlsx
+++ b/Excel/casMedian1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portable\Documents\GitHub\PEPSI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CB7E80-CE08-4091-96B2-41B85C1B059A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6610509-9D8E-425F-867A-DC08E7E9F511}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7440" xr2:uid="{5172E695-FFD0-4A81-8853-8CB156196831}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Calculs" sheetId="2" r:id="rId1"/>
     <sheet name="Données brutes" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="285">
   <si>
     <t>1215.38</t>
   </si>
@@ -881,6 +878,15 @@
   </si>
   <si>
     <t>Taux de rendement :</t>
+  </si>
+  <si>
+    <t>Taux de capitatlisation</t>
+  </si>
+  <si>
+    <t>Payoff actualisé</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -890,7 +896,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,10 +1055,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1075,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1109,10 +1143,28 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3317,142 +3369,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Calculs"/>
-      <sheetName val="Données brutes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="AB19">
-            <v>1.0756000008231847</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AB20">
-            <v>1.0656000008231847</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="AB21">
-            <v>1.0739999998353633</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AB22">
-            <v>1.0859999995060894</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="AB23">
-            <v>1.0648</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="AB24">
-            <v>1.0815999995060892</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AB25">
-            <v>1.0748000008231844</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AB26">
-            <v>1.0908000000000002</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="AB27">
-            <v>1.1044</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AB28">
-            <v>1.1039999998353629</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="AB29">
-            <v>1.1139999998353629</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="AB30">
-            <v>1.1384000000000001</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="AE49">
-            <v>5.5999999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="AE50">
-            <v>5.5999999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="AE51">
-            <v>5.5999999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="AE52">
-            <v>5.5999999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="AE53">
-            <v>5.6400000000000027E-2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="AE54">
-            <v>6.9199999506089321E-2</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="AE55">
-            <v>6.6800000823184505E-2</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="AE56">
-            <v>8.4399999999999989E-2</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="AE57">
-            <v>9.2800000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="AE58">
-            <v>9.1999999835363125E-2</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="AE59">
-            <v>9.1200000000000031E-2</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="AE60">
-            <v>9.5200000000000007E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -3752,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8926E1A2-95A1-4361-8542-D3980DDE6A70}">
   <dimension ref="A1:AK96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X45" workbookViewId="0">
-      <selection activeCell="AF69" sqref="AF69"/>
+    <sheetView tabSelected="1" topLeftCell="AC39" workbookViewId="0">
+      <selection activeCell="AJ47" sqref="AJ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5026,7 +4942,7 @@
         <v>1.1036000008231848</v>
       </c>
       <c r="AD19" s="17">
-        <f>AB19-1</f>
+        <f t="shared" ref="AD19:AD30" si="1">AB19-1</f>
         <v>0.10360000082318477</v>
       </c>
       <c r="AF19" s="7">
@@ -5039,67 +4955,67 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:Q30" si="1">(B5)/B$3</f>
+        <f t="shared" ref="B20:Q30" si="2">(B5)/B$3</f>
         <v>1.1199999999999999</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1600000000000001</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.06</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97999999999999987</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95000000000000007</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91999999999999993</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="R20">
@@ -5143,7 +5059,7 @@
         <v>1.1116000000000001</v>
       </c>
       <c r="AD20" s="17">
-        <f>AB20-1</f>
+        <f t="shared" si="1"/>
         <v>0.11160000000000014</v>
       </c>
     </row>
@@ -5152,7 +5068,7 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="C21">
@@ -5256,7 +5172,7 @@
         <v>1.1064000000000005</v>
       </c>
       <c r="AD21" s="17">
-        <f>AB21-1</f>
+        <f t="shared" si="1"/>
         <v>0.10640000000000049</v>
       </c>
     </row>
@@ -5265,7 +5181,7 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="C22">
@@ -5369,7 +5285,7 @@
         <v>1.0995999998353634</v>
       </c>
       <c r="AD22" s="17">
-        <f>AB22-1</f>
+        <f t="shared" si="1"/>
         <v>9.9599999835363384E-2</v>
       </c>
     </row>
@@ -5378,111 +5294,111 @@
         <v>5</v>
       </c>
       <c r="B23" s="16">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+      <c r="C23" s="16">
+        <f t="shared" si="2"/>
+        <v>0.89</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="2"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+      <c r="K23" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="16">
+        <f t="shared" si="2"/>
+        <v>0.81</v>
+      </c>
+      <c r="M23" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="16">
+        <f t="shared" si="2"/>
+        <v>0.76999999999999991</v>
+      </c>
+      <c r="P23" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="16">
+        <f t="shared" si="2"/>
+        <v>0.91</v>
+      </c>
+      <c r="R23" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="S23" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T23" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U23" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V23" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X23" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="16">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB23" s="16">
+        <f t="shared" ref="AB23:AB30" si="3">AVERAGE(B23:Z23)</f>
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="AD23" s="17">
         <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-      <c r="C23" s="16">
-        <f t="shared" si="1"/>
-        <v>0.89</v>
-      </c>
-      <c r="D23" s="16">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="E23" s="16">
-        <f t="shared" si="1"/>
-        <v>0.91999999999999993</v>
-      </c>
-      <c r="F23" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I23" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-      <c r="K23" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="16">
-        <f t="shared" si="1"/>
-        <v>0.81</v>
-      </c>
-      <c r="M23" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N23" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="16">
-        <f t="shared" si="1"/>
-        <v>0.76999999999999991</v>
-      </c>
-      <c r="P23" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q23" s="16">
-        <f t="shared" si="1"/>
-        <v>0.91</v>
-      </c>
-      <c r="R23" s="16">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="S23" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T23" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U23" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V23" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W23" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X23" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y23" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z23" s="16">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="AB23" s="16">
-        <f t="shared" ref="AB23:AB30" si="2">AVERAGE(B23:Z23)</f>
-        <v>0.96079999999999999</v>
-      </c>
-      <c r="AD23" s="17">
-        <f>AB23-1</f>
         <v>-3.9200000000000013E-2</v>
       </c>
     </row>
@@ -5491,111 +5407,111 @@
         <v>6</v>
       </c>
       <c r="B24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="K24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="L24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.89</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.92</v>
+      </c>
+      <c r="N24" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="P24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.78</v>
+      </c>
+      <c r="Q24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.85</v>
+      </c>
+      <c r="R24" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S24" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="T24" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U24" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V24" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W24" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X24" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y24" s="16">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z24" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB24" s="16">
+        <f t="shared" si="3"/>
+        <v>0.93</v>
+      </c>
+      <c r="AD24" s="17">
         <f t="shared" si="1"/>
-        <v>0.77999999999999992</v>
-      </c>
-      <c r="C24" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-      <c r="D24" s="16">
-        <f t="shared" si="1"/>
-        <v>0.89000000000000012</v>
-      </c>
-      <c r="E24" s="16">
-        <f t="shared" si="1"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="F24" s="16">
-        <f t="shared" si="1"/>
-        <v>0.91999999999999993</v>
-      </c>
-      <c r="G24" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H24" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="16">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="J24" s="16">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="K24" s="16">
-        <f t="shared" si="1"/>
-        <v>0.9900000000000001</v>
-      </c>
-      <c r="L24" s="16">
-        <f t="shared" si="1"/>
-        <v>0.89</v>
-      </c>
-      <c r="M24" s="16">
-        <f t="shared" si="1"/>
-        <v>0.92</v>
-      </c>
-      <c r="N24" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="16">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="P24" s="16">
-        <f t="shared" si="1"/>
-        <v>0.78</v>
-      </c>
-      <c r="Q24" s="16">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
-      <c r="R24" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S24" s="16">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="T24" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U24" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V24" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W24" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X24" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y24" s="16">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="Z24" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB24" s="16">
-        <f t="shared" si="2"/>
-        <v>0.93</v>
-      </c>
-      <c r="AD24" s="17">
-        <f>AB24-1</f>
         <v>-6.9999999999999951E-2</v>
       </c>
     </row>
@@ -5604,111 +5520,111 @@
         <v>7</v>
       </c>
       <c r="B25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.99000000000000021</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.89</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="K25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="L25" s="16">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="M25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.89</v>
+      </c>
+      <c r="N25" s="16">
+        <f t="shared" si="2"/>
+        <v>1.07</v>
+      </c>
+      <c r="O25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="P25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q25" s="16">
+        <f t="shared" si="2"/>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="R25" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S25" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T25" s="16">
+        <f t="shared" si="0"/>
+        <v>0.98999999588407761</v>
+      </c>
+      <c r="U25" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V25" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W25" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X25" s="16">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y25" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB25" s="16">
+        <f t="shared" si="3"/>
+        <v>0.92639999983536314</v>
+      </c>
+      <c r="AD25" s="17">
         <f t="shared" si="1"/>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="C25" s="16">
-        <f t="shared" si="1"/>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="D25" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99000000000000021</v>
-      </c>
-      <c r="E25" s="16">
-        <f t="shared" si="1"/>
-        <v>0.89</v>
-      </c>
-      <c r="F25" s="16">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="G25" s="16">
-        <f t="shared" si="1"/>
-        <v>0.92000000000000015</v>
-      </c>
-      <c r="H25" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="16">
-        <f t="shared" si="1"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="J25" s="16">
-        <f t="shared" si="1"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="K25" s="16">
-        <f t="shared" si="1"/>
-        <v>0.65</v>
-      </c>
-      <c r="L25" s="16">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="M25" s="16">
-        <f t="shared" si="1"/>
-        <v>0.89</v>
-      </c>
-      <c r="N25" s="16">
-        <f t="shared" si="1"/>
-        <v>1.07</v>
-      </c>
-      <c r="O25" s="16">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="P25" s="16">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q25" s="16">
-        <f t="shared" si="1"/>
-        <v>1.1099999999999999</v>
-      </c>
-      <c r="R25" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S25" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T25" s="16">
-        <f t="shared" si="0"/>
-        <v>0.98999999588407761</v>
-      </c>
-      <c r="U25" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V25" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W25" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X25" s="16">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="Y25" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z25" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB25" s="16">
-        <f t="shared" si="2"/>
-        <v>0.92639999983536314</v>
-      </c>
-      <c r="AD25" s="17">
-        <f>AB25-1</f>
         <v>-7.3600000164636858E-2</v>
       </c>
     </row>
@@ -5717,111 +5633,111 @@
         <v>8</v>
       </c>
       <c r="B26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.85</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.98</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="K26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="L26" s="16">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.89</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="P26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.96999999999999986</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="R26" s="16">
+        <f t="shared" si="0"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="S26" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T26" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U26" s="16">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="V26" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W26" s="16">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="X26" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="16">
+        <f t="shared" si="0"/>
+        <v>1.03</v>
+      </c>
+      <c r="Z26" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB26" s="16">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="AD26" s="17">
         <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
-      <c r="C26" s="16">
-        <f t="shared" si="1"/>
-        <v>0.98</v>
-      </c>
-      <c r="D26" s="16">
-        <f t="shared" si="1"/>
-        <v>0.95000000000000018</v>
-      </c>
-      <c r="E26" s="16">
-        <f t="shared" si="1"/>
-        <v>0.9900000000000001</v>
-      </c>
-      <c r="F26" s="16">
-        <f t="shared" si="1"/>
-        <v>0.8899999999999999</v>
-      </c>
-      <c r="G26" s="16">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="H26" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="16">
-        <f t="shared" si="1"/>
-        <v>0.97999999999999987</v>
-      </c>
-      <c r="J26" s="16">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="K26" s="16">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="L26" s="16">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="M26" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-      <c r="N26" s="16">
-        <f t="shared" si="1"/>
-        <v>0.89</v>
-      </c>
-      <c r="O26" s="16">
-        <f t="shared" si="1"/>
-        <v>0.97999999999999987</v>
-      </c>
-      <c r="P26" s="16">
-        <f t="shared" si="1"/>
-        <v>0.96999999999999986</v>
-      </c>
-      <c r="Q26" s="16">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="R26" s="16">
-        <f t="shared" si="0"/>
-        <v>0.97999999999999987</v>
-      </c>
-      <c r="S26" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T26" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U26" s="16">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="V26" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W26" s="16">
-        <f t="shared" si="0"/>
-        <v>0.98</v>
-      </c>
-      <c r="X26" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y26" s="16">
-        <f t="shared" si="0"/>
-        <v>1.03</v>
-      </c>
-      <c r="Z26" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB26" s="16">
-        <f t="shared" si="2"/>
-        <v>0.96</v>
-      </c>
-      <c r="AD26" s="17">
-        <f>AB26-1</f>
         <v>-4.0000000000000036E-2</v>
       </c>
     </row>
@@ -5830,111 +5746,111 @@
         <v>9</v>
       </c>
       <c r="B27" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="C27" s="16">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="2"/>
+        <v>0.78000000000000014</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="F27" s="16">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" si="2"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="2"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="K27" s="16">
+        <f t="shared" si="2"/>
+        <v>0.81</v>
+      </c>
+      <c r="L27" s="16">
+        <f t="shared" si="2"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="M27" s="16">
+        <f t="shared" si="2"/>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="N27" s="16">
+        <f t="shared" si="2"/>
+        <v>1.07</v>
+      </c>
+      <c r="O27" s="16">
+        <f t="shared" si="2"/>
+        <v>1.03</v>
+      </c>
+      <c r="P27" s="16">
+        <f t="shared" si="2"/>
+        <v>1.04</v>
+      </c>
+      <c r="Q27" s="16">
+        <f t="shared" si="2"/>
+        <v>0.71</v>
+      </c>
+      <c r="R27" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0699999999999998</v>
+      </c>
+      <c r="S27" s="16">
+        <f t="shared" si="0"/>
+        <v>1.03</v>
+      </c>
+      <c r="T27" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U27" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V27" s="16">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="W27" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X27" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y27" s="16">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+      <c r="Z27" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB27" s="16">
+        <f t="shared" si="3"/>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="AD27" s="17">
         <f t="shared" si="1"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="C27" s="16">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="D27" s="16">
-        <f t="shared" si="1"/>
-        <v>0.78000000000000014</v>
-      </c>
-      <c r="E27" s="16">
-        <f t="shared" si="1"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="F27" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-      <c r="G27" s="16">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="H27" s="16">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="I27" s="16">
-        <f t="shared" si="1"/>
-        <v>0.91999999999999993</v>
-      </c>
-      <c r="J27" s="16">
-        <f t="shared" si="1"/>
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="K27" s="16">
-        <f t="shared" si="1"/>
-        <v>0.81</v>
-      </c>
-      <c r="L27" s="16">
-        <f t="shared" si="1"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="M27" s="16">
-        <f t="shared" si="1"/>
-        <v>0.98000000000000009</v>
-      </c>
-      <c r="N27" s="16">
-        <f t="shared" si="1"/>
-        <v>1.07</v>
-      </c>
-      <c r="O27" s="16">
-        <f t="shared" si="1"/>
-        <v>1.03</v>
-      </c>
-      <c r="P27" s="16">
-        <f t="shared" si="1"/>
-        <v>1.04</v>
-      </c>
-      <c r="Q27" s="16">
-        <f t="shared" si="1"/>
-        <v>0.71</v>
-      </c>
-      <c r="R27" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0699999999999998</v>
-      </c>
-      <c r="S27" s="16">
-        <f t="shared" si="0"/>
-        <v>1.03</v>
-      </c>
-      <c r="T27" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U27" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V27" s="16">
-        <f t="shared" si="0"/>
-        <v>1.04</v>
-      </c>
-      <c r="W27" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X27" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y27" s="16">
-        <f t="shared" si="0"/>
-        <v>1.06</v>
-      </c>
-      <c r="Z27" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB27" s="16">
-        <f t="shared" si="2"/>
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="AD27" s="17">
-        <f>AB27-1</f>
         <v>-2.8000000000000025E-2</v>
       </c>
     </row>
@@ -5943,111 +5859,111 @@
         <v>10</v>
       </c>
       <c r="B28" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0799999999999998</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" si="2"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="F28" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="2"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="2"/>
+        <v>1.08</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.92</v>
+      </c>
+      <c r="K28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="L28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.89</v>
+      </c>
+      <c r="M28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="N28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="O28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+      <c r="P28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.89</v>
+      </c>
+      <c r="Q28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.86</v>
+      </c>
+      <c r="R28" s="16">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="S28" s="16">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+      <c r="T28" s="16">
+        <f t="shared" si="0"/>
+        <v>0.82000000823184505</v>
+      </c>
+      <c r="U28" s="16">
+        <f t="shared" si="0"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="V28" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W28" s="16">
+        <f t="shared" si="0"/>
+        <v>0.98999999999999988</v>
+      </c>
+      <c r="X28" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Z28" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB28" s="16">
+        <f t="shared" si="3"/>
+        <v>0.98400000032927371</v>
+      </c>
+      <c r="AD28" s="17">
         <f t="shared" si="1"/>
-        <v>1.0799999999999998</v>
-      </c>
-      <c r="C28" s="16">
-        <f t="shared" si="1"/>
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="D28" s="16">
-        <f t="shared" si="1"/>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="E28" s="16">
-        <f t="shared" si="1"/>
-        <v>1.0899999999999999</v>
-      </c>
-      <c r="F28" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G28" s="16">
-        <f t="shared" si="1"/>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="H28" s="16">
-        <f t="shared" si="1"/>
-        <v>1.08</v>
-      </c>
-      <c r="I28" s="16">
-        <f t="shared" si="1"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="J28" s="16">
-        <f t="shared" si="1"/>
-        <v>0.92</v>
-      </c>
-      <c r="K28" s="16">
-        <f t="shared" si="1"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="L28" s="16">
-        <f t="shared" si="1"/>
-        <v>0.89</v>
-      </c>
-      <c r="M28" s="16">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="N28" s="16">
-        <f t="shared" si="1"/>
-        <v>0.74</v>
-      </c>
-      <c r="O28" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-      <c r="P28" s="16">
-        <f t="shared" si="1"/>
-        <v>0.89</v>
-      </c>
-      <c r="Q28" s="16">
-        <f t="shared" si="1"/>
-        <v>0.86</v>
-      </c>
-      <c r="R28" s="16">
-        <f t="shared" si="0"/>
-        <v>1.05</v>
-      </c>
-      <c r="S28" s="16">
-        <f t="shared" si="0"/>
-        <v>1.06</v>
-      </c>
-      <c r="T28" s="16">
-        <f t="shared" si="0"/>
-        <v>0.82000000823184505</v>
-      </c>
-      <c r="U28" s="16">
-        <f t="shared" si="0"/>
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="V28" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W28" s="16">
-        <f t="shared" si="0"/>
-        <v>0.98999999999999988</v>
-      </c>
-      <c r="X28" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y28" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Z28" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB28" s="16">
-        <f t="shared" si="2"/>
-        <v>0.98400000032927371</v>
-      </c>
-      <c r="AD28" s="17">
-        <f>AB28-1</f>
         <v>-1.5999999670726295E-2</v>
       </c>
     </row>
@@ -6056,111 +5972,111 @@
         <v>11</v>
       </c>
       <c r="B29" s="16">
+        <f t="shared" si="2"/>
+        <v>0.74</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" si="2"/>
+        <v>0.92</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="2"/>
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="2"/>
+        <v>1.06</v>
+      </c>
+      <c r="F29" s="16">
+        <f t="shared" si="2"/>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="2"/>
+        <v>1.08</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="2"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="2"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="2"/>
+        <v>1.08</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="2"/>
+        <v>0.69</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="2"/>
+        <v>1.07</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="2"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0799999999999998</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="0"/>
+        <v>1.07</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1100000041159224</v>
+      </c>
+      <c r="U29" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V29" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" si="3"/>
+        <v>1.0088000001646369</v>
+      </c>
+      <c r="AD29" s="17">
         <f t="shared" si="1"/>
-        <v>0.74</v>
-      </c>
-      <c r="C29" s="16">
-        <f t="shared" si="1"/>
-        <v>0.92</v>
-      </c>
-      <c r="D29" s="16">
-        <f t="shared" si="1"/>
-        <v>0.7400000000000001</v>
-      </c>
-      <c r="E29" s="16">
-        <f t="shared" si="1"/>
-        <v>1.06</v>
-      </c>
-      <c r="F29" s="16">
-        <f t="shared" si="1"/>
-        <v>1.1099999999999999</v>
-      </c>
-      <c r="G29" s="16">
-        <f t="shared" si="1"/>
-        <v>1.08</v>
-      </c>
-      <c r="H29" s="16">
-        <f t="shared" si="1"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I29" s="16">
-        <f t="shared" si="1"/>
-        <v>1.0899999999999999</v>
-      </c>
-      <c r="J29" s="16">
-        <f t="shared" si="1"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="K29" s="16">
-        <f t="shared" si="1"/>
-        <v>1.08</v>
-      </c>
-      <c r="L29" s="16">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="M29" s="16">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="N29" s="16">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="O29" s="16">
-        <f t="shared" si="1"/>
-        <v>0.69</v>
-      </c>
-      <c r="P29" s="16">
-        <f t="shared" si="1"/>
-        <v>1.07</v>
-      </c>
-      <c r="Q29" s="16">
-        <f t="shared" si="1"/>
-        <v>0.8899999999999999</v>
-      </c>
-      <c r="R29" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0799999999999998</v>
-      </c>
-      <c r="S29" s="16">
-        <f t="shared" si="0"/>
-        <v>1.07</v>
-      </c>
-      <c r="T29" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1100000041159224</v>
-      </c>
-      <c r="U29" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V29" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W29" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X29" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="Y29" s="16">
-        <f t="shared" si="0"/>
-        <v>1.08</v>
-      </c>
-      <c r="Z29" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB29" s="16">
-        <f t="shared" si="2"/>
-        <v>1.0088000001646369</v>
-      </c>
-      <c r="AD29" s="17">
-        <f>AB29-1</f>
         <v>8.8000001646368897E-3</v>
       </c>
     </row>
@@ -6169,111 +6085,111 @@
         <v>12</v>
       </c>
       <c r="B30" s="16">
+        <f t="shared" si="2"/>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="C30" s="16">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="2"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" si="2"/>
+        <v>0.84999999999999987</v>
+      </c>
+      <c r="F30" s="16">
+        <f t="shared" si="2"/>
+        <v>1.36</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="2"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="2"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="2"/>
+        <v>0.98999999999999988</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="K30" s="16">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="L30" s="16">
+        <f t="shared" si="2"/>
+        <v>1.02</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="2"/>
+        <v>0.79</v>
+      </c>
+      <c r="N30" s="16">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="O30" s="16">
+        <f t="shared" si="2"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="P30" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q30" s="16">
+        <f t="shared" si="2"/>
+        <v>1.21</v>
+      </c>
+      <c r="R30" s="16">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="S30" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="T30" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0799999917681551</v>
+      </c>
+      <c r="U30" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V30" s="16">
+        <f t="shared" si="0"/>
+        <v>1.19</v>
+      </c>
+      <c r="W30" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999998</v>
+      </c>
+      <c r="X30" s="16">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="Y30" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Z30" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2899999999999998</v>
+      </c>
+      <c r="AB30" s="16">
+        <f t="shared" si="3"/>
+        <v>1.1183999996707263</v>
+      </c>
+      <c r="AD30" s="17">
         <f t="shared" si="1"/>
-        <v>1.1999999999999997</v>
-      </c>
-      <c r="C30" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-      <c r="D30" s="16">
-        <f t="shared" si="1"/>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="E30" s="16">
-        <f t="shared" si="1"/>
-        <v>0.84999999999999987</v>
-      </c>
-      <c r="F30" s="16">
-        <f t="shared" si="1"/>
-        <v>1.36</v>
-      </c>
-      <c r="G30" s="16">
-        <f t="shared" si="1"/>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="H30" s="16">
-        <f t="shared" si="1"/>
-        <v>1.4500000000000002</v>
-      </c>
-      <c r="I30" s="16">
-        <f t="shared" si="1"/>
-        <v>0.98999999999999988</v>
-      </c>
-      <c r="J30" s="16">
-        <f t="shared" si="1"/>
-        <v>1.3499999999999999</v>
-      </c>
-      <c r="K30" s="16">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
-      </c>
-      <c r="L30" s="16">
-        <f t="shared" si="1"/>
-        <v>1.02</v>
-      </c>
-      <c r="M30" s="16">
-        <f t="shared" si="1"/>
-        <v>0.79</v>
-      </c>
-      <c r="N30" s="16">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-      <c r="O30" s="16">
-        <f t="shared" si="1"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="P30" s="16">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
-      </c>
-      <c r="Q30" s="16">
-        <f t="shared" si="1"/>
-        <v>1.21</v>
-      </c>
-      <c r="R30" s="16">
-        <f t="shared" si="0"/>
-        <v>0.89</v>
-      </c>
-      <c r="S30" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="T30" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0799999917681551</v>
-      </c>
-      <c r="U30" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="V30" s="16">
-        <f t="shared" si="0"/>
-        <v>1.19</v>
-      </c>
-      <c r="W30" s="16">
-        <f t="shared" si="0"/>
-        <v>1.2499999999999998</v>
-      </c>
-      <c r="X30" s="16">
-        <f t="shared" si="0"/>
-        <v>1.26</v>
-      </c>
-      <c r="Y30" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Z30" s="16">
-        <f t="shared" si="0"/>
-        <v>1.2899999999999998</v>
-      </c>
-      <c r="AB30" s="16">
-        <f t="shared" si="2"/>
-        <v>1.1183999996707263</v>
-      </c>
-      <c r="AD30" s="17">
-        <f>AB30-1</f>
         <v>0.11839999967072634</v>
       </c>
     </row>
@@ -6299,7 +6215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -6307,112 +6223,112 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>1</v>
       </c>
       <c r="B34">
-        <f>(B4-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B34:Z34" si="4">(B4-B$3*$AF$19)/B$3</f>
         <v>9.9999999999999811E-2</v>
       </c>
       <c r="C34">
-        <f>(C4-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="4"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="D34">
-        <f>(D4-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="4"/>
         <v>0.10000000000000007</v>
       </c>
       <c r="E34">
-        <f>(E4-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="4"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="F34">
-        <f>(F4-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="G34">
-        <f>(G4-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="4"/>
         <v>0.1000000000000001</v>
       </c>
       <c r="H34">
-        <f>(H4-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="4"/>
         <v>0.1000000000000001</v>
       </c>
       <c r="I34">
-        <f>(I4-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="4"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="J34">
-        <f>(J4-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="4"/>
         <v>0.10000000000000012</v>
       </c>
       <c r="K34">
-        <f>(K4-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="4"/>
         <v>0.10000000000000013</v>
       </c>
       <c r="L34">
-        <f>(L4-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="4"/>
         <v>0.10000000000000006</v>
       </c>
       <c r="M34">
-        <f>(M4-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="4"/>
         <v>6.0000000000000081E-2</v>
       </c>
       <c r="N34">
-        <f>(N4-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="4"/>
         <v>0.10000000000000003</v>
       </c>
       <c r="O34">
-        <f>(O4-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="4"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="P34">
-        <f>(P4-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="4"/>
         <v>0.10000000000000006</v>
       </c>
       <c r="Q34">
-        <f>(Q4-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="4"/>
         <v>7.9999999999999891E-2</v>
       </c>
       <c r="R34">
-        <f>(R4-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="4"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S34">
-        <f>(S4-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="4"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="T34">
-        <f>(T4-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="4"/>
         <v>0.25000002057961251</v>
       </c>
       <c r="U34">
-        <f>(U4-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="4"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="V34">
-        <f>(V4-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="4"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="W34">
-        <f>(W4-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="4"/>
         <v>4.999999999999994E-2</v>
       </c>
       <c r="X34">
-        <f>(X4-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="4"/>
         <v>0.10000000000000014</v>
       </c>
       <c r="Y34">
-        <f>(Y4-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="4"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z34">
-        <f>(Z4-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="4"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB34" s="7">
-        <f t="shared" ref="AB34:AB45" si="3">AVERAGE(B34:Z34)</f>
+        <f t="shared" ref="AB34:AB45" si="5">AVERAGE(B34:Z34)</f>
         <v>0.10360000082318453</v>
       </c>
       <c r="AC34">
@@ -6420,1242 +6336,1242 @@
         <v>1.1036000008231845</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>2</v>
       </c>
       <c r="B35">
-        <f>(B5-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B35:Z35" si="6">(B5-B$3*$AF$19)/B$3</f>
         <v>0.11999999999999988</v>
       </c>
       <c r="C35">
-        <f>(C5-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="6"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="D35">
-        <f>(D5-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="6"/>
         <v>0.16000000000000011</v>
       </c>
       <c r="E35">
-        <f>(E5-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="6"/>
         <v>0.11999999999999993</v>
       </c>
       <c r="F35">
-        <f>(F5-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="G35">
-        <f>(G5-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="6"/>
         <v>0.1000000000000001</v>
       </c>
       <c r="H35">
-        <f>(H5-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="6"/>
         <v>6.0000000000000026E-2</v>
       </c>
       <c r="I35">
-        <f>(I5-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="6"/>
         <v>-2.0000000000000153E-2</v>
       </c>
       <c r="J35">
-        <f>(J5-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="6"/>
         <v>0.10000000000000012</v>
       </c>
       <c r="K35">
-        <f>(K5-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="6"/>
         <v>-4.9999999999999906E-2</v>
       </c>
       <c r="L35">
-        <f>(L5-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="6"/>
         <v>0.10000000000000006</v>
       </c>
       <c r="M35">
-        <f>(M5-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="6"/>
         <v>-6.9999999999999937E-2</v>
       </c>
       <c r="N35">
-        <f>(N5-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="6"/>
         <v>0.10000000000000003</v>
       </c>
       <c r="O35">
-        <f>(O5-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="6"/>
         <v>-8.0000000000000029E-2</v>
       </c>
       <c r="P35">
-        <f>(P5-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="6"/>
         <v>0.10000000000000006</v>
       </c>
       <c r="Q35">
-        <f>(Q5-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="6"/>
         <v>9.9999999999999853E-2</v>
       </c>
       <c r="R35">
-        <f>(R5-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="6"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="S35">
-        <f>(S5-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="6"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="T35">
-        <f>(T5-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
       <c r="U35">
-        <f>(U5-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="6"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="V35">
-        <f>(V5-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="6"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="W35">
-        <f>(W5-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="6"/>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="X35">
-        <f>(X5-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="6"/>
         <v>0.45000000000000012</v>
       </c>
       <c r="Y35">
-        <f>(Y5-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="6"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z35">
-        <f>(Z5-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="6"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11160000000000002</v>
       </c>
       <c r="AC35">
-        <f t="shared" ref="AC35:AC44" si="4">1+AB35</f>
+        <f t="shared" ref="AC35:AC44" si="7">1+AB35</f>
         <v>1.1115999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>3</v>
       </c>
       <c r="B36">
-        <f>(B6-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B36:Z36" si="8">(B6-B$3*$AF$19)/B$3</f>
         <v>0.11999999999999988</v>
       </c>
       <c r="C36">
-        <f>(C6-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="8"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="D36">
-        <f>(D6-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="8"/>
         <v>0.10000000000000007</v>
       </c>
       <c r="E36">
-        <f>(E6-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="8"/>
         <v>0.11999999999999993</v>
       </c>
       <c r="F36">
-        <f>(F6-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="G36">
-        <f>(G6-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="8"/>
         <v>0.1000000000000001</v>
       </c>
       <c r="H36">
-        <f>(H6-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="8"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="I36">
-        <f>(I6-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="8"/>
         <v>9.9999999999999908E-2</v>
       </c>
       <c r="J36">
-        <f>(J6-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="8"/>
         <v>0.10000000000000012</v>
       </c>
       <c r="K36">
-        <f>(K6-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="8"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="L36">
-        <f>(L6-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="8"/>
         <v>0.10000000000000006</v>
       </c>
       <c r="M36">
-        <f>(M6-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="8"/>
         <v>0.10000000000000007</v>
       </c>
       <c r="N36">
-        <f>(N6-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="8"/>
         <v>5.0000000000000017E-2</v>
       </c>
       <c r="O36">
-        <f>(O6-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="8"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="P36">
-        <f>(P6-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="8"/>
         <v>0.10000000000000006</v>
       </c>
       <c r="Q36">
-        <f>(Q6-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="8"/>
         <v>2.9999999999999957E-2</v>
       </c>
       <c r="R36">
-        <f>(R6-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="8"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S36">
-        <f>(S6-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="8"/>
         <v>1.0000000000000031E-2</v>
       </c>
       <c r="T36">
-        <f>(T6-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="U36">
-        <f>(U6-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="8"/>
         <v>2.0000000000000049E-2</v>
       </c>
       <c r="V36">
-        <f>(V6-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="8"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="W36">
-        <f>(W6-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="8"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="X36">
-        <f>(X6-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="8"/>
         <v>0.10000000000000014</v>
       </c>
       <c r="Y36">
-        <f>(Y6-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="8"/>
         <v>0.20999999999999996</v>
       </c>
       <c r="Z36">
-        <f>(Z6-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="8"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10640000000000001</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1064000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>4</v>
       </c>
       <c r="B37">
-        <f>(B7-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B37:Z37" si="9">(B7-B$3*$AF$19)/B$3</f>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="C37">
-        <f>(C7-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="9"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="D37">
-        <f>(D7-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="9"/>
         <v>0.10000000000000007</v>
       </c>
       <c r="E37">
-        <f>(E7-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="9"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F37">
-        <f>(F7-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="G37">
-        <f>(G7-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="9"/>
         <v>3.0000000000000082E-2</v>
       </c>
       <c r="H37">
-        <f>(H7-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="9"/>
         <v>0.1000000000000001</v>
       </c>
       <c r="I37">
-        <f>(I7-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="9"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="J37">
-        <f>(J7-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="9"/>
         <v>0.10000000000000012</v>
       </c>
       <c r="K37">
-        <f>(K7-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="9"/>
         <v>0.21000000000000013</v>
       </c>
       <c r="L37">
-        <f>(L7-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="9"/>
         <v>0.10000000000000006</v>
       </c>
       <c r="M37">
-        <f>(M7-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="9"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="N37">
-        <f>(N7-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="9"/>
         <v>0.10000000000000003</v>
       </c>
       <c r="O37">
-        <f>(O7-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="9"/>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="P37">
-        <f>(P7-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="9"/>
         <v>0.10000000000000006</v>
       </c>
       <c r="Q37">
-        <f>(Q7-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="9"/>
         <v>7.9999999999999891E-2</v>
       </c>
       <c r="R37">
-        <f>(R7-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="9"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S37">
-        <f>(S7-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="9"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="T37">
-        <f>(T7-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="9"/>
         <v>8.999999588407756E-2</v>
       </c>
       <c r="U37">
-        <f>(U7-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="9"/>
         <v>0.10000000000000005</v>
       </c>
       <c r="V37">
-        <f>(V7-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="9"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="W37">
-        <f>(W7-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="9"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="X37">
-        <f>(X7-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="9"/>
         <v>0.10000000000000014</v>
       </c>
       <c r="Y37">
-        <f>(Y7-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="9"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z37">
-        <f>(Z7-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="9"/>
         <v>0.12000000000000001</v>
       </c>
       <c r="AB37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.9599999835363148E-2</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0995999998353632</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>5</v>
       </c>
       <c r="B38">
-        <f>(B8-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B38:Z38" si="10">(B8-B$3*$AF$19)/B$3</f>
         <v>-1.0000000000000037E-2</v>
       </c>
       <c r="C38">
-        <f>(C8-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="10"/>
         <v>-0.10999999999999996</v>
       </c>
       <c r="D38">
-        <f>(D8-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="10"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="E38">
-        <f>(E8-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="10"/>
         <v>-8.0000000000000113E-2</v>
       </c>
       <c r="F38">
-        <f>(F8-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G38">
-        <f>(G8-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H38">
-        <f>(H8-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I38">
-        <f>(I8-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J38">
-        <f>(J8-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="10"/>
         <v>-9.9999999999999985E-3</v>
       </c>
       <c r="K38">
-        <f>(K8-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f>(L8-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="10"/>
         <v>-0.18999999999999995</v>
       </c>
       <c r="M38">
-        <f>(M8-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N38">
-        <f>(N8-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O38">
-        <f>(O8-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="10"/>
         <v>-0.23000000000000007</v>
       </c>
       <c r="P38">
-        <f>(P8-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f>(Q8-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="10"/>
         <v>-0.09</v>
       </c>
       <c r="R38">
-        <f>(R8-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="10"/>
         <v>-1.0000000000000038E-2</v>
       </c>
       <c r="S38">
-        <f>(S8-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T38">
-        <f>(T8-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U38">
-        <f>(U8-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V38">
-        <f>(V8-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W38">
-        <f>(W8-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X38">
-        <f>(X8-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y38">
-        <f>(Y8-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z38">
-        <f>(Z8-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="10"/>
         <v>-0.30000000000000004</v>
       </c>
       <c r="AB38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.9200000000000006E-2</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.96079999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>6</v>
       </c>
       <c r="B39">
-        <f>(B9-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B39:Z39" si="11">(B9-B$3*$AF$19)/B$3</f>
         <v>-0.22000000000000008</v>
       </c>
       <c r="C39">
-        <f>(C9-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="11"/>
         <v>-1.0000000000000028E-2</v>
       </c>
       <c r="D39">
-        <f>(D9-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="11"/>
         <v>-0.10999999999999989</v>
       </c>
       <c r="E39">
-        <f>(E9-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="11"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F39">
-        <f>(F9-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="11"/>
         <v>-8.0000000000000029E-2</v>
       </c>
       <c r="G39">
-        <f>(G9-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H39">
-        <f>(H9-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I39">
-        <f>(I9-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="11"/>
         <v>-0.25000000000000006</v>
       </c>
       <c r="J39">
-        <f>(J9-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="11"/>
         <v>-4.9999999999999996E-2</v>
       </c>
       <c r="K39">
-        <f>(K9-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="11"/>
         <v>-9.9999999999998875E-3</v>
       </c>
       <c r="L39">
-        <f>(L9-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="11"/>
         <v>-0.10999999999999999</v>
       </c>
       <c r="M39">
-        <f>(M9-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="11"/>
         <v>-7.9999999999999988E-2</v>
       </c>
       <c r="N39">
-        <f>(N9-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f>(O9-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="11"/>
         <v>-0.25</v>
       </c>
       <c r="P39">
-        <f>(P9-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="11"/>
         <v>-0.21999999999999997</v>
       </c>
       <c r="Q39">
-        <f>(Q9-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="11"/>
         <v>-0.15000000000000002</v>
       </c>
       <c r="R39">
-        <f>(R9-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S39">
-        <f>(S9-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="11"/>
         <v>-1.0000000000000031E-2</v>
       </c>
       <c r="T39">
-        <f>(T9-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U39">
-        <f>(U9-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V39">
-        <f>(V9-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W39">
-        <f>(W9-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X39">
-        <f>(X9-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y39">
-        <f>(Y9-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="11"/>
         <v>-0.24999999999999997</v>
       </c>
       <c r="Z39">
-        <f>(Z9-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>7</v>
       </c>
       <c r="B40">
-        <f>(B10-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B40:Z40" si="12">(B10-B$3*$AF$19)/B$3</f>
         <v>-0.35000000000000009</v>
       </c>
       <c r="C40">
-        <f>(C10-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="12"/>
         <v>-0.35000000000000003</v>
       </c>
       <c r="D40">
-        <f>(D10-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="12"/>
         <v>-9.9999999999998215E-3</v>
       </c>
       <c r="E40">
-        <f>(E10-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="12"/>
         <v>-0.10999999999999997</v>
       </c>
       <c r="F40">
-        <f>(F10-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="G40">
-        <f>(G10-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="12"/>
         <v>-7.9999999999999877E-2</v>
       </c>
       <c r="H40">
-        <f>(H10-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f>(I10-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="12"/>
         <v>4.9999999999999871E-2</v>
       </c>
       <c r="J40">
-        <f>(J10-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="12"/>
         <v>-0.3</v>
       </c>
       <c r="K40">
-        <f>(K10-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="12"/>
         <v>-0.35</v>
       </c>
       <c r="L40">
-        <f>(L10-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="12"/>
         <v>5.00000000000001E-2</v>
       </c>
       <c r="M40">
-        <f>(M10-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="12"/>
         <v>-0.10999999999999993</v>
       </c>
       <c r="N40">
-        <f>(N10-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="12"/>
         <v>7.0000000000000132E-2</v>
       </c>
       <c r="O40">
-        <f>(O10-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="12"/>
         <v>-5.0000000000000058E-2</v>
       </c>
       <c r="P40">
-        <f>(P10-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="12"/>
         <v>-0.24999999999999994</v>
       </c>
       <c r="Q40">
-        <f>(Q10-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="12"/>
         <v>0.10999999999999996</v>
       </c>
       <c r="R40">
-        <f>(R10-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f>(S10-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T40">
-        <f>(T10-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="12"/>
         <v>-1.0000004115922443E-2</v>
       </c>
       <c r="U40">
-        <f>(U10-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V40">
-        <f>(V10-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W40">
-        <f>(W10-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X40">
-        <f>(X10-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="12"/>
         <v>-0.19999999999999998</v>
       </c>
       <c r="Y40">
-        <f>(Y10-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z40">
-        <f>(Z10-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.3600000164636886E-2</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.92639999983536314</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>8</v>
       </c>
       <c r="B41">
-        <f>(B11-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B41:Z41" si="13">(B11-B$3*$AF$19)/B$3</f>
         <v>-0.15</v>
       </c>
       <c r="C41">
-        <f>(C11-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="13"/>
         <v>-2.0000000000000056E-2</v>
       </c>
       <c r="D41">
-        <f>(D11-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="13"/>
         <v>-4.999999999999985E-2</v>
       </c>
       <c r="E41">
-        <f>(E11-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="13"/>
         <v>-9.9999999999999516E-3</v>
       </c>
       <c r="F41">
-        <f>(F11-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="13"/>
         <v>-0.11000000000000006</v>
       </c>
       <c r="G41">
-        <f>(G11-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="13"/>
         <v>5.0000000000000135E-2</v>
       </c>
       <c r="H41">
-        <f>(H11-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I41">
-        <f>(I11-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="13"/>
         <v>-2.0000000000000153E-2</v>
       </c>
       <c r="J41">
-        <f>(J11-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="13"/>
         <v>-4.9999999999999996E-2</v>
       </c>
       <c r="K41">
-        <f>(K11-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="13"/>
         <v>-0.25</v>
       </c>
       <c r="L41">
-        <f>(L11-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="13"/>
         <v>5.00000000000001E-2</v>
       </c>
       <c r="M41">
-        <f>(M11-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="13"/>
         <v>-1.0000000000000044E-2</v>
       </c>
       <c r="N41">
-        <f>(N11-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="13"/>
         <v>-0.11</v>
       </c>
       <c r="O41">
-        <f>(O11-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="13"/>
         <v>-2.0000000000000077E-2</v>
       </c>
       <c r="P41">
-        <f>(P11-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="13"/>
         <v>-3.0000000000000082E-2</v>
       </c>
       <c r="Q41">
-        <f>(Q11-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="13"/>
         <v>-0.25</v>
       </c>
       <c r="R41">
-        <f>(R11-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="13"/>
         <v>-2.0000000000000077E-2</v>
       </c>
       <c r="S41">
-        <f>(S11-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T41">
-        <f>(T11-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U41">
-        <f>(U11-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="13"/>
         <v>-1.0000000000000024E-2</v>
       </c>
       <c r="V41">
-        <f>(V11-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W41">
-        <f>(W11-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="13"/>
         <v>-2.0000000000000004E-2</v>
       </c>
       <c r="X41">
-        <f>(X11-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y41">
-        <f>(Y11-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="13"/>
         <v>2.9999999999999971E-2</v>
       </c>
       <c r="Z41">
-        <f>(Z11-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.04</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>9</v>
       </c>
       <c r="B42">
-        <f>(B12-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B42:Z42" si="14">(B12-B$3*$AF$19)/B$3</f>
         <v>4.9999999999999815E-2</v>
       </c>
       <c r="C42">
-        <f>(C12-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="14"/>
         <v>5.0000000000000024E-2</v>
       </c>
       <c r="D42">
-        <f>(D12-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="14"/>
         <v>-0.21999999999999989</v>
       </c>
       <c r="E42">
-        <f>(E12-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="14"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F42">
-        <f>(F12-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="14"/>
         <v>-1.0000000000000054E-2</v>
       </c>
       <c r="G42">
-        <f>(G12-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="14"/>
         <v>5.0000000000000135E-2</v>
       </c>
       <c r="H42">
-        <f>(H12-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="14"/>
         <v>5.0000000000000051E-2</v>
       </c>
       <c r="I42">
-        <f>(I12-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="14"/>
         <v>-8.0000000000000099E-2</v>
       </c>
       <c r="J42">
-        <f>(J12-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="14"/>
         <v>-0.17999999999999997</v>
       </c>
       <c r="K42">
-        <f>(K12-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="14"/>
         <v>-0.18999999999999989</v>
       </c>
       <c r="L42">
-        <f>(L12-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="14"/>
         <v>-0.29999999999999993</v>
       </c>
       <c r="M42">
-        <f>(M12-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="14"/>
         <v>-1.9999999999999903E-2</v>
       </c>
       <c r="N42">
-        <f>(N12-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="14"/>
         <v>7.0000000000000132E-2</v>
       </c>
       <c r="O42">
-        <f>(O12-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="14"/>
         <v>2.9999999999999978E-2</v>
       </c>
       <c r="P42">
-        <f>(P12-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="14"/>
         <v>4.0000000000000112E-2</v>
       </c>
       <c r="Q42">
-        <f>(Q12-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="14"/>
         <v>-0.29000000000000004</v>
       </c>
       <c r="R42">
-        <f>(R12-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="14"/>
         <v>6.9999999999999868E-2</v>
       </c>
       <c r="S42">
-        <f>(S12-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="14"/>
         <v>2.9999999999999961E-2</v>
       </c>
       <c r="T42">
-        <f>(T12-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U42">
-        <f>(U12-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V42">
-        <f>(V12-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="14"/>
         <v>3.9999999999999994E-2</v>
       </c>
       <c r="W42">
-        <f>(W12-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X42">
-        <f>(X12-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y42">
-        <f>(Y12-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="14"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="Z42">
-        <f>(Z12-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.799999999999999E-2</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>10</v>
       </c>
       <c r="B43">
-        <f>(B13-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B43:Z43" si="15">(B13-B$3*$AF$19)/B$3</f>
         <v>7.9999999999999918E-2</v>
       </c>
       <c r="C43">
-        <f>(C13-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="15"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="D43">
-        <f>(D13-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="15"/>
         <v>0.15000000000000011</v>
       </c>
       <c r="E43">
-        <f>(E13-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="15"/>
         <v>8.99999999999999E-2</v>
       </c>
       <c r="F43">
-        <f>(F13-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G43">
-        <f>(G13-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="15"/>
         <v>0.15000000000000008</v>
       </c>
       <c r="H43">
-        <f>(H13-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="15"/>
         <v>7.9999999999999974E-2</v>
       </c>
       <c r="I43">
-        <f>(I13-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="15"/>
         <v>4.9999999999999871E-2</v>
       </c>
       <c r="J43">
-        <f>(J13-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="15"/>
         <v>-7.9999999999999988E-2</v>
       </c>
       <c r="K43">
-        <f>(K13-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="15"/>
         <v>-0.14999999999999988</v>
       </c>
       <c r="L43">
-        <f>(L13-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="15"/>
         <v>-0.10999999999999999</v>
       </c>
       <c r="M43">
-        <f>(M13-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="15"/>
         <v>-0.25</v>
       </c>
       <c r="N43">
-        <f>(N13-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="15"/>
         <v>-0.25999999999999995</v>
       </c>
       <c r="O43">
-        <f>(O13-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="15"/>
         <v>-1.0000000000000038E-2</v>
       </c>
       <c r="P43">
-        <f>(P13-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="15"/>
         <v>-0.10999999999999999</v>
       </c>
       <c r="Q43">
-        <f>(Q13-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="15"/>
         <v>-0.14000000000000004</v>
       </c>
       <c r="R43">
-        <f>(R13-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="15"/>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="S43">
-        <f>(S13-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="15"/>
         <v>6.000000000000006E-2</v>
       </c>
       <c r="T43">
-        <f>(T13-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="15"/>
         <v>-0.17999999176815495</v>
       </c>
       <c r="U43">
-        <f>(U13-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="15"/>
         <v>-4.999999999999992E-2</v>
       </c>
       <c r="V43">
-        <f>(V13-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W43">
-        <f>(W13-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="15"/>
         <v>-1.0000000000000064E-2</v>
       </c>
       <c r="X43">
-        <f>(X13-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y43">
-        <f>(Y13-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="15"/>
         <v>0.15</v>
       </c>
       <c r="Z43">
-        <f>(Z13-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.5999999670726194E-2</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.98400000032927382</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>11</v>
       </c>
       <c r="B44">
-        <f>(B14-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B44:Z44" si="16">(B14-B$3*$AF$19)/B$3</f>
         <v>-0.26000000000000006</v>
       </c>
       <c r="C44">
-        <f>(C14-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="16"/>
         <v>-7.9999999999999988E-2</v>
       </c>
       <c r="D44">
-        <f>(D14-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="16"/>
         <v>-0.2599999999999999</v>
       </c>
       <c r="E44">
-        <f>(E14-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="16"/>
         <v>6.0000000000000046E-2</v>
       </c>
       <c r="F44">
-        <f>(F14-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="16"/>
         <v>0.10999999999999992</v>
       </c>
       <c r="G44">
-        <f>(G14-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="16"/>
         <v>8.0000000000000043E-2</v>
       </c>
       <c r="H44">
-        <f>(H14-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="16"/>
         <v>0.15</v>
       </c>
       <c r="I44">
-        <f>(I14-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="16"/>
         <v>8.9999999999999844E-2</v>
       </c>
       <c r="J44">
-        <f>(J14-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="16"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="K44">
-        <f>(K14-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="16"/>
         <v>8.0000000000000043E-2</v>
       </c>
       <c r="L44">
-        <f>(L14-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="16"/>
         <v>5.00000000000001E-2</v>
       </c>
       <c r="M44">
-        <f>(M14-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="16"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="N44">
-        <f>(N14-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="16"/>
         <v>-5.0000000000000017E-2</v>
       </c>
       <c r="O44">
-        <f>(O14-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="16"/>
         <v>-0.31000000000000011</v>
       </c>
       <c r="P44">
-        <f>(P14-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="16"/>
         <v>6.9999999999999979E-2</v>
       </c>
       <c r="Q44">
-        <f>(Q14-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="16"/>
         <v>-0.11000000000000008</v>
       </c>
       <c r="R44">
-        <f>(R14-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="16"/>
         <v>7.9999999999999905E-2</v>
       </c>
       <c r="S44">
-        <f>(S14-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="16"/>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="T44">
-        <f>(T14-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="16"/>
         <v>0.11000000411592244</v>
       </c>
       <c r="U44">
-        <f>(U14-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V44">
-        <f>(V14-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W44">
-        <f>(W14-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X44">
-        <f>(X14-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="16"/>
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="Y44">
-        <f>(Y14-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="16"/>
         <v>8.0000000000000029E-2</v>
       </c>
       <c r="Z44">
-        <f>(Z14-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB44" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.8000001646368897E-3</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0088000001646369</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>12</v>
       </c>
       <c r="B45">
-        <f>(B15-B$3*$AF$19)/B$3</f>
+        <f t="shared" ref="B45:Z45" si="17">(B15-B$3*$AF$19)/B$3</f>
         <v>0.19999999999999982</v>
       </c>
       <c r="C45">
-        <f>(C15-C$3*$AF$19)/C$3</f>
+        <f t="shared" si="17"/>
         <v>-1.0000000000000028E-2</v>
       </c>
       <c r="D45">
-        <f>(D15-D$3*$AF$19)/D$3</f>
+        <f t="shared" si="17"/>
         <v>0.15000000000000011</v>
       </c>
       <c r="E45">
-        <f>(E15-E$3*$AF$19)/E$3</f>
+        <f t="shared" si="17"/>
         <v>-0.15000000000000011</v>
       </c>
       <c r="F45">
-        <f>(F15-F$3*$AF$19)/F$3</f>
+        <f t="shared" si="17"/>
         <v>0.36000000000000004</v>
       </c>
       <c r="G45">
-        <f>(G15-G$3*$AF$19)/G$3</f>
+        <f t="shared" si="17"/>
         <v>-0.16999999999999996</v>
       </c>
       <c r="H45">
-        <f>(H15-H$3*$AF$19)/H$3</f>
+        <f t="shared" si="17"/>
         <v>0.45000000000000012</v>
       </c>
       <c r="I45">
-        <f>(I15-I$3*$AF$19)/I$3</f>
+        <f t="shared" si="17"/>
         <v>-1.0000000000000077E-2</v>
       </c>
       <c r="J45">
-        <f>(J15-J$3*$AF$19)/J$3</f>
+        <f t="shared" si="17"/>
         <v>0.35</v>
       </c>
       <c r="K45">
-        <f>(K15-K$3*$AF$19)/K$3</f>
+        <f t="shared" si="17"/>
         <v>5.0000000000000065E-2</v>
       </c>
       <c r="L45">
-        <f>(L15-L$3*$AF$19)/L$3</f>
+        <f t="shared" si="17"/>
         <v>2.0000000000000091E-2</v>
       </c>
       <c r="M45">
-        <f>(M15-M$3*$AF$19)/M$3</f>
+        <f t="shared" si="17"/>
         <v>-0.21000000000000002</v>
       </c>
       <c r="N45">
-        <f>(N15-N$3*$AF$19)/N$3</f>
+        <f t="shared" si="17"/>
         <v>0.25000000000000011</v>
       </c>
       <c r="O45">
-        <f>(O15-O$3*$AF$19)/O$3</f>
+        <f t="shared" si="17"/>
         <v>-0.20000000000000009</v>
       </c>
       <c r="P45">
-        <f>(P15-P$3*$AF$19)/P$3</f>
+        <f t="shared" si="17"/>
         <v>0.3</v>
       </c>
       <c r="Q45">
-        <f>(Q15-Q$3*$AF$19)/Q$3</f>
+        <f t="shared" si="17"/>
         <v>0.21000000000000005</v>
       </c>
       <c r="R45">
-        <f>(R15-R$3*$AF$19)/R$3</f>
+        <f t="shared" si="17"/>
         <v>-0.11000000000000001</v>
       </c>
       <c r="S45">
-        <f>(S15-S$3*$AF$19)/S$3</f>
+        <f t="shared" si="17"/>
         <v>0.14999999999999994</v>
       </c>
       <c r="T45">
-        <f>(T15-T$3*$AF$19)/T$3</f>
+        <f t="shared" si="17"/>
         <v>7.9999991768155115E-2</v>
       </c>
       <c r="U45">
-        <f>(U15-U$3*$AF$19)/U$3</f>
+        <f t="shared" si="17"/>
         <v>0.11000000000000007</v>
       </c>
       <c r="V45">
-        <f>(V15-V$3*$AF$19)/V$3</f>
+        <f t="shared" si="17"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="W45">
-        <f>(W15-W$3*$AF$19)/W$3</f>
+        <f t="shared" si="17"/>
         <v>0.24999999999999983</v>
       </c>
       <c r="X45">
-        <f>(X15-X$3*$AF$19)/X$3</f>
+        <f t="shared" si="17"/>
         <v>0.26</v>
       </c>
       <c r="Y45">
-        <f>(Y15-Y$3*$AF$19)/Y$3</f>
+        <f t="shared" si="17"/>
         <v>0.15</v>
       </c>
       <c r="Z45">
-        <f>(Z15-Z$3*$AF$19)/Z$3</f>
+        <f t="shared" si="17"/>
         <v>0.28999999999999981</v>
       </c>
       <c r="AB45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.11839999967072617</v>
       </c>
       <c r="AC45">
@@ -7663,7 +7579,7 @@
         <v>1.1183999996707261</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="T46" s="1"/>
       <c r="Y46" s="2"/>
       <c r="AC46" s="19" t="s">
@@ -7674,7 +7590,7 @@
         <v>1.0234666667215457</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -7683,8 +7599,11 @@
       <c r="AI47" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="48" spans="1:35" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AJ47" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>0</v>
       </c>
@@ -7703,8 +7622,11 @@
         <f>-AD3</f>
         <v>-100</v>
       </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -7713,103 +7635,103 @@
         <v>9.9999999999999811E-2</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:Z60" si="5">MIN(0.1,C34)</f>
+        <f t="shared" ref="C49:Z60" si="18">MIN(0.1,C34)</f>
         <v>0.1</v>
       </c>
       <c r="D49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="E49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="F49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="H49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="I49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="J49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="K49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="L49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="M49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>6.0000000000000081E-2</v>
       </c>
       <c r="N49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="O49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="P49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>7.9999999999999891E-2</v>
       </c>
       <c r="R49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="T49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="U49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="V49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="W49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>4.999999999999994E-2</v>
       </c>
       <c r="X49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB49" s="7">
-        <f t="shared" ref="AB49:AB60" si="6">AVERAGE(B49:Z49)</f>
+        <f t="shared" ref="AB49:AB60" si="19">AVERAGE(B49:Z49)</f>
         <v>9.5600000000000004E-2</v>
       </c>
       <c r="AE49">
@@ -7817,483 +7739,495 @@
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="AG49" s="7">
-        <f t="shared" ref="AG49:AG60" si="7">$AD$3 * AE49</f>
+        <f t="shared" ref="AG49:AG60" si="20">$AD$3 * AE49</f>
         <v>5.6</v>
       </c>
-      <c r="AI49" s="25">
+      <c r="AI49" s="29">
         <f>AE49*AD$3</f>
         <v>5.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>2</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50:Q58" si="8">MIN(0.1,B35)</f>
+        <f t="shared" ref="B50:Q58" si="21">MIN(0.1,B35)</f>
         <v>0.1</v>
       </c>
       <c r="C50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
       <c r="D50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
       <c r="E50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
       <c r="F50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
       <c r="G50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>6.0000000000000026E-2</v>
       </c>
       <c r="I50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-2.0000000000000153E-2</v>
       </c>
       <c r="J50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
       <c r="K50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-4.9999999999999906E-2</v>
       </c>
       <c r="L50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
       <c r="M50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-6.9999999999999937E-2</v>
       </c>
       <c r="N50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
       <c r="O50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-8.0000000000000029E-2</v>
       </c>
       <c r="P50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999853E-2</v>
       </c>
       <c r="R50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="S50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="T50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="U50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="V50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="W50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="X50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB50" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>7.1599999999999997E-2</v>
       </c>
       <c r="AE50">
-        <f t="shared" ref="AE50:AE52" si="9">5.6%</f>
+        <f t="shared" ref="AE50:AE52" si="22">5.6%</f>
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="AG50" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>5.6</v>
       </c>
-      <c r="AI50" s="25">
-        <f t="shared" ref="AI50:AI60" si="10">AE50*AD$3</f>
+      <c r="AI50" s="29">
+        <f t="shared" ref="AI50:AI59" si="23">AE50*AD$3</f>
         <v>5.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>3</v>
       </c>
       <c r="B51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0.1</v>
       </c>
       <c r="C51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="D51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="E51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="F51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="I51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999908E-2</v>
       </c>
       <c r="J51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="K51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="L51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="M51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="N51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.0000000000000017E-2</v>
       </c>
       <c r="O51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="P51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>2.9999999999999957E-2</v>
       </c>
       <c r="R51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.0000000000000031E-2</v>
       </c>
       <c r="T51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="U51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>2.0000000000000049E-2</v>
       </c>
       <c r="V51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="W51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="X51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AB51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>8.840000000000002E-2</v>
       </c>
       <c r="AE51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="AG51" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>5.6</v>
       </c>
-      <c r="AI51" s="25">
-        <f t="shared" si="10"/>
+      <c r="AI51" s="29">
+        <f t="shared" si="23"/>
         <v>5.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>4</v>
       </c>
       <c r="B52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="C52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="E52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>3.0000000000000082E-2</v>
       </c>
       <c r="H52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="I52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="J52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="K52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="L52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="M52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="N52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="O52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="P52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>7.9999999999999891E-2</v>
       </c>
       <c r="R52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="S52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="T52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.999999588407756E-2</v>
       </c>
       <c r="U52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="V52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="W52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="X52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="AB52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>9.0399999835363135E-2</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="AG52" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>5.6</v>
       </c>
-      <c r="AI52" s="25">
-        <f t="shared" si="10"/>
+      <c r="AI52" s="29">
+        <f t="shared" si="23"/>
         <v>5.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>5</v>
       </c>
       <c r="B53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-1.0000000000000037E-2</v>
       </c>
       <c r="C53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.10999999999999996</v>
       </c>
       <c r="D53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="E53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-8.0000000000000113E-2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.9999999999999985E-3</v>
       </c>
       <c r="K53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.18999999999999995</v>
       </c>
       <c r="M53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.23000000000000007</v>
       </c>
       <c r="P53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.09</v>
       </c>
       <c r="R53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.0000000000000038E-2</v>
       </c>
       <c r="S53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.30000000000000004</v>
       </c>
       <c r="AB53" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>-3.9200000000000006E-2</v>
       </c>
       <c r="AE53">
@@ -8301,120 +8235,123 @@
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="AG53" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>3.36</v>
       </c>
-      <c r="AI53" s="25">
-        <f t="shared" si="10"/>
+      <c r="AI53" s="29">
+        <f t="shared" si="23"/>
         <v>3.36</v>
       </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>6</v>
       </c>
       <c r="B54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-0.22000000000000008</v>
       </c>
       <c r="C54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.0000000000000028E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.10999999999999989</v>
       </c>
       <c r="E54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-8.0000000000000029E-2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.25000000000000006</v>
       </c>
       <c r="J54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-4.9999999999999996E-2</v>
       </c>
       <c r="K54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.9999999999998875E-3</v>
       </c>
       <c r="L54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.10999999999999999</v>
       </c>
       <c r="M54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-7.9999999999999988E-2</v>
       </c>
       <c r="N54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.25</v>
       </c>
       <c r="P54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.21999999999999997</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.15000000000000002</v>
       </c>
       <c r="R54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.0000000000000031E-2</v>
       </c>
       <c r="T54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.24999999999999997</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB54" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE54">
@@ -8422,499 +8359,514 @@
         <v>2.0160000000000001E-2</v>
       </c>
       <c r="AG54" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>2.016</v>
       </c>
-      <c r="AI54" s="25">
-        <f t="shared" si="10"/>
+      <c r="AI54" s="29">
+        <f t="shared" si="23"/>
         <v>2.016</v>
       </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>7</v>
       </c>
       <c r="B55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-0.35000000000000009</v>
       </c>
       <c r="C55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.35000000000000003</v>
       </c>
       <c r="D55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.9999999999998215E-3</v>
       </c>
       <c r="E55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.10999999999999997</v>
       </c>
       <c r="F55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.05</v>
       </c>
       <c r="G55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-7.9999999999999877E-2</v>
       </c>
       <c r="H55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>4.9999999999999871E-2</v>
       </c>
       <c r="J55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.3</v>
       </c>
       <c r="K55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.35</v>
       </c>
       <c r="L55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.00000000000001E-2</v>
       </c>
       <c r="M55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.10999999999999993</v>
       </c>
       <c r="N55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>7.0000000000000132E-2</v>
       </c>
       <c r="O55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-5.0000000000000058E-2</v>
       </c>
       <c r="P55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.24999999999999994</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="R55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.0000004115922443E-2</v>
       </c>
       <c r="U55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.19999999999999998</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB55" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>-7.400000016463687E-2</v>
       </c>
       <c r="AE55">
-        <f t="shared" ref="AE55:AE61" si="11">MAX(0.6*AG54/$AD$3, AB55)</f>
+        <f t="shared" ref="AE55:AE60" si="24">MAX(0.6*AG54/$AD$3, AB55)</f>
         <v>1.2096000000000001E-2</v>
       </c>
       <c r="AG55" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.2096</v>
       </c>
-      <c r="AI55" s="25">
-        <f t="shared" si="10"/>
+      <c r="AI55" s="29">
+        <f t="shared" si="23"/>
         <v>1.2096</v>
       </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>8</v>
       </c>
       <c r="B56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-0.15</v>
       </c>
       <c r="C56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-2.0000000000000056E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-4.999999999999985E-2</v>
       </c>
       <c r="E56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.9999999999999516E-3</v>
       </c>
       <c r="F56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.11000000000000006</v>
       </c>
       <c r="G56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.0000000000000135E-2</v>
       </c>
       <c r="H56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-2.0000000000000153E-2</v>
       </c>
       <c r="J56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-4.9999999999999996E-2</v>
       </c>
       <c r="K56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.25</v>
       </c>
       <c r="L56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.00000000000001E-2</v>
       </c>
       <c r="M56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.0000000000000044E-2</v>
       </c>
       <c r="N56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.11</v>
       </c>
       <c r="O56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-2.0000000000000077E-2</v>
       </c>
       <c r="P56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-3.0000000000000082E-2</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.25</v>
       </c>
       <c r="R56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-2.0000000000000077E-2</v>
       </c>
       <c r="S56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.0000000000000024E-2</v>
       </c>
       <c r="V56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-2.0000000000000004E-2</v>
       </c>
       <c r="X56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>2.9999999999999971E-2</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB56" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>-0.04</v>
       </c>
       <c r="AE56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>7.2575999999999995E-3</v>
       </c>
       <c r="AG56" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.72575999999999996</v>
       </c>
-      <c r="AI56" s="25">
-        <f t="shared" si="10"/>
+      <c r="AI56" s="29">
+        <f t="shared" si="23"/>
         <v>0.72575999999999996</v>
       </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>9</v>
       </c>
       <c r="B57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999815E-2</v>
       </c>
       <c r="C57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.0000000000000024E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.21999999999999989</v>
       </c>
       <c r="E57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>4.9999999999999926E-2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.0000000000000054E-2</v>
       </c>
       <c r="G57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.0000000000000135E-2</v>
       </c>
       <c r="H57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.0000000000000051E-2</v>
       </c>
       <c r="I57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-8.0000000000000099E-2</v>
       </c>
       <c r="J57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.17999999999999997</v>
       </c>
       <c r="K57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.18999999999999989</v>
       </c>
       <c r="L57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.29999999999999993</v>
       </c>
       <c r="M57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.9999999999999903E-2</v>
       </c>
       <c r="N57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>7.0000000000000132E-2</v>
       </c>
       <c r="O57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>2.9999999999999978E-2</v>
       </c>
       <c r="P57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>4.0000000000000112E-2</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.29000000000000004</v>
       </c>
       <c r="R57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>6.9999999999999868E-2</v>
       </c>
       <c r="S57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>2.9999999999999961E-2</v>
       </c>
       <c r="T57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>3.9999999999999994E-2</v>
       </c>
       <c r="W57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB57" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>-2.799999999999999E-2</v>
       </c>
       <c r="AE57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.3545599999999995E-3</v>
       </c>
       <c r="AG57" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.43545599999999995</v>
       </c>
-      <c r="AI57" s="25">
-        <f t="shared" si="10"/>
+      <c r="AI57" s="29">
+        <f t="shared" si="23"/>
         <v>0.43545599999999995</v>
       </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>10</v>
       </c>
       <c r="B58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>7.9999999999999918E-2</v>
       </c>
       <c r="C58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.99999999999999E-2</v>
       </c>
       <c r="F58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="H58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>7.9999999999999974E-2</v>
       </c>
       <c r="I58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>4.9999999999999871E-2</v>
       </c>
       <c r="J58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-7.9999999999999988E-2</v>
       </c>
       <c r="K58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.14999999999999988</v>
       </c>
       <c r="L58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.10999999999999999</v>
       </c>
       <c r="M58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.25</v>
       </c>
       <c r="N58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.25999999999999995</v>
       </c>
       <c r="O58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.0000000000000038E-2</v>
       </c>
       <c r="P58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.10999999999999999</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.14000000000000004</v>
       </c>
       <c r="R58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="S58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>6.000000000000006E-2</v>
       </c>
       <c r="T58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.17999999176815495</v>
       </c>
       <c r="U58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-4.999999999999992E-2</v>
       </c>
       <c r="V58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.0000000000000064E-2</v>
       </c>
       <c r="X58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB58" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>-2.1999999670726206E-2</v>
       </c>
       <c r="AE58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.6127359999999992E-3</v>
       </c>
       <c r="AG58" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.26127359999999994</v>
       </c>
-      <c r="AI58" s="25">
-        <f t="shared" si="10"/>
+      <c r="AI58" s="29">
+        <f t="shared" si="23"/>
         <v>0.26127359999999994</v>
       </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>11</v>
       </c>
@@ -8923,119 +8875,122 @@
         <v>-0.26000000000000006</v>
       </c>
       <c r="C59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-7.9999999999999988E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.2599999999999999</v>
       </c>
       <c r="E59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>6.0000000000000046E-2</v>
       </c>
       <c r="F59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="G59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.0000000000000043E-2</v>
       </c>
       <c r="H59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="I59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.9999999999999844E-2</v>
       </c>
       <c r="J59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="K59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.0000000000000043E-2</v>
       </c>
       <c r="L59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.00000000000001E-2</v>
       </c>
       <c r="M59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>5.0000000000000037E-2</v>
       </c>
       <c r="N59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-5.0000000000000017E-2</v>
       </c>
       <c r="O59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.31000000000000011</v>
       </c>
       <c r="P59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>6.9999999999999979E-2</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.11000000000000008</v>
       </c>
       <c r="R59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>7.9999999999999905E-2</v>
       </c>
       <c r="S59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="T59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="U59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>8.0000000000000029E-2</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB59" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>5.1999999999999911E-3</v>
       </c>
       <c r="AE59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>5.1999999999999911E-3</v>
       </c>
       <c r="AG59" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.51999999999999913</v>
       </c>
-      <c r="AI59" s="25">
-        <f t="shared" si="10"/>
+      <c r="AI59" s="29">
+        <f t="shared" si="23"/>
         <v>0.51999999999999913</v>
       </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>12</v>
       </c>
@@ -9044,119 +8999,122 @@
         <v>0.1</v>
       </c>
       <c r="C60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.0000000000000028E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="E60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.15000000000000011</v>
       </c>
       <c r="F60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="G60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-0.16999999999999996</v>
       </c>
       <c r="H60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="I60">
-        <f t="shared" ref="I60:Z60" si="12">MIN(0.1,I45)</f>
+        <f t="shared" ref="I60:Z60" si="25">MIN(0.1,I45)</f>
         <v>-1.0000000000000077E-2</v>
       </c>
       <c r="J60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
       <c r="K60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000065E-2</v>
       </c>
       <c r="L60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.0000000000000091E-2</v>
       </c>
       <c r="M60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>-0.21000000000000002</v>
       </c>
       <c r="N60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
       <c r="O60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>-0.20000000000000009</v>
       </c>
       <c r="P60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
       <c r="R60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>-0.11000000000000001</v>
       </c>
       <c r="S60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
       <c r="T60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>7.9999991768155115E-2</v>
       </c>
       <c r="U60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
       <c r="V60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
       <c r="W60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
       <c r="X60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
       <c r="AB60" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>3.15999996707262E-2</v>
       </c>
       <c r="AE60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>3.15999996707262E-2</v>
       </c>
       <c r="AG60" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>3.1599999670726202</v>
       </c>
-      <c r="AI60" s="25">
+      <c r="AI60" s="29">
         <f>AE60*AD$3+AD68</f>
         <v>103.15999996707262</v>
       </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="AB61" s="15" t="s">
         <v>273</v>
       </c>
@@ -9175,22 +9133,24 @@
         <f>SUM(AG49:AG60)</f>
         <v>34.088089567072615</v>
       </c>
-      <c r="AI61" s="9"/>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AI62" s="8"/>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AI63" s="9"/>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI61" s="30"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AI62" s="31"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AI63" s="30"/>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="AB64" s="10" t="s">
         <v>73</v>
       </c>
       <c r="AD64" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AI64" s="8"/>
+      <c r="AI64" s="32" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="65" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AA65" s="16" t="s">
@@ -9205,7 +9165,10 @@
         <f>$AD$3 * (1+MAX(0,AB65))</f>
         <v>100</v>
       </c>
-      <c r="AI65" s="9"/>
+      <c r="AI65" s="26">
+        <f>LN(1+0.042)</f>
+        <v>4.1141943331175213E-2</v>
+      </c>
     </row>
     <row r="66" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AA66" s="16" t="s">
@@ -9217,13 +9180,13 @@
       </c>
       <c r="AC66" s="16"/>
       <c r="AD66" s="16">
-        <f t="shared" ref="AD66:AD68" si="13">$AD$3 * (1+MAX(0,AB66))</f>
+        <f t="shared" ref="AD66:AD67" si="26">$AD$3 * (1+MAX(0,AB66))</f>
         <v>100</v>
       </c>
       <c r="AF66" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="AI66" s="8"/>
+      <c r="AI66" s="27"/>
     </row>
     <row r="67" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AA67" s="16" t="s">
@@ -9235,14 +9198,16 @@
       </c>
       <c r="AC67" s="16"/>
       <c r="AD67" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>102.34666667215457</v>
       </c>
       <c r="AF67">
         <f>AD68+AF61*AD3</f>
         <v>134.08808956707261</v>
       </c>
-      <c r="AI67" s="9"/>
+      <c r="AI67" s="28" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="68" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AA68" s="21" t="s">
@@ -9259,13 +9224,16 @@
       <c r="AF68" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="AI68" s="8"/>
+      <c r="AI68" s="27">
+        <f>AI48*EXP(-AI65*AJ48)+AI49*EXP(-AI65*AJ49)+AI50*EXP(-AI65*AJ50)+AI51*EXP(-AI65*AJ51)+AI52*EXP(-AI65*AJ52)+AI53*EXP(-AI65*AJ53)+AI54*EXP(-AI65*AJ54)+AI55*EXP(-AI65*AJ55)+AI56*EXP(-AI65*AJ56)+AI57*EXP(-AI65*AJ57)+AI58*EXP(-AI65*AJ58)+AI59*EXP(-AI65*AJ59)+AI60*EXP(-AI65*AJ60)</f>
+        <v>-10.259119391249051</v>
+      </c>
     </row>
     <row r="69" spans="27:35" x14ac:dyDescent="0.35">
       <c r="AA69" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="AF69" s="26">
+      <c r="AF69" s="25">
         <f>IRR(AI48:AI60)</f>
         <v>3.0232099034068316E-2</v>
       </c>
